--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
   <si>
     <t>Threads</t>
   </si>
@@ -117,6 +118,9 @@
   <si>
     <t>MPI-Complex</t>
   </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
 </sst>
 </file>
 
@@ -186,7 +190,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="465">
+  <cellStyleXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -652,14 +656,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="465">
+  <cellStyles count="481">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -892,6 +913,14 @@
     <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1124,6 +1153,14 @@
     <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1463,11 +1500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2100611544"/>
-        <c:axId val="2100608376"/>
+        <c:axId val="659296344"/>
+        <c:axId val="659301896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2100611544"/>
+        <c:axId val="659296344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1496,12 +1533,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100608376"/>
+        <c:crossAx val="659301896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100608376"/>
+        <c:axId val="659301896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100611544"/>
+        <c:crossAx val="659296344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1914,11 +1951,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099472072"/>
-        <c:axId val="2109425208"/>
+        <c:axId val="659349736"/>
+        <c:axId val="659355176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099472072"/>
+        <c:axId val="659349736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,12 +1984,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109425208"/>
+        <c:crossAx val="659355176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109425208"/>
+        <c:axId val="659355176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099472072"/>
+        <c:crossAx val="659349736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2472,11 +2509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102192584"/>
-        <c:axId val="2101409928"/>
+        <c:axId val="825583096"/>
+        <c:axId val="825588760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102192584"/>
+        <c:axId val="825583096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -2507,12 +2544,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101409928"/>
+        <c:crossAx val="825588760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101409928"/>
+        <c:axId val="825588760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -2543,7 +2580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102192584"/>
+        <c:crossAx val="825583096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2919,11 +2956,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110813048"/>
-        <c:axId val="2100602600"/>
+        <c:axId val="825633816"/>
+        <c:axId val="825639560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110813048"/>
+        <c:axId val="825633816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2957,12 +2994,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100602600"/>
+        <c:crossAx val="825639560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100602600"/>
+        <c:axId val="825639560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110813048"/>
+        <c:crossAx val="825633816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3002,6 +3039,1083 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 500 Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$10:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>419036.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211595.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146625.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109294.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92766.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81967.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73487.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70594.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123828.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109688.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109240.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105652.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="723110024"/>
+        <c:axId val="723117240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="723110024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723117240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723117240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Micro Seconds (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723110024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$10:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.81267E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74267E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.18595E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>837257.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>668388.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>580381.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>557676.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>509437.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>964103.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01408E6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>953839.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>739821.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="730660792"/>
+        <c:axId val="730293048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="730660792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="730293048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730293048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Micro Seconds (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="730660792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP 3000 Nodes</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$10:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.3042E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.64869E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.15419E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3744E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.98699E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.95192E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.95692E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.96785E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5979E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.39206E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.37227E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.37234E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="729013736"/>
+        <c:axId val="672441096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="729013736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="672441096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="672441096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Micro Seconds (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="729013736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP 7 Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206030.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522900.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.1872E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.54454E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.72506E6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.25255E6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.13538E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.59946E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.15132E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.82679E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.64578E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="677203144"/>
+        <c:axId val="676576584"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="677203144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="676576584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="676576584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Micro Secdons (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="677203144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP 2 Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$R$10:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$10:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>109492.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600252.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.63254E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.71435E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.16933E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.37744E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.41049E7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.87276E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.14226E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>5.13324E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>7.91247E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>9.28684E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="673206584"/>
+        <c:axId val="728980136"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="673206584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="728980136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="728980136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Micro Seconds (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="673206584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -3136,6 +4250,161 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5" title="OMP 500 Nodes"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3469,7 +4738,7 @@
   <dimension ref="B8:AD101"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="Y59" sqref="Y59:Z72"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4588,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="DM47" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="DM6" sqref="DM6:ED26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5117,15 +6386,15 @@
         <v>400</v>
       </c>
       <c r="M39">
-        <f>A39/D39</f>
+        <f t="shared" ref="M39:M50" si="0">A39/D39</f>
         <v>0.17201389044221263</v>
       </c>
       <c r="N39">
-        <f>A39/G39</f>
+        <f t="shared" ref="N39:N50" si="1">A39/G39</f>
         <v>2.0374695315811785E-2</v>
       </c>
       <c r="O39">
-        <f>A39/J39</f>
+        <f t="shared" ref="O39:O50" si="2">A39/J39</f>
         <v>6.4424915544255228</v>
       </c>
     </row>
@@ -5155,15 +6424,15 @@
         <v>700</v>
       </c>
       <c r="M40">
-        <f>A40/D40</f>
+        <f t="shared" si="0"/>
         <v>1.0548987114524575</v>
       </c>
       <c r="N40">
-        <f>A40/G40</f>
+        <f t="shared" si="1"/>
         <v>0.16270350567713254</v>
       </c>
       <c r="O40">
-        <f>A40/J40</f>
+        <f t="shared" si="2"/>
         <v>11.749614479024112</v>
       </c>
     </row>
@@ -5193,15 +6462,15 @@
         <v>1000</v>
       </c>
       <c r="M41">
-        <f>A41/D41</f>
+        <f t="shared" si="0"/>
         <v>2.3208237662479663</v>
       </c>
       <c r="N41">
-        <f>A41/G41</f>
+        <f t="shared" si="1"/>
         <v>0.83832791630753223</v>
       </c>
       <c r="O41">
-        <f>A41/J41</f>
+        <f t="shared" si="2"/>
         <v>0.8870326623221787</v>
       </c>
     </row>
@@ -5231,15 +6500,15 @@
         <v>1300</v>
       </c>
       <c r="M42">
-        <f>A42/D42</f>
+        <f t="shared" si="0"/>
         <v>3.5735632535250015</v>
       </c>
       <c r="N42">
-        <f>A42/G42</f>
+        <f t="shared" si="1"/>
         <v>1.6087782170315574</v>
       </c>
       <c r="O42">
-        <f>A42/J42</f>
+        <f t="shared" si="2"/>
         <v>1.9125733249199561</v>
       </c>
     </row>
@@ -5269,15 +6538,15 @@
         <v>1600</v>
       </c>
       <c r="M43">
-        <f>A43/D43</f>
+        <f t="shared" si="0"/>
         <v>3.3392111609573947</v>
       </c>
       <c r="N43">
-        <f>A43/G43</f>
+        <f t="shared" si="1"/>
         <v>0.99191187798490221</v>
       </c>
       <c r="O43">
-        <f>A43/J43</f>
+        <f t="shared" si="2"/>
         <v>2.9710611674360745</v>
       </c>
     </row>
@@ -5307,15 +6576,15 @@
         <v>1900</v>
       </c>
       <c r="M44">
-        <f>A44/D44</f>
+        <f t="shared" si="0"/>
         <v>3.8831287720940635</v>
       </c>
       <c r="N44">
-        <f>A44/G44</f>
+        <f t="shared" si="1"/>
         <v>1.8662503649828788</v>
       </c>
       <c r="O44">
-        <f>A44/J44</f>
+        <f t="shared" si="2"/>
         <v>2.2193995927837493</v>
       </c>
     </row>
@@ -5345,15 +6614,15 @@
         <v>2200</v>
       </c>
       <c r="M45">
-        <f>A45/D45</f>
+        <f t="shared" si="0"/>
         <v>3.9696571128888594</v>
       </c>
       <c r="N45">
-        <f>A45/G45</f>
+        <f t="shared" si="1"/>
         <v>2.7051605693247636</v>
       </c>
       <c r="O45">
-        <f>A45/J45</f>
+        <f t="shared" si="2"/>
         <v>2.8441755187489188</v>
       </c>
     </row>
@@ -5383,15 +6652,15 @@
         <v>2500</v>
       </c>
       <c r="M46">
-        <f>A46/D46</f>
+        <f t="shared" si="0"/>
         <v>6.4142438136864834</v>
       </c>
       <c r="N46">
-        <f>A46/G46</f>
+        <f t="shared" si="1"/>
         <v>1.1803519371939311</v>
       </c>
       <c r="O46">
-        <f>A46/J46</f>
+        <f t="shared" si="2"/>
         <v>2.7815600457076521</v>
       </c>
     </row>
@@ -5421,15 +6690,15 @@
         <v>2800</v>
       </c>
       <c r="M47">
-        <f>A47/D47</f>
+        <f t="shared" si="0"/>
         <v>6.5959847850084454</v>
       </c>
       <c r="N47">
-        <f>A47/G47</f>
+        <f t="shared" si="1"/>
         <v>1.7012254628716481</v>
       </c>
       <c r="O47">
-        <f>A47/J47</f>
+        <f t="shared" si="2"/>
         <v>4.3595580188202412</v>
       </c>
     </row>
@@ -5459,15 +6728,15 @@
         <v>3100</v>
       </c>
       <c r="M48">
-        <f>A48/D48</f>
+        <f t="shared" si="0"/>
         <v>6.2008127377113187</v>
       </c>
       <c r="N48">
-        <f>A48/G48</f>
+        <f t="shared" si="1"/>
         <v>2.0094917923178346</v>
       </c>
       <c r="O48">
-        <f>A48/J48</f>
+        <f t="shared" si="2"/>
         <v>3.4990832975175583</v>
       </c>
     </row>
@@ -5497,15 +6766,15 @@
         <v>3400</v>
       </c>
       <c r="M49">
-        <f>A49/D49</f>
+        <f t="shared" si="0"/>
         <v>7.3103222818535967</v>
       </c>
       <c r="N49">
-        <f>A49/G49</f>
+        <f t="shared" si="1"/>
         <v>3.0894947794112353</v>
       </c>
       <c r="O49">
-        <f>A49/J49</f>
+        <f t="shared" si="2"/>
         <v>5.1440497842188622</v>
       </c>
     </row>
@@ -5535,15 +6804,15 @@
         <v>3700</v>
       </c>
       <c r="M50">
-        <f>A50/D50</f>
+        <f t="shared" si="0"/>
         <v>6.2871386934348168</v>
       </c>
       <c r="N50">
-        <f>A50/G50</f>
+        <f t="shared" si="1"/>
         <v>4.0071863126918528</v>
       </c>
       <c r="O50">
-        <f>A50/J50</f>
+        <f t="shared" si="2"/>
         <v>5.3275642431707348</v>
       </c>
     </row>
@@ -5603,4 +6872,459 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B8:R21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="8" spans="2:18">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10">
+        <v>419036</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3812670</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>93042000</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>50003</v>
+      </c>
+      <c r="O10">
+        <v>400</v>
+      </c>
+      <c r="Q10">
+        <v>109492</v>
+      </c>
+      <c r="R10">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11">
+        <v>211595</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1742670</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4">
+        <v>46486900</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>206030</v>
+      </c>
+      <c r="O11">
+        <v>700</v>
+      </c>
+      <c r="Q11">
+        <v>600252</v>
+      </c>
+      <c r="R11">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12">
+        <v>146625</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1185950</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>31541900</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>522900</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>1632540</v>
+      </c>
+      <c r="R12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13">
+        <v>109294</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>837257</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>23744000</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1187200</v>
+      </c>
+      <c r="O13">
+        <v>1300</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>3714350</v>
+      </c>
+      <c r="R13">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14">
+        <v>92766</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>668388</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>19869900</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2544540</v>
+      </c>
+      <c r="O14">
+        <v>1600</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>7169330</v>
+      </c>
+      <c r="R14">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15">
+        <v>81967</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>580381</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4">
+        <v>19519200</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+      <c r="N15" s="4">
+        <v>4725060</v>
+      </c>
+      <c r="O15">
+        <v>1900</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>13774400</v>
+      </c>
+      <c r="R15">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16">
+        <v>73487</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>557676</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="H16" s="4">
+        <v>19569200</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="N16" s="4">
+        <v>8252550</v>
+      </c>
+      <c r="O16">
+        <v>2200</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>24104900</v>
+      </c>
+      <c r="R16">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17">
+        <v>70594</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>509437</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>19678500</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="N17" s="4">
+        <v>11353800</v>
+      </c>
+      <c r="O17">
+        <v>2500</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>28727600</v>
+      </c>
+      <c r="R17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18">
+        <v>123828</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>964103</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="H18" s="4">
+        <v>25979000</v>
+      </c>
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="N18" s="4">
+        <v>15994600</v>
+      </c>
+      <c r="O18">
+        <v>2800</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>41422600</v>
+      </c>
+      <c r="R18">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19">
+        <v>109688</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1014080</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4">
+        <v>23920600</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="N19" s="4">
+        <v>21513200</v>
+      </c>
+      <c r="O19">
+        <v>3100</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>51332400</v>
+      </c>
+      <c r="R19">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20">
+        <v>109240</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>953839</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="H20" s="4">
+        <v>23722700</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="N20" s="4">
+        <v>28267900</v>
+      </c>
+      <c r="O20">
+        <v>3400</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>79124700</v>
+      </c>
+      <c r="R20">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21">
+        <v>105652</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>739821</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="H21" s="4">
+        <v>23723400</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="N21" s="4">
+        <v>36457800</v>
+      </c>
+      <c r="O21">
+        <v>3700</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>92868400</v>
+      </c>
+      <c r="R21">
+        <v>3700</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Threads</t>
   </si>
@@ -121,12 +122,51 @@
   <si>
     <t>Time (ms)</t>
   </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Floyd-Warshal</t>
+  </si>
+  <si>
+    <t>Time( Seconds)</t>
+  </si>
+  <si>
+    <t>Threads/Processes</t>
+  </si>
+  <si>
+    <t>3000 Nodes</t>
+  </si>
+  <si>
+    <t>1 (Serial Version)</t>
+  </si>
+  <si>
+    <t>Floyd-Warshal OMP (FW OMP)</t>
+  </si>
+  <si>
+    <t>SqaureSum OMP (SS OMP)</t>
+  </si>
+  <si>
+    <t>SqaureSum MPI (SS MPI)</t>
+  </si>
+  <si>
+    <t>(SS OMP) / (FW OMP)</t>
+  </si>
+  <si>
+    <t>(SS MPI) / (FW OMP)</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Time(S)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,13 +212,68 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADF6FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFACF8FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -190,7 +285,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="481">
+  <cellStyleXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -672,15 +767,85 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="481">
+  <cellStyles count="515">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -921,6 +1086,23 @@
     <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1161,6 +1343,23 @@
     <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1218,7 +1417,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$10:$I$20</c:f>
+              <c:f>Sheet1!$P$43:$P$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1260,7 +1459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$10:$H$20</c:f>
+              <c:f>Sheet1!$O$43:$O$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1500,11 +1699,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="659296344"/>
-        <c:axId val="659301896"/>
+        <c:axId val="659212408"/>
+        <c:axId val="684513688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="659296344"/>
+        <c:axId val="659212408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1533,12 +1732,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659301896"/>
+        <c:crossAx val="684513688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="659301896"/>
+        <c:axId val="684513688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659296344"/>
+        <c:crossAx val="659212408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1577,6 +1776,1112 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP 2 Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$R$10:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$10:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>109492.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600252.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.63254E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.71435E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.16933E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.37744E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.41049E7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.87276E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.14226E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>5.13324E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>7.91247E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>9.28684E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="723835112"/>
+        <c:axId val="659424408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="723835112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="659424408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="659424408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Micro Seconds (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723835112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Floyd-Warshal</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OMP vs Serial</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$L$10:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.06E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.283E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.653E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.141E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.511E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.733E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4482E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6452E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>7 Threads</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206030.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522900.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.1872E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.54454E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.72506E6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.25255E6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.13538E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.59946E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.15132E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.82679E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.64578E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 Threads</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Q$10:$Q$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>109492.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600252.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.63254E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.71435E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.16933E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.37744E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.41049E7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.87276E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.14226E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>5.13324E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>7.91247E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>9.28684E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="672732968"/>
+        <c:axId val="730578952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="672732968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="730578952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="730578952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Spent on Computation (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="672732968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.202532320087896"/>
+          <c:y val="0.14370546147485"/>
+          <c:w val="0.132351400842337"/>
+          <c:h val="0.162086793945277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>up Plot (3000 Nodes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SS OMP) / (FW OMP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$E$6:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15.73028100389572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.27099825945806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.91231469002695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.88163000317062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.2203164064101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.07311489483474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22.06230149655716</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.35905924015551</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.10034865346187</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.75592154350053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.378933879629396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(SS MPI) / (FW OMP)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$F$6:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>15.5337094966539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.21203224916698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.77177392183289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.50096880205738</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.30062707488012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.03575005621078</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.71199532484691</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.517571884984025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.29310301581064</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.048409329460811</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.372425537654805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="728955272"/>
+        <c:axId val="682898296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="728955272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="682898296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="682898296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="728955272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.690151468496605"/>
+          <c:y val="0.166815617767129"/>
+          <c:w val="0.22703220770873"/>
+          <c:h val="0.112352528650942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1951,11 +3256,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="659349736"/>
-        <c:axId val="659355176"/>
+        <c:axId val="677175992"/>
+        <c:axId val="639330728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="659349736"/>
+        <c:axId val="677175992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,12 +3289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659355176"/>
+        <c:crossAx val="639330728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="659355176"/>
+        <c:axId val="639330728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2024,7 +3329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659349736"/>
+        <c:crossAx val="677175992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2047,6 +3352,477 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Parallelized</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Floyd-Warshal vs SqaureSum (3000 Nodes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SquareSum OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$43:$O$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>731.252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>576.302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>449.054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>593.745</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550.838</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>434.153</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>424.992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>385.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>373.773</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>151.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Floyd-Warshal OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$59:$O$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>46.4869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5419</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.8699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.5192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5692</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.6785</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.9206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.7227</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.7234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SquareSum MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$P$59:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$57:$R$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>722.114</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.984</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>447.092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396.252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>235.53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>328.867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>195.299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>198.376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190.93</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>174.899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="724285448"/>
+        <c:axId val="670455992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="724285448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> of Threads/Processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="670455992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="670455992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Spent on Computation (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="724285448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.724786962202412"/>
+          <c:y val="0.124932323544393"/>
+          <c:w val="0.23735775318834"/>
+          <c:h val="0.173890331577058"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2509,11 +4285,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="825583096"/>
-        <c:axId val="825588760"/>
+        <c:axId val="535563832"/>
+        <c:axId val="676610728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="825583096"/>
+        <c:axId val="535563832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -2544,12 +4320,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="825588760"/>
+        <c:crossAx val="676610728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="825588760"/>
+        <c:axId val="676610728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -2580,7 +4356,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="825583096"/>
+        <c:crossAx val="535563832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2602,7 +4378,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2956,11 +4732,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="825633816"/>
-        <c:axId val="825639560"/>
+        <c:axId val="723654120"/>
+        <c:axId val="624706952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="825633816"/>
+        <c:axId val="723654120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,12 +4770,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="825639560"/>
+        <c:crossAx val="624706952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="825639560"/>
+        <c:axId val="624706952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +4805,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="825633816"/>
+        <c:crossAx val="723654120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3051,7 +4827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3158,11 +4934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="723110024"/>
-        <c:axId val="723117240"/>
+        <c:axId val="659522584"/>
+        <c:axId val="723772136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="723110024"/>
+        <c:axId val="659522584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3195,7 +4971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723117240"/>
+        <c:crossAx val="723772136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3203,7 +4979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723117240"/>
+        <c:axId val="723772136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3238,7 +5014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723110024"/>
+        <c:crossAx val="659522584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3255,7 +5031,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3362,11 +5138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="730660792"/>
-        <c:axId val="730293048"/>
+        <c:axId val="677097848"/>
+        <c:axId val="676384168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="730660792"/>
+        <c:axId val="677097848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +5170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="730293048"/>
+        <c:crossAx val="676384168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3402,7 +5178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730293048"/>
+        <c:axId val="676384168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3437,7 +5213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="730660792"/>
+        <c:crossAx val="677097848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3454,7 +5230,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3556,11 +5332,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="729013736"/>
-        <c:axId val="672441096"/>
+        <c:axId val="724040952"/>
+        <c:axId val="624586952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="729013736"/>
+        <c:axId val="724040952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +5369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672441096"/>
+        <c:crossAx val="624586952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3601,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="672441096"/>
+        <c:axId val="624586952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,7 +5412,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729013736"/>
+        <c:crossAx val="724040952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3653,7 +5429,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3800,11 +5576,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677203144"/>
-        <c:axId val="676576584"/>
+        <c:axId val="676933608"/>
+        <c:axId val="676942920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="677203144"/>
+        <c:axId val="676933608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3833,7 +5609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="676576584"/>
+        <c:crossAx val="676942920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,7 +5617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676576584"/>
+        <c:axId val="676942920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +5647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677203144"/>
+        <c:crossAx val="676933608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3881,241 +5657,6 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OMP 2 Threads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$R$10:$R$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$Q$10:$Q$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>109492.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600252.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.63254E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.71435E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>7.16933E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.37744E7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.41049E7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.87276E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.14226E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.13324E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.91247E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.28684E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="673206584"/>
-        <c:axId val="728980136"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="673206584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="728980136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="728980136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time in Micro Seconds (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="673206584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4185,6 +5726,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4263,15 +5834,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4293,15 +5864,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4323,15 +5894,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4382,16 +5953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4405,6 +5976,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>977900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4735,18 +6371,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:AD101"/>
+  <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView showRuler="0" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39:S70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="7" spans="2:21">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="8" spans="2:21">
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -4754,9 +6396,6 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
@@ -4780,12 +6419,6 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>0</v>
-      </c>
       <c r="N9" t="s">
         <v>1</v>
       </c>
@@ -4818,12 +6451,6 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>731.25199999999995</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
       <c r="N10">
         <v>1.7882800000000001</v>
       </c>
@@ -4856,12 +6483,6 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="H11">
-        <v>576.30200000000002</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
       <c r="N11">
         <v>2.8241100000000001</v>
       </c>
@@ -4894,12 +6515,6 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="H12">
-        <v>449.05399999999997</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
       <c r="N12">
         <v>15.5481</v>
       </c>
@@ -4932,12 +6547,6 @@
       <c r="F13">
         <v>4</v>
       </c>
-      <c r="H13">
-        <v>593.745</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
       <c r="N13">
         <v>22.900700000000001</v>
       </c>
@@ -4970,12 +6579,6 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="H14">
-        <v>550.83799999999997</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
       <c r="N14">
         <v>46.275599999999997</v>
       </c>
@@ -5008,12 +6611,6 @@
       <c r="F15">
         <v>6</v>
       </c>
-      <c r="H15">
-        <v>510.23</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
       <c r="N15">
         <v>72.423299999999998</v>
       </c>
@@ -5046,12 +6643,6 @@
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="H16">
-        <v>434.15300000000002</v>
-      </c>
-      <c r="I16">
-        <v>8</v>
-      </c>
       <c r="N16">
         <v>120.127</v>
       </c>
@@ -5084,12 +6675,6 @@
       <c r="F17">
         <v>8</v>
       </c>
-      <c r="H17">
-        <v>424.99200000000002</v>
-      </c>
-      <c r="I17">
-        <v>9</v>
-      </c>
       <c r="N17">
         <v>95.634500000000003</v>
       </c>
@@ -5122,12 +6707,6 @@
       <c r="F18">
         <v>9</v>
       </c>
-      <c r="H18">
-        <v>385.13</v>
-      </c>
-      <c r="I18">
-        <v>10</v>
-      </c>
       <c r="N18">
         <v>150.37799999999999</v>
       </c>
@@ -5154,12 +6733,6 @@
       <c r="F19">
         <v>10</v>
       </c>
-      <c r="H19">
-        <v>373.77300000000002</v>
-      </c>
-      <c r="I19">
-        <v>11</v>
-      </c>
       <c r="N19">
         <v>207.447</v>
       </c>
@@ -5186,12 +6759,6 @@
       <c r="F20">
         <v>12</v>
       </c>
-      <c r="H20">
-        <v>151.33000000000001</v>
-      </c>
-      <c r="I20">
-        <v>12</v>
-      </c>
       <c r="N20">
         <v>293.65600000000001</v>
       </c>
@@ -5231,6 +6798,11 @@
         <v>3700</v>
       </c>
     </row>
+    <row r="39" spans="3:26">
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="40" spans="3:26">
       <c r="C40" s="2" t="s">
         <v>9</v>
@@ -5238,6 +6810,9 @@
       <c r="I40" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="O40" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="R40" s="3" t="s">
         <v>11</v>
       </c>
@@ -5259,6 +6834,12 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
+      <c r="O41" t="s">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>0</v>
+      </c>
       <c r="R41" t="s">
         <v>1</v>
       </c>
@@ -5311,6 +6892,12 @@
       <c r="J43">
         <v>3</v>
       </c>
+      <c r="O43">
+        <v>731.25199999999995</v>
+      </c>
+      <c r="P43">
+        <v>2</v>
+      </c>
       <c r="R43">
         <v>600.11599999999999</v>
       </c>
@@ -5337,6 +6924,12 @@
       <c r="J44">
         <v>4</v>
       </c>
+      <c r="O44">
+        <v>576.30200000000002</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
       <c r="R44">
         <v>550.18200000000002</v>
       </c>
@@ -5363,6 +6956,12 @@
       <c r="J45">
         <v>5</v>
       </c>
+      <c r="O45">
+        <v>449.05399999999997</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
       <c r="R45">
         <v>814.97900000000004</v>
       </c>
@@ -5389,6 +6988,12 @@
       <c r="J46">
         <v>6</v>
       </c>
+      <c r="O46">
+        <v>593.745</v>
+      </c>
+      <c r="P46">
+        <v>5</v>
+      </c>
       <c r="R46">
         <v>798.77</v>
       </c>
@@ -5415,6 +7020,12 @@
       <c r="J47">
         <v>7</v>
       </c>
+      <c r="O47">
+        <v>550.83799999999997</v>
+      </c>
+      <c r="P47">
+        <v>6</v>
+      </c>
       <c r="R47">
         <v>804.846</v>
       </c>
@@ -5441,6 +7052,12 @@
       <c r="J48">
         <v>8</v>
       </c>
+      <c r="O48">
+        <v>510.23</v>
+      </c>
+      <c r="P48">
+        <v>7</v>
+      </c>
       <c r="R48">
         <v>743.67200000000003</v>
       </c>
@@ -5467,6 +7084,12 @@
       <c r="J49">
         <v>9</v>
       </c>
+      <c r="O49">
+        <v>434.15300000000002</v>
+      </c>
+      <c r="P49">
+        <v>8</v>
+      </c>
       <c r="R49">
         <v>591.63699999999994</v>
       </c>
@@ -5494,6 +7117,12 @@
       <c r="J50">
         <v>10</v>
       </c>
+      <c r="O50">
+        <v>424.99200000000002</v>
+      </c>
+      <c r="P50">
+        <v>9</v>
+      </c>
       <c r="R50">
         <v>590.73199999999997</v>
       </c>
@@ -5514,6 +7143,12 @@
       <c r="J51">
         <v>11</v>
       </c>
+      <c r="O51">
+        <v>385.13</v>
+      </c>
+      <c r="P51">
+        <v>10</v>
+      </c>
       <c r="R51">
         <v>587.37</v>
       </c>
@@ -5534,6 +7169,12 @@
       <c r="J52">
         <v>12</v>
       </c>
+      <c r="O52">
+        <v>373.77300000000002</v>
+      </c>
+      <c r="P52">
+        <v>11</v>
+      </c>
       <c r="R52">
         <v>193.601</v>
       </c>
@@ -5549,6 +7190,12 @@
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="3:30">
+      <c r="O53">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="P53">
+        <v>12</v>
+      </c>
       <c r="Y53" s="1">
         <v>438.483</v>
       </c>
@@ -5569,7 +7216,9 @@
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O55" s="2"/>
+      <c r="O55" t="s">
+        <v>34</v>
+      </c>
       <c r="R55" s="2" t="s">
         <v>13</v>
       </c>
@@ -5582,6 +7231,9 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
+      <c r="O56" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="R56" t="s">
         <v>1</v>
       </c>
@@ -5597,6 +7249,12 @@
       <c r="D57">
         <v>2</v>
       </c>
+      <c r="O57" t="s">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>0</v>
+      </c>
       <c r="R57">
         <v>722.11400000000003</v>
       </c>
@@ -5612,6 +7270,12 @@
       <c r="D58">
         <v>3</v>
       </c>
+      <c r="O58">
+        <v>93.042000000000002</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
       <c r="R58">
         <v>605.98400000000004</v>
       </c>
@@ -5627,6 +7291,12 @@
       <c r="D59">
         <v>4</v>
       </c>
+      <c r="O59">
+        <v>46.486899999999999</v>
+      </c>
+      <c r="P59">
+        <v>2</v>
+      </c>
       <c r="R59">
         <v>588.18100000000004</v>
       </c>
@@ -5646,6 +7316,12 @@
       <c r="D60">
         <v>5</v>
       </c>
+      <c r="O60">
+        <v>31.541899999999998</v>
+      </c>
+      <c r="P60">
+        <v>3</v>
+      </c>
       <c r="R60">
         <v>447.09199999999998</v>
       </c>
@@ -5667,6 +7343,12 @@
       <c r="D61">
         <v>6</v>
       </c>
+      <c r="O61">
+        <v>23.744</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
       <c r="R61">
         <v>396.25200000000001</v>
       </c>
@@ -5687,6 +7369,12 @@
       <c r="D62">
         <v>7</v>
       </c>
+      <c r="O62">
+        <v>19.869900000000001</v>
+      </c>
+      <c r="P62">
+        <v>5</v>
+      </c>
       <c r="R62">
         <v>235.53</v>
       </c>
@@ -5707,6 +7395,12 @@
       <c r="D63">
         <v>8</v>
       </c>
+      <c r="O63">
+        <v>19.519200000000001</v>
+      </c>
+      <c r="P63">
+        <v>6</v>
+      </c>
       <c r="R63">
         <v>328.86700000000002</v>
       </c>
@@ -5727,6 +7421,12 @@
       <c r="D64">
         <v>9</v>
       </c>
+      <c r="O64">
+        <v>19.569199999999999</v>
+      </c>
+      <c r="P64">
+        <v>7</v>
+      </c>
       <c r="R64">
         <v>195.29900000000001</v>
       </c>
@@ -5747,6 +7447,12 @@
       <c r="D65">
         <v>11</v>
       </c>
+      <c r="O65">
+        <v>19.6785</v>
+      </c>
+      <c r="P65">
+        <v>8</v>
+      </c>
       <c r="R65">
         <v>198.376</v>
       </c>
@@ -5767,6 +7473,12 @@
       <c r="D66">
         <v>12</v>
       </c>
+      <c r="O66">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="P66">
+        <v>9</v>
+      </c>
       <c r="R66">
         <v>190.93</v>
       </c>
@@ -5781,6 +7493,12 @@
       </c>
     </row>
     <row r="67" spans="3:26">
+      <c r="O67">
+        <v>23.9206</v>
+      </c>
+      <c r="P67">
+        <v>10</v>
+      </c>
       <c r="R67">
         <v>174.899</v>
       </c>
@@ -5795,6 +7513,12 @@
       </c>
     </row>
     <row r="68" spans="3:26">
+      <c r="O68">
+        <v>23.7227</v>
+      </c>
+      <c r="P68">
+        <v>11</v>
+      </c>
       <c r="Y68">
         <v>220.53200000000001</v>
       </c>
@@ -5803,6 +7527,12 @@
       </c>
     </row>
     <row r="69" spans="3:26">
+      <c r="O69">
+        <v>23.723400000000002</v>
+      </c>
+      <c r="P69">
+        <v>12</v>
+      </c>
       <c r="Y69">
         <v>227.52099999999999</v>
       </c>
@@ -5857,7 +7587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="DM6" sqref="DM6:ED26"/>
     </sheetView>
   </sheetViews>
@@ -6876,15 +8606,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:R21"/>
+  <dimension ref="A8:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="8" spans="2:18">
+    <row r="8" spans="1:18">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -6894,6 +8624,9 @@
       <c r="H8" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
@@ -6901,7 +8634,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -6920,6 +8656,12 @@
       <c r="I9" t="s">
         <v>0</v>
       </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>6</v>
+      </c>
       <c r="N9" t="s">
         <v>1</v>
       </c>
@@ -6933,7 +8675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="1:18">
       <c r="B10">
         <v>419036</v>
       </c>
@@ -6952,6 +8694,12 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="L10">
+        <v>200000</v>
+      </c>
+      <c r="M10">
+        <v>400</v>
+      </c>
       <c r="N10">
         <v>50003</v>
       </c>
@@ -6965,7 +8713,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="1:18">
       <c r="B11">
         <v>211595</v>
       </c>
@@ -6984,6 +8732,12 @@
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="L11" s="4">
+        <v>1060000</v>
+      </c>
+      <c r="M11">
+        <v>700</v>
+      </c>
       <c r="N11">
         <v>206030</v>
       </c>
@@ -6997,7 +8751,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="1:18">
       <c r="B12">
         <v>146625</v>
       </c>
@@ -7016,6 +8770,12 @@
       <c r="I12">
         <v>3</v>
       </c>
+      <c r="L12" s="4">
+        <v>3170000</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
       <c r="N12">
         <v>522900</v>
       </c>
@@ -7029,7 +8789,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="1:18">
       <c r="B13">
         <v>109294</v>
       </c>
@@ -7048,6 +8808,12 @@
       <c r="I13">
         <v>4</v>
       </c>
+      <c r="L13" s="4">
+        <v>7060000</v>
+      </c>
+      <c r="M13">
+        <v>1300</v>
+      </c>
       <c r="N13" s="4">
         <v>1187200</v>
       </c>
@@ -7061,7 +8827,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
+    <row r="14" spans="1:18">
       <c r="B14">
         <v>92766</v>
       </c>
@@ -7080,6 +8846,12 @@
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="L14" s="4">
+        <v>13000000</v>
+      </c>
+      <c r="M14">
+        <v>1600</v>
+      </c>
       <c r="N14" s="4">
         <v>2544540</v>
       </c>
@@ -7093,7 +8865,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="1:18">
       <c r="B15">
         <v>81967</v>
       </c>
@@ -7112,6 +8884,12 @@
       <c r="I15">
         <v>6</v>
       </c>
+      <c r="L15" s="4">
+        <v>22830000</v>
+      </c>
+      <c r="M15">
+        <v>1900</v>
+      </c>
       <c r="N15" s="4">
         <v>4725060</v>
       </c>
@@ -7125,7 +8903,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="1:18">
       <c r="B16">
         <v>73487</v>
       </c>
@@ -7143,6 +8921,12 @@
       </c>
       <c r="I16">
         <v>7</v>
+      </c>
+      <c r="L16" s="4">
+        <v>36530000</v>
+      </c>
+      <c r="M16">
+        <v>2200</v>
       </c>
       <c r="N16" s="4">
         <v>8252550</v>
@@ -7176,6 +8960,12 @@
       <c r="I17">
         <v>8</v>
       </c>
+      <c r="L17" s="4">
+        <v>51410000</v>
+      </c>
+      <c r="M17">
+        <v>2500</v>
+      </c>
       <c r="N17" s="4">
         <v>11353800</v>
       </c>
@@ -7208,6 +8998,12 @@
       <c r="I18">
         <v>9</v>
       </c>
+      <c r="L18" s="4">
+        <v>85110000</v>
+      </c>
+      <c r="M18">
+        <v>2800</v>
+      </c>
       <c r="N18" s="4">
         <v>15994600</v>
       </c>
@@ -7240,6 +9036,12 @@
       <c r="I19">
         <v>10</v>
       </c>
+      <c r="L19" s="4">
+        <v>97330000</v>
+      </c>
+      <c r="M19">
+        <v>3100</v>
+      </c>
       <c r="N19" s="4">
         <v>21513200</v>
       </c>
@@ -7272,6 +9074,12 @@
       <c r="I20">
         <v>11</v>
       </c>
+      <c r="L20" s="4">
+        <v>144820000</v>
+      </c>
+      <c r="M20">
+        <v>3400</v>
+      </c>
       <c r="N20" s="4">
         <v>28267900</v>
       </c>
@@ -7303,6 +9111,12 @@
       </c>
       <c r="I21">
         <v>12</v>
+      </c>
+      <c r="L21" s="4">
+        <v>164520000</v>
+      </c>
+      <c r="M21">
+        <v>3700</v>
       </c>
       <c r="N21" s="4">
         <v>36457800</v>
@@ -7327,4 +9141,405 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="6">
+        <v>93.042000000000002</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1329.52</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="5">
+        <f>B5/A5</f>
+        <v>14.289460673674254</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5">
+        <f>LOG10(3000)/LOG10(2)</f>
+        <v>11.550746785383243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="6">
+        <v>46.486899999999999</v>
+      </c>
+      <c r="B6" s="6">
+        <v>731.25199999999995</v>
+      </c>
+      <c r="C6" s="6">
+        <v>722.11400000000003</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f>B6/A6</f>
+        <v>15.730281003895721</v>
+      </c>
+      <c r="F6">
+        <f>C6/A6</f>
+        <v>15.533709496653897</v>
+      </c>
+      <c r="G6">
+        <f>E6/(LOG10(3000)/LOG10(2))</f>
+        <v>1.3618410390401268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="6">
+        <v>31.541899999999998</v>
+      </c>
+      <c r="B7" s="6">
+        <v>576.30200000000002</v>
+      </c>
+      <c r="C7" s="6">
+        <v>605.98400000000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f>B7/A7</f>
+        <v>18.270998259458057</v>
+      </c>
+      <c r="F7">
+        <f>C7/A7</f>
+        <v>19.212032249166985</v>
+      </c>
+      <c r="G7">
+        <f>E7/(LOG10(3000)/LOG10(2))</f>
+        <v>1.5818023370210901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="6">
+        <v>23.744</v>
+      </c>
+      <c r="B8" s="6">
+        <v>449.05399999999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>588.18100000000004</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f>B8/A8</f>
+        <v>18.912314690026953</v>
+      </c>
+      <c r="F8">
+        <f>C8/A8</f>
+        <v>24.771773921832885</v>
+      </c>
+      <c r="G8">
+        <f>E8/(LOG10(3000)/LOG10(2))</f>
+        <v>1.6373239792564165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="6">
+        <v>19.869900000000001</v>
+      </c>
+      <c r="B9" s="6">
+        <v>593.745</v>
+      </c>
+      <c r="C9" s="6">
+        <v>447.09199999999998</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>B9/A9</f>
+        <v>29.881630003170624</v>
+      </c>
+      <c r="F9">
+        <f>C9/A9</f>
+        <v>22.500968802057383</v>
+      </c>
+      <c r="G9">
+        <f>E9/(LOG10(3000)/LOG10(2))</f>
+        <v>2.586986846684578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="6">
+        <v>19.519200000000001</v>
+      </c>
+      <c r="B10" s="6">
+        <v>550.83799999999997</v>
+      </c>
+      <c r="C10" s="6">
+        <v>396.25200000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f>B10/A10</f>
+        <v>28.220316406410095</v>
+      </c>
+      <c r="F10">
+        <f>C10/A10</f>
+        <v>20.300627074880119</v>
+      </c>
+      <c r="G10">
+        <f>E10/(LOG10(3000)/LOG10(2))</f>
+        <v>2.443159471050059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="6">
+        <v>19.569199999999999</v>
+      </c>
+      <c r="B11" s="6">
+        <v>510.23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>235.53</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f>B11/A11</f>
+        <v>26.073114894834742</v>
+      </c>
+      <c r="F11">
+        <f>C11/A11</f>
+        <v>12.035750056210782</v>
+      </c>
+      <c r="G11">
+        <f>E11/(LOG10(3000)/LOG10(2))</f>
+        <v>2.2572665975007484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="6">
+        <v>19.6785</v>
+      </c>
+      <c r="B12" s="6">
+        <v>434.15300000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>328.86700000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f>B12/A12</f>
+        <v>22.062301496557158</v>
+      </c>
+      <c r="F12">
+        <f>C12/A12</f>
+        <v>16.711995324846914</v>
+      </c>
+      <c r="G12">
+        <f>E12/(LOG10(3000)/LOG10(2))</f>
+        <v>1.9100324772486259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="6">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="B13" s="6">
+        <v>424.99200000000002</v>
+      </c>
+      <c r="C13" s="6">
+        <v>195.29900000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f>B13/A13</f>
+        <v>16.35905924015551</v>
+      </c>
+      <c r="F13">
+        <f>C13/A13</f>
+        <v>7.5175718849840258</v>
+      </c>
+      <c r="G13">
+        <f>E13/(LOG10(3000)/LOG10(2))</f>
+        <v>1.4162771935107166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="6">
+        <v>23.9206</v>
+      </c>
+      <c r="B14" s="6">
+        <v>385.13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>198.376</v>
+      </c>
+      <c r="D14" s="6">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f>B14/A14</f>
+        <v>16.100348653461868</v>
+      </c>
+      <c r="F14">
+        <f>C14/A14</f>
+        <v>8.2931030158106402</v>
+      </c>
+      <c r="G14">
+        <f>E14/(LOG10(3000)/LOG10(2))</f>
+        <v>1.3938794566803132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="6">
+        <v>23.7227</v>
+      </c>
+      <c r="B15" s="6">
+        <v>373.77300000000002</v>
+      </c>
+      <c r="C15" s="6">
+        <v>190.93</v>
+      </c>
+      <c r="D15" s="6">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f>B15/A15</f>
+        <v>15.755921543500531</v>
+      </c>
+      <c r="F15">
+        <f>C15/A15</f>
+        <v>8.0484093294608119</v>
+      </c>
+      <c r="G15">
+        <f>E15/(LOG10(3000)/LOG10(2))</f>
+        <v>1.364060855652959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="6">
+        <v>23.723400000000002</v>
+      </c>
+      <c r="B16" s="6">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>174.899</v>
+      </c>
+      <c r="D16" s="6">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <f>B16/A16</f>
+        <v>6.378933879629396</v>
+      </c>
+      <c r="F16">
+        <f>C16/A16</f>
+        <v>7.3724255376548049</v>
+      </c>
+      <c r="G16">
+        <f>E16/(LOG10(3000)/LOG10(2))</f>
+        <v>0.55225294071042597</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2400" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
   <si>
     <t>Threads</t>
   </si>
@@ -120,9 +120,6 @@
     <t>MPI-Complex</t>
   </si>
   <si>
-    <t>Time (ms)</t>
-  </si>
-  <si>
     <t>Serial</t>
   </si>
   <si>
@@ -159,14 +156,62 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Time(S)</t>
+    <t>500 Nodes</t>
+  </si>
+  <si>
+    <t>1000 Nodes</t>
+  </si>
+  <si>
+    <t>Time(ms)</t>
+  </si>
+  <si>
+    <t>Time (us)</t>
+  </si>
+  <si>
+    <t>Time(log(ms))</t>
+  </si>
+  <si>
+    <t>Time(us)</t>
+  </si>
+  <si>
+    <t>SS OMP (7 Threads)</t>
+  </si>
+  <si>
+    <t>SS MPI (7 Processes)</t>
+  </si>
+  <si>
+    <t>FW OMP (7 Threads)</t>
+  </si>
+  <si>
+    <t>FW OMP (2 Threads)</t>
+  </si>
+  <si>
+    <t>FW OMP</t>
+  </si>
+  <si>
+    <t>SS OMP</t>
+  </si>
+  <si>
+    <t>SS MPI</t>
+  </si>
+  <si>
+    <t>Time ( LOG2(ms) )</t>
+  </si>
+  <si>
+    <t>FW OMP (Time in millisecond)</t>
+  </si>
+  <si>
+    <t>Log2(s)</t>
+  </si>
+  <si>
+    <t>Seedups</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -221,6 +266,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -285,7 +337,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="515">
+  <cellStyleXfs count="555">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -801,41 +853,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -844,8 +918,35 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="515">
+  <cellStyles count="555">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1103,6 +1204,26 @@
     <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1360,6 +1481,26 @@
     <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1699,11 +1840,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="659212408"/>
-        <c:axId val="684513688"/>
+        <c:axId val="530334760"/>
+        <c:axId val="609449320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="659212408"/>
+        <c:axId val="530334760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,12 +1873,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="684513688"/>
+        <c:crossAx val="609449320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="684513688"/>
+        <c:axId val="609449320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659212408"/>
+        <c:crossAx val="530334760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1936,11 +2077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="723835112"/>
-        <c:axId val="659424408"/>
+        <c:axId val="635336872"/>
+        <c:axId val="635342264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="723835112"/>
+        <c:axId val="635336872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659424408"/>
+        <c:crossAx val="635342264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1977,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="659424408"/>
+        <c:axId val="635342264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,7 +2148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723835112"/>
+        <c:crossAx val="635336872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2381,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="672732968"/>
-        <c:axId val="730578952"/>
+        <c:axId val="635382600"/>
+        <c:axId val="635388328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="672732968"/>
+        <c:axId val="635382600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2560,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="730578952"/>
+        <c:crossAx val="635388328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="730578952"/>
+        <c:axId val="635388328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2462,7 +2603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="672732968"/>
+        <c:crossAx val="635382600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2538,6 +2679,1987 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>FW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OMP Time Performance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$10:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>8.710930383079816</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.725161726676421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.195987298028508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.772070392176643</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.535524229773216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.35697129097458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.19941715171615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.141473664529821</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.952193763565091</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.777261891564584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.77135740899056</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.723176267627523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$10:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>11.89658595079915</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.76708368462604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.21182747138189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.709526722603483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.384542021773617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.180856480277841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.123283374638841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.992759934973804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9130434748723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.985955754607507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.897601961767126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.531032442069381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$10:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.50559448838841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.50453660184117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.94498194640004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5352753766208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2782969914492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.25260630439266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.25629715852777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.26433263452352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.66505827827954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.54596595663431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.5339805991691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.53402316901271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="644345128"/>
+        <c:axId val="644527640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="644345128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644527640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="644527640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent on Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="644345128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.806410072028668"/>
+          <c:y val="0.0289878361478107"/>
+          <c:w val="0.171635685950215"/>
+          <c:h val="0.137963655164222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OMP vs SS OMP vs SS MPI</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(7 Threads/Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$M$10:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50.003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1187.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2544.54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4725.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8252.549999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11353.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15994.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21513.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28267.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36457.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$S$10:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1788.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2824.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15548.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22900.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46275.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72423.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120127.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>95634.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150378.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207447.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>293656.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>401771.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$U$10:$U$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>47.7469</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>253.553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40679.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42789.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52009.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126714.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>167663.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>220532.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>227521.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>367622.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>417321.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>474136.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="686947912"/>
+        <c:axId val="711576040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686947912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="711576040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="711576040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent on Computation (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="686947912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>FW OMP vs SS OMP vs SS MPI</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Threads/Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$X$10:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.64394274888043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.686710613105617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.030391259959478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.21334728173344</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.31318915522579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.20611693381651</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.01062425904095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.47088761306812</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.9652972929013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.39293451522451</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.78687709002244</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.1539398859388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Y$10:$Y$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.80435692889316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.46358056780511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.92445067128441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.48310407704608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.49796407545649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.14416629490492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8742009251325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.54524354168923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.19823399349702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.66238326822667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.16376758981962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.61601390793037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Z$10:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.577335163118284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.986143534025527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.31202851229252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.38495234241132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.66649309581926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.95121640392546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.35520482341052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.75062848573753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.79564018545206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.4878635804032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.67079799468722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.85494141200586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="687739064"/>
+        <c:axId val="743740824"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="687739064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="743740824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="743740824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on Computation (LOG2(ms))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="687739064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logarithmic FW OMP Time Performance</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$25:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>419.036</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>211.595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>146.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.766</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.487</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.828</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.688</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105.652</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$25:$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3812.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1742.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1185.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>837.2569999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>668.388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>580.381</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>557.676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>509.437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>964.103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1014.08</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>953.8390000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>739.821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$25:$C$36</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93042.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46486.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31541.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23744.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19869.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19519.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19569.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19678.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25979.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23920.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23722.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23723.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="686465256"/>
+        <c:axId val="674974472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686465256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="674974472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="674974472"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent on Computation (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="686465256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.787440180414341"/>
+          <c:y val="0.662285610998769"/>
+          <c:w val="0.164937910812936"/>
+          <c:h val="0.143597540221017"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Speed</a:t>
             </a:r>
             <a:r>
@@ -2773,11 +4895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="728955272"/>
-        <c:axId val="682898296"/>
+        <c:axId val="634413304"/>
+        <c:axId val="634407752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="728955272"/>
+        <c:axId val="634413304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2806,7 +4928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="682898296"/>
+        <c:crossAx val="634407752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2814,7 +4936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="682898296"/>
+        <c:axId val="634407752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,7 +4966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="728955272"/>
+        <c:crossAx val="634413304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2859,6 +4981,929 @@
           <c:y val="0.166815617767129"/>
           <c:w val="0.22703220770873"/>
           <c:h val="0.112352528650942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$6:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.001057886547243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.560612541988378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.970319111767614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.227297496939211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.252988183995755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.249297329860641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.241261853864897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.840536210108874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.959628531754107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.971613889219323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.971571319375702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$6:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.974414651458994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.630871012514402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.270934929562347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.673889445317318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.565674074425641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.455193713641876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.222249538954344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.191481670430605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.04939149340943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.006208343860805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.701744005069644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$6:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.956272599132825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.703325688285586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.66030616767476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.264617717427528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.090464203023595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.339956816989293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.821550234948626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.069730548182805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.092283481655315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.03708979099445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.910568026599183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="686114440"/>
+        <c:axId val="723726280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="686114440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="723726280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="723726280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (Speedup)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="686114440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.800511299723898"/>
+          <c:y val="0.771378371092043"/>
+          <c:w val="0.15310651103677"/>
+          <c:h val="0.176487649787578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Speedup</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Plot (3000 Nodes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$H$6:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.001467079973068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.949790596000875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.918547843665768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.682560053145712</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.766691257838436</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.754512192629234</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.728104276240567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.581431155933639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.889618153390801</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.922066206629094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.921950479273628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$I$6:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.127236575079453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.161446602649305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.207195571133984</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.156703635399035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.168909915437933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.182353056464732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.214306937876739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.218926473910097</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.241585957988212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.248926487466992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.614828520451992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$J$6:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.128846691796586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.153538707292602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.158186000567852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.208104819589704</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.234805124011992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.395032479938861</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.282916802233122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.476407969318839</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.469018429648748</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.487309485151626</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.531975597344753</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="642424088"/>
+        <c:axId val="694890360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="642424088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="694890360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="694890360"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="642424088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.805898920169225"/>
+          <c:y val="0.0347396160919723"/>
+          <c:w val="0.163659679526361"/>
+          <c:h val="0.151147663670454"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3256,11 +6301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="677175992"/>
-        <c:axId val="639330728"/>
+        <c:axId val="677893208"/>
+        <c:axId val="677898696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="677175992"/>
+        <c:axId val="677893208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3289,12 +6334,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="639330728"/>
+        <c:crossAx val="677898696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="639330728"/>
+        <c:axId val="677898696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,7 +6374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677175992"/>
+        <c:crossAx val="677893208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3690,11 +6735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="724285448"/>
-        <c:axId val="670455992"/>
+        <c:axId val="609386408"/>
+        <c:axId val="609392120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="724285448"/>
+        <c:axId val="609386408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,7 +6773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="670455992"/>
+        <c:crossAx val="609392120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3736,8 +6781,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="670455992"/>
+        <c:axId val="609392120"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3771,7 +6817,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="724285448"/>
+        <c:crossAx val="609386408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3782,8 +6828,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.724786962202412"/>
-          <c:y val="0.124932323544393"/>
+          <c:x val="0.730660677327228"/>
+          <c:y val="0.674243034042802"/>
           <c:w val="0.23735775318834"/>
           <c:h val="0.173890331577058"/>
         </c:manualLayout>
@@ -4285,11 +7331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="535563832"/>
-        <c:axId val="676610728"/>
+        <c:axId val="635101704"/>
+        <c:axId val="635107224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="535563832"/>
+        <c:axId val="635101704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -4320,12 +7366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="676610728"/>
+        <c:crossAx val="635107224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="676610728"/>
+        <c:axId val="635107224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -4356,7 +7402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535563832"/>
+        <c:crossAx val="635101704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4732,11 +7778,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="723654120"/>
-        <c:axId val="624706952"/>
+        <c:axId val="635146152"/>
+        <c:axId val="635151896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="723654120"/>
+        <c:axId val="635146152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4770,12 +7816,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="624706952"/>
+        <c:crossAx val="635151896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="624706952"/>
+        <c:axId val="635151896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +7851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723654120"/>
+        <c:crossAx val="635146152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4934,11 +7980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="659522584"/>
-        <c:axId val="723772136"/>
+        <c:axId val="635199256"/>
+        <c:axId val="635204952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="659522584"/>
+        <c:axId val="635199256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4971,7 +8017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723772136"/>
+        <c:crossAx val="635204952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4979,7 +8025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723772136"/>
+        <c:axId val="635204952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,7 +8060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="659522584"/>
+        <c:crossAx val="635199256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5138,11 +8184,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="677097848"/>
-        <c:axId val="676384168"/>
+        <c:axId val="635233384"/>
+        <c:axId val="635238824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="677097848"/>
+        <c:axId val="635233384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5170,7 +8216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="676384168"/>
+        <c:crossAx val="635238824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5178,7 +8224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676384168"/>
+        <c:axId val="635238824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +8259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677097848"/>
+        <c:crossAx val="635233384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5332,11 +8378,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="724040952"/>
-        <c:axId val="624586952"/>
+        <c:axId val="635266136"/>
+        <c:axId val="635271816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="724040952"/>
+        <c:axId val="635266136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +8415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="624586952"/>
+        <c:crossAx val="635271816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5377,7 +8423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="624586952"/>
+        <c:axId val="635271816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,7 +8458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="724040952"/>
+        <c:crossAx val="635266136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5576,11 +8622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="676933608"/>
-        <c:axId val="676942920"/>
+        <c:axId val="635300904"/>
+        <c:axId val="635306296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="676933608"/>
+        <c:axId val="635300904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,7 +8655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="676942920"/>
+        <c:crossAx val="635306296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5617,7 +8663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676942920"/>
+        <c:axId val="635306296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5647,16 +8693,11 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="676933608"/>
+        <c:crossAx val="635300904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -5833,16 +8874,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5863,16 +8904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5895,14 +8936,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5923,16 +8964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5953,16 +8994,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5983,16 +9024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6011,6 +9052,128 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6018,16 +9181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6041,6 +9204,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6373,8 +9596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39:S70"/>
+    <sheetView showRuler="0" topLeftCell="J71" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6834,6 +10057,9 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
+      <c r="N41" t="s">
+        <v>59</v>
+      </c>
       <c r="O41" t="s">
         <v>1</v>
       </c>
@@ -6892,6 +10118,10 @@
       <c r="J43">
         <v>3</v>
       </c>
+      <c r="N43">
+        <f>LOG10(O43)/LOG10(2)</f>
+        <v>9.5142248551853239</v>
+      </c>
       <c r="O43">
         <v>731.25199999999995</v>
       </c>
@@ -6924,6 +10154,10 @@
       <c r="J44">
         <v>4</v>
       </c>
+      <c r="N44">
+        <f t="shared" ref="N44:N53" si="0">LOG10(O44)/LOG10(2)</f>
+        <v>9.1706812162407303</v>
+      </c>
       <c r="O44">
         <v>576.30200000000002</v>
       </c>
@@ -6956,6 +10190,10 @@
       <c r="J45">
         <v>5</v>
       </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>8.8107451332886768</v>
+      </c>
       <c r="O45">
         <v>449.05399999999997</v>
       </c>
@@ -6988,6 +10226,10 @@
       <c r="J46">
         <v>6</v>
       </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>9.2136996490436474</v>
+      </c>
       <c r="O46">
         <v>593.745</v>
       </c>
@@ -7020,6 +10262,10 @@
       <c r="J47">
         <v>7</v>
       </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>9.1054842781519714</v>
+      </c>
       <c r="O47">
         <v>550.83799999999997</v>
       </c>
@@ -7052,6 +10298,10 @@
       <c r="J48">
         <v>8</v>
       </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>8.995003917368205</v>
+      </c>
       <c r="O48">
         <v>510.23</v>
       </c>
@@ -7083,6 +10333,10 @@
       </c>
       <c r="J49">
         <v>9</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>8.7620597426806732</v>
       </c>
       <c r="O49">
         <v>434.15300000000002</v>
@@ -7117,6 +10371,10 @@
       <c r="J50">
         <v>10</v>
       </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>8.7312918741569341</v>
+      </c>
       <c r="O50">
         <v>424.99200000000002</v>
       </c>
@@ -7143,6 +10401,10 @@
       <c r="J51">
         <v>11</v>
       </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>8.5892016971357599</v>
+      </c>
       <c r="O51">
         <v>385.13</v>
       </c>
@@ -7169,6 +10431,10 @@
       <c r="J52">
         <v>12</v>
       </c>
+      <c r="N52">
+        <f t="shared" si="0"/>
+        <v>8.5460185475871349</v>
+      </c>
       <c r="O52">
         <v>373.77300000000002</v>
       </c>
@@ -7190,6 +10456,10 @@
       <c r="AC52" s="1"/>
     </row>
     <row r="53" spans="3:30">
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>7.2415542087959741</v>
+      </c>
       <c r="O53">
         <v>151.33000000000001</v>
       </c>
@@ -7217,7 +10487,7 @@
         <v>12</v>
       </c>
       <c r="O55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>13</v>
@@ -7234,6 +10504,9 @@
       <c r="O56" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="Q56" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="R56" t="s">
         <v>1</v>
       </c>
@@ -7249,11 +10522,18 @@
       <c r="D57">
         <v>2</v>
       </c>
+      <c r="N57" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="O57" t="s">
         <v>1</v>
       </c>
       <c r="P57" t="s">
         <v>0</v>
+      </c>
+      <c r="Q57">
+        <f>LOG10(R57)/LOG10(2)</f>
+        <v>9.4960828028591546</v>
       </c>
       <c r="R57">
         <v>722.11400000000003</v>
@@ -7276,6 +10556,10 @@
       <c r="P58">
         <v>1</v>
       </c>
+      <c r="Q58">
+        <f t="shared" ref="Q58:Q67" si="1">LOG10(R58)/LOG10(2)</f>
+        <v>9.2431358920119173</v>
+      </c>
       <c r="R58">
         <v>605.98400000000004</v>
       </c>
@@ -7291,11 +10575,19 @@
       <c r="D59">
         <v>4</v>
       </c>
+      <c r="N59">
+        <f>LOG10(O59)/LOG10(2)</f>
+        <v>5.5387523171790871</v>
+      </c>
       <c r="O59">
         <v>46.486899999999999</v>
       </c>
       <c r="P59">
         <v>2</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>9.200116371401089</v>
       </c>
       <c r="R59">
         <v>588.18100000000004</v>
@@ -7316,11 +10608,19 @@
       <c r="D60">
         <v>5</v>
       </c>
+      <c r="N60">
+        <f t="shared" ref="N60:N69" si="2">LOG10(O60)/LOG10(2)</f>
+        <v>4.9791976617379516</v>
+      </c>
       <c r="O60">
         <v>31.541899999999998</v>
       </c>
       <c r="P60">
         <v>3</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>8.8044279211538576</v>
       </c>
       <c r="R60">
         <v>447.09199999999998</v>
@@ -7343,11 +10643,19 @@
       <c r="D61">
         <v>6</v>
       </c>
+      <c r="N61">
+        <f t="shared" si="2"/>
+        <v>4.5694910919587155</v>
+      </c>
       <c r="O61">
         <v>23.744</v>
       </c>
       <c r="P61">
         <v>4</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>8.6302744067499244</v>
       </c>
       <c r="R61">
         <v>396.25200000000001</v>
@@ -7369,11 +10677,19 @@
       <c r="D62">
         <v>7</v>
       </c>
+      <c r="N62">
+        <f t="shared" si="2"/>
+        <v>4.3125127067871185</v>
+      </c>
       <c r="O62">
         <v>19.869900000000001</v>
       </c>
       <c r="P62">
         <v>5</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>7.8797670207156223</v>
       </c>
       <c r="R62">
         <v>235.53</v>
@@ -7395,11 +10711,19 @@
       <c r="D63">
         <v>8</v>
       </c>
+      <c r="N63">
+        <f t="shared" si="2"/>
+        <v>4.2868220197305744</v>
+      </c>
       <c r="O63">
         <v>19.519200000000001</v>
       </c>
       <c r="P63">
         <v>6</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="1"/>
+        <v>8.3613604386749572</v>
       </c>
       <c r="R63">
         <v>328.86700000000002</v>
@@ -7421,11 +10745,19 @@
       <c r="D64">
         <v>9</v>
       </c>
+      <c r="N64">
+        <f t="shared" si="2"/>
+        <v>4.2905128738656879</v>
+      </c>
       <c r="O64">
         <v>19.569199999999999</v>
       </c>
       <c r="P64">
         <v>7</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>7.6095407519091349</v>
       </c>
       <c r="R64">
         <v>195.29900000000001</v>
@@ -7447,11 +10779,19 @@
       <c r="D65">
         <v>11</v>
       </c>
+      <c r="N65">
+        <f t="shared" si="2"/>
+        <v>4.2985483498614325</v>
+      </c>
       <c r="O65">
         <v>19.6785</v>
       </c>
       <c r="P65">
         <v>8</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>7.632093685381645</v>
       </c>
       <c r="R65">
         <v>198.376</v>
@@ -7473,12 +10813,20 @@
       <c r="D66">
         <v>12</v>
       </c>
+      <c r="N66">
+        <f t="shared" si="2"/>
+        <v>4.6992739936174557</v>
+      </c>
       <c r="O66">
         <v>25.978999999999999</v>
       </c>
       <c r="P66">
         <v>9</v>
       </c>
+      <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>7.5768999947207796</v>
+      </c>
       <c r="R66">
         <v>190.93</v>
       </c>
@@ -7493,12 +10841,20 @@
       </c>
     </row>
     <row r="67" spans="3:26">
+      <c r="N67">
+        <f t="shared" si="2"/>
+        <v>4.5801816719722224</v>
+      </c>
       <c r="O67">
         <v>23.9206</v>
       </c>
       <c r="P67">
         <v>10</v>
       </c>
+      <c r="Q67">
+        <f t="shared" si="1"/>
+        <v>7.4503782303255122</v>
+      </c>
       <c r="R67">
         <v>174.899</v>
       </c>
@@ -7513,6 +10869,10 @@
       </c>
     </row>
     <row r="68" spans="3:26">
+      <c r="N68">
+        <f t="shared" si="2"/>
+        <v>4.5681963145070066</v>
+      </c>
       <c r="O68">
         <v>23.7227</v>
       </c>
@@ -7527,6 +10887,10 @@
       </c>
     </row>
     <row r="69" spans="3:26">
+      <c r="N69">
+        <f t="shared" si="2"/>
+        <v>4.5682388843506265</v>
+      </c>
       <c r="O69">
         <v>23.723400000000002</v>
       </c>
@@ -7587,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="DM6" sqref="DM6:ED26"/>
+    <sheetView showRuler="0" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8606,61 +11970,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:R21"/>
+  <dimension ref="A8:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:26">
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
       </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
         <v>0</v>
       </c>
+      <c r="K9" t="s">
+        <v>46</v>
+      </c>
       <c r="L9" t="s">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="N9" t="s">
         <v>1</v>
@@ -8668,37 +12064,77 @@
       <c r="O9" t="s">
         <v>6</v>
       </c>
+      <c r="P9" t="s">
+        <v>46</v>
+      </c>
       <c r="Q9" t="s">
         <v>1</v>
       </c>
       <c r="R9" t="s">
         <v>6</v>
       </c>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:26">
+      <c r="A10">
+        <f>LOG10(B10/1000)/LOG10(2)</f>
+        <v>8.7109303830798162</v>
+      </c>
       <c r="B10">
         <v>419036</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10">
+        <f>LOG10(E10/1000)/LOG10(2)</f>
+        <v>11.896585950799153</v>
+      </c>
       <c r="E10" s="4">
         <v>3812670</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="G10">
+        <f>LOG10(H10/1000)/LOG10(2)</f>
+        <v>16.505594488388414</v>
+      </c>
       <c r="H10" s="4">
         <v>93042000</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="K10">
+        <f>L10/1000</f>
+        <v>200</v>
+      </c>
       <c r="L10">
         <v>200000</v>
       </c>
       <c r="M10">
-        <v>400</v>
+        <f>N10/1000</f>
+        <v>50.003</v>
       </c>
       <c r="N10">
         <v>50003</v>
@@ -8706,37 +12142,87 @@
       <c r="O10">
         <v>400</v>
       </c>
+      <c r="P10">
+        <f>Q10/1000</f>
+        <v>109.492</v>
+      </c>
       <c r="Q10">
         <v>109492</v>
       </c>
       <c r="R10">
         <v>400</v>
       </c>
+      <c r="S10">
+        <f>T10*1000</f>
+        <v>1788.2800000000002</v>
+      </c>
+      <c r="T10">
+        <v>1.7882800000000001</v>
+      </c>
+      <c r="U10">
+        <f>V10*1000</f>
+        <v>47.746900000000004</v>
+      </c>
+      <c r="V10">
+        <v>4.7746900000000002E-2</v>
+      </c>
+      <c r="W10">
+        <v>400</v>
+      </c>
+      <c r="X10">
+        <f>LOG10(M10)/LOG10(2)</f>
+        <v>5.6439427488804306</v>
+      </c>
+      <c r="Y10">
+        <f>LOG10(S10)/LOG10(2)</f>
+        <v>10.804356928893158</v>
+      </c>
+      <c r="Z10">
+        <f>LOG10(U10)/LOG10(2)</f>
+        <v>5.5773351631182839</v>
+      </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:26">
+      <c r="A11">
+        <f t="shared" ref="A11:A21" si="0">LOG10(B11/1000)/LOG10(2)</f>
+        <v>7.7251617266764212</v>
+      </c>
       <c r="B11">
         <v>211595</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D21" si="1">LOG10(E11/1000)/LOG10(2)</f>
+        <v>10.767083684626039</v>
+      </c>
       <c r="E11" s="4">
         <v>1742670</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="G11">
+        <f t="shared" ref="G11:G21" si="2">LOG10(H11/1000)/LOG10(2)</f>
+        <v>15.504536601841174</v>
+      </c>
       <c r="H11" s="4">
         <v>46486900</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
+      <c r="K11">
+        <f t="shared" ref="K11:K21" si="3">L11/1000</f>
+        <v>1060</v>
+      </c>
       <c r="L11" s="4">
         <v>1060000</v>
       </c>
       <c r="M11">
-        <v>700</v>
+        <f t="shared" ref="M11:M21" si="4">N11/1000</f>
+        <v>206.03</v>
       </c>
       <c r="N11">
         <v>206030</v>
@@ -8744,37 +12230,87 @@
       <c r="O11">
         <v>700</v>
       </c>
+      <c r="P11">
+        <f t="shared" ref="P11:P21" si="5">Q11/1000</f>
+        <v>600.25199999999995</v>
+      </c>
       <c r="Q11">
         <v>600252</v>
       </c>
       <c r="R11">
         <v>700</v>
       </c>
+      <c r="S11">
+        <f t="shared" ref="S11:U21" si="6">T11*1000</f>
+        <v>2824.11</v>
+      </c>
+      <c r="T11">
+        <v>2.8241100000000001</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U11" si="7">V11*1000</f>
+        <v>253.55299999999997</v>
+      </c>
+      <c r="V11">
+        <v>0.25355299999999997</v>
+      </c>
+      <c r="W11">
+        <v>700</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ref="X11:X21" si="8">LOG10(M11)/LOG10(2)</f>
+        <v>7.6867106131056175</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" ref="Y11:Y21" si="9">LOG10(S11)/LOG10(2)</f>
+        <v>11.46358056780511</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11:Z21" si="10">LOG10(U11)/LOG10(2)</f>
+        <v>7.986143534025528</v>
+      </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:26">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>7.1959872980285082</v>
+      </c>
       <c r="B12">
         <v>146625</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>10.211827471381893</v>
+      </c>
       <c r="E12" s="4">
         <v>1185950</v>
       </c>
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>14.94498194640004</v>
+      </c>
       <c r="H12" s="4">
         <v>31541900</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>3170</v>
+      </c>
       <c r="L12" s="4">
         <v>3170000</v>
       </c>
       <c r="M12">
-        <v>1000</v>
+        <f t="shared" si="4"/>
+        <v>522.9</v>
       </c>
       <c r="N12">
         <v>522900</v>
@@ -8782,37 +12318,87 @@
       <c r="O12">
         <v>1000</v>
       </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>1632.54</v>
+      </c>
       <c r="Q12" s="4">
         <v>1632540</v>
       </c>
       <c r="R12">
         <v>1000</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="6"/>
+        <v>15548.1</v>
+      </c>
+      <c r="T12">
+        <v>15.5481</v>
+      </c>
+      <c r="U12">
+        <f t="shared" ref="U12" si="11">V12*1000</f>
+        <v>40679.9</v>
+      </c>
+      <c r="V12">
+        <v>40.679900000000004</v>
+      </c>
+      <c r="W12">
+        <v>1000</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="8"/>
+        <v>9.0303912599594778</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="9"/>
+        <v>13.924450671284408</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="10"/>
+        <v>15.312028512292517</v>
+      </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:26">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>6.7720703921766434</v>
+      </c>
       <c r="B13">
         <v>109294</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9.7095267226034832</v>
+      </c>
       <c r="E13">
         <v>837257</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>14.535275376620802</v>
+      </c>
       <c r="H13" s="4">
         <v>23744000</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>7060</v>
+      </c>
       <c r="L13" s="4">
         <v>7060000</v>
       </c>
       <c r="M13">
-        <v>1300</v>
+        <f t="shared" si="4"/>
+        <v>1187.2</v>
       </c>
       <c r="N13" s="4">
         <v>1187200</v>
@@ -8820,37 +12406,87 @@
       <c r="O13">
         <v>1300</v>
       </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>3714.35</v>
+      </c>
       <c r="Q13" s="4">
         <v>3714350</v>
       </c>
       <c r="R13">
         <v>1300</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="6"/>
+        <v>22900.7</v>
+      </c>
+      <c r="T13">
+        <v>22.900700000000001</v>
+      </c>
+      <c r="U13">
+        <f t="shared" ref="U13" si="12">V13*1000</f>
+        <v>42789</v>
+      </c>
+      <c r="V13">
+        <v>42.789000000000001</v>
+      </c>
+      <c r="W13">
+        <v>1300</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="8"/>
+        <v>10.213347281733441</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="9"/>
+        <v>14.483104077046077</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="10"/>
+        <v>15.384952342411319</v>
+      </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:26">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>6.5355242297732161</v>
+      </c>
       <c r="B14">
         <v>92766</v>
       </c>
       <c r="C14">
         <v>5</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>9.3845420217736173</v>
+      </c>
       <c r="E14">
         <v>668388</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>14.278296991449205</v>
+      </c>
       <c r="H14" s="4">
         <v>19869900</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
       <c r="L14" s="4">
         <v>13000000</v>
       </c>
       <c r="M14">
-        <v>1600</v>
+        <f t="shared" si="4"/>
+        <v>2544.54</v>
       </c>
       <c r="N14" s="4">
         <v>2544540</v>
@@ -8858,37 +12494,87 @@
       <c r="O14">
         <v>1600</v>
       </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>7169.33</v>
+      </c>
       <c r="Q14" s="4">
         <v>7169330</v>
       </c>
       <c r="R14">
         <v>1600</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="6"/>
+        <v>46275.6</v>
+      </c>
+      <c r="T14">
+        <v>46.275599999999997</v>
+      </c>
+      <c r="U14">
+        <f t="shared" ref="U14" si="13">V14*1000</f>
+        <v>52009.700000000004</v>
+      </c>
+      <c r="V14">
+        <v>52.009700000000002</v>
+      </c>
+      <c r="W14">
+        <v>1600</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="8"/>
+        <v>11.313189155225794</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="9"/>
+        <v>15.497964075456487</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="10"/>
+        <v>15.666493095819257</v>
+      </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:26">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>6.3569712909745801</v>
+      </c>
       <c r="B15">
         <v>81967</v>
       </c>
       <c r="C15">
         <v>6</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>9.180856480277841</v>
+      </c>
       <c r="E15">
         <v>580381</v>
       </c>
       <c r="F15">
         <v>6</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>14.252606304392662</v>
+      </c>
       <c r="H15" s="4">
         <v>19519200</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>22830</v>
+      </c>
       <c r="L15" s="4">
         <v>22830000</v>
       </c>
       <c r="M15">
-        <v>1900</v>
+        <f t="shared" si="4"/>
+        <v>4725.0600000000004</v>
       </c>
       <c r="N15" s="4">
         <v>4725060</v>
@@ -8896,37 +12582,87 @@
       <c r="O15">
         <v>1900</v>
       </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>13774.4</v>
+      </c>
       <c r="Q15" s="4">
         <v>13774400</v>
       </c>
       <c r="R15">
         <v>1900</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="6"/>
+        <v>72423.3</v>
+      </c>
+      <c r="T15">
+        <v>72.423299999999998</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15" si="14">V15*1000</f>
+        <v>126714</v>
+      </c>
+      <c r="V15">
+        <v>126.714</v>
+      </c>
+      <c r="W15">
+        <v>1900</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="8"/>
+        <v>12.206116933816508</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="9"/>
+        <v>16.144166294904924</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="10"/>
+        <v>16.951216403925464</v>
+      </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:26">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>6.1994171517161503</v>
+      </c>
       <c r="B16">
         <v>73487</v>
       </c>
       <c r="C16">
         <v>7</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>9.1232833746388415</v>
+      </c>
       <c r="E16">
         <v>557676</v>
       </c>
       <c r="F16">
         <v>7</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>14.256297158527774</v>
+      </c>
       <c r="H16" s="4">
         <v>19569200</v>
       </c>
       <c r="I16">
         <v>7</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>36530</v>
+      </c>
       <c r="L16" s="4">
         <v>36530000</v>
       </c>
       <c r="M16">
-        <v>2200</v>
+        <f t="shared" si="4"/>
+        <v>8252.5499999999993</v>
       </c>
       <c r="N16" s="4">
         <v>8252550</v>
@@ -8934,37 +12670,87 @@
       <c r="O16">
         <v>2200</v>
       </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>24104.9</v>
+      </c>
       <c r="Q16" s="4">
         <v>24104900</v>
       </c>
       <c r="R16">
         <v>2200</v>
       </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>120127</v>
+      </c>
+      <c r="T16">
+        <v>120.127</v>
+      </c>
+      <c r="U16">
+        <f t="shared" ref="U16" si="15">V16*1000</f>
+        <v>167663</v>
+      </c>
+      <c r="V16">
+        <v>167.66300000000001</v>
+      </c>
+      <c r="W16">
+        <v>2200</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="8"/>
+        <v>13.010624259040952</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="9"/>
+        <v>16.874200925132502</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="10"/>
+        <v>17.355204823410517</v>
+      </c>
     </row>
-    <row r="17" spans="2:18">
+    <row r="17" spans="1:26">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>6.1414736645298218</v>
+      </c>
       <c r="B17">
         <v>70594</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8.9927599349738045</v>
+      </c>
       <c r="E17">
         <v>509437</v>
       </c>
       <c r="F17">
         <v>8</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>14.264332634523518</v>
+      </c>
       <c r="H17" s="4">
         <v>19678500</v>
       </c>
       <c r="I17">
         <v>8</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>51410</v>
+      </c>
       <c r="L17" s="4">
         <v>51410000</v>
       </c>
       <c r="M17">
-        <v>2500</v>
+        <f t="shared" si="4"/>
+        <v>11353.8</v>
       </c>
       <c r="N17" s="4">
         <v>11353800</v>
@@ -8972,37 +12758,87 @@
       <c r="O17">
         <v>2500</v>
       </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>28727.599999999999</v>
+      </c>
       <c r="Q17" s="4">
         <v>28727600</v>
       </c>
       <c r="R17">
         <v>2500</v>
       </c>
+      <c r="S17">
+        <f t="shared" si="6"/>
+        <v>95634.5</v>
+      </c>
+      <c r="T17">
+        <v>95.634500000000003</v>
+      </c>
+      <c r="U17">
+        <f t="shared" ref="U17" si="16">V17*1000</f>
+        <v>220532</v>
+      </c>
+      <c r="V17">
+        <v>220.53200000000001</v>
+      </c>
+      <c r="W17">
+        <v>2500</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="8"/>
+        <v>13.47088761306812</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="9"/>
+        <v>16.545243541689235</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="10"/>
+        <v>17.750628485737526</v>
+      </c>
     </row>
-    <row r="18" spans="2:18">
+    <row r="18" spans="1:26">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>6.9521937635650906</v>
+      </c>
       <c r="B18">
         <v>123828</v>
       </c>
       <c r="C18">
         <v>9</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>9.9130434748722998</v>
+      </c>
       <c r="E18">
         <v>964103</v>
       </c>
       <c r="F18">
         <v>9</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>14.665058278279542</v>
+      </c>
       <c r="H18" s="4">
         <v>25979000</v>
       </c>
       <c r="I18">
         <v>9</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>85110</v>
+      </c>
       <c r="L18" s="4">
         <v>85110000</v>
       </c>
       <c r="M18">
-        <v>2800</v>
+        <f t="shared" si="4"/>
+        <v>15994.6</v>
       </c>
       <c r="N18" s="4">
         <v>15994600</v>
@@ -9010,37 +12846,87 @@
       <c r="O18">
         <v>2800</v>
       </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>41422.6</v>
+      </c>
       <c r="Q18" s="4">
         <v>41422600</v>
       </c>
       <c r="R18">
         <v>2800</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="6"/>
+        <v>150378</v>
+      </c>
+      <c r="T18">
+        <v>150.37799999999999</v>
+      </c>
+      <c r="U18">
+        <f t="shared" ref="U18" si="17">V18*1000</f>
+        <v>227521</v>
+      </c>
+      <c r="V18">
+        <v>227.52099999999999</v>
+      </c>
+      <c r="W18">
+        <v>2800</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="8"/>
+        <v>13.965297292901303</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="9"/>
+        <v>17.19823399349702</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="10"/>
+        <v>17.795640185452058</v>
+      </c>
     </row>
-    <row r="19" spans="2:18">
+    <row r="19" spans="1:26">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>6.7772618915645841</v>
+      </c>
       <c r="B19">
         <v>109688</v>
       </c>
       <c r="C19">
         <v>10</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>9.9859557546075077</v>
+      </c>
       <c r="E19" s="4">
         <v>1014080</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>14.54596595663431</v>
+      </c>
       <c r="H19" s="4">
         <v>23920600</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>97330</v>
+      </c>
       <c r="L19" s="4">
         <v>97330000</v>
       </c>
       <c r="M19">
-        <v>3100</v>
+        <f t="shared" si="4"/>
+        <v>21513.200000000001</v>
       </c>
       <c r="N19" s="4">
         <v>21513200</v>
@@ -9048,37 +12934,87 @@
       <c r="O19">
         <v>3100</v>
       </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>51332.4</v>
+      </c>
       <c r="Q19" s="4">
         <v>51332400</v>
       </c>
       <c r="R19">
         <v>3100</v>
       </c>
+      <c r="S19">
+        <f t="shared" si="6"/>
+        <v>207447</v>
+      </c>
+      <c r="T19">
+        <v>207.447</v>
+      </c>
+      <c r="U19">
+        <f t="shared" ref="U19" si="18">V19*1000</f>
+        <v>367622</v>
+      </c>
+      <c r="V19">
+        <v>367.62200000000001</v>
+      </c>
+      <c r="W19">
+        <v>3100</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="8"/>
+        <v>14.392934515224505</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="9"/>
+        <v>17.662383268226669</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="10"/>
+        <v>18.487863580403197</v>
+      </c>
     </row>
-    <row r="20" spans="2:18">
+    <row r="20" spans="1:26">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>6.7713574089905615</v>
+      </c>
       <c r="B20">
         <v>109240</v>
       </c>
       <c r="C20">
         <v>11</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>9.8976019617671263</v>
+      </c>
       <c r="E20">
         <v>953839</v>
       </c>
       <c r="F20">
         <v>11</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>14.533980599169093</v>
+      </c>
       <c r="H20" s="4">
         <v>23722700</v>
       </c>
       <c r="I20">
         <v>11</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>144820</v>
+      </c>
       <c r="L20" s="4">
         <v>144820000</v>
       </c>
       <c r="M20">
-        <v>3400</v>
+        <f t="shared" si="4"/>
+        <v>28267.9</v>
       </c>
       <c r="N20" s="4">
         <v>28267900</v>
@@ -9086,37 +13022,87 @@
       <c r="O20">
         <v>3400</v>
       </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>79124.7</v>
+      </c>
       <c r="Q20" s="4">
         <v>79124700</v>
       </c>
       <c r="R20">
         <v>3400</v>
       </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>293656</v>
+      </c>
+      <c r="T20">
+        <v>293.65600000000001</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ref="U20" si="19">V20*1000</f>
+        <v>417321</v>
+      </c>
+      <c r="V20">
+        <v>417.32100000000003</v>
+      </c>
+      <c r="W20">
+        <v>3400</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="8"/>
+        <v>14.786877090022443</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="9"/>
+        <v>18.163767589819617</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="10"/>
+        <v>18.670797994687216</v>
+      </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="1:26">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>6.7231762676275233</v>
+      </c>
       <c r="B21">
         <v>105652</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>9.5310324420693817</v>
+      </c>
       <c r="E21">
         <v>739821</v>
       </c>
       <c r="F21">
         <v>12</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>14.534023169012714</v>
+      </c>
       <c r="H21" s="4">
         <v>23723400</v>
       </c>
       <c r="I21">
         <v>12</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>164520</v>
+      </c>
       <c r="L21" s="4">
         <v>164520000</v>
       </c>
       <c r="M21">
-        <v>3700</v>
+        <f t="shared" si="4"/>
+        <v>36457.800000000003</v>
       </c>
       <c r="N21" s="4">
         <v>36457800</v>
@@ -9124,14 +13110,245 @@
       <c r="O21">
         <v>3700</v>
       </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>92868.4</v>
+      </c>
       <c r="Q21" s="4">
         <v>92868400</v>
       </c>
       <c r="R21">
         <v>3700</v>
       </c>
+      <c r="S21">
+        <f t="shared" si="6"/>
+        <v>401771</v>
+      </c>
+      <c r="T21">
+        <v>401.77100000000002</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ref="U21" si="20">V21*1000</f>
+        <v>474136</v>
+      </c>
+      <c r="V21">
+        <v>474.13600000000002</v>
+      </c>
+      <c r="W21">
+        <v>3700</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="8"/>
+        <v>15.153939885938799</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="9"/>
+        <v>18.616013907930373</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="10"/>
+        <v>18.854941412005857</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25">
+        <f>B10/1000</f>
+        <v>419.036</v>
+      </c>
+      <c r="B25" s="4">
+        <f>E10/1000</f>
+        <v>3812.67</v>
+      </c>
+      <c r="C25" s="4">
+        <f>H10/1000</f>
+        <v>93042</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26">
+        <f t="shared" ref="A26:A37" si="21">B11/1000</f>
+        <v>211.595</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" ref="B26:B36" si="22">E11/1000</f>
+        <v>1742.67</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:C36" si="23">H11/1000</f>
+        <v>46486.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27">
+        <f t="shared" si="21"/>
+        <v>146.625</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" si="22"/>
+        <v>1185.95</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" si="23"/>
+        <v>31541.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28">
+        <f t="shared" si="21"/>
+        <v>109.294</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="22"/>
+        <v>837.25699999999995</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="23"/>
+        <v>23744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29">
+        <f t="shared" si="21"/>
+        <v>92.766000000000005</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="22"/>
+        <v>668.38800000000003</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="23"/>
+        <v>19869.900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30">
+        <f t="shared" si="21"/>
+        <v>81.966999999999999</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="22"/>
+        <v>580.38099999999997</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="23"/>
+        <v>19519.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31">
+        <f t="shared" si="21"/>
+        <v>73.486999999999995</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="22"/>
+        <v>557.67600000000004</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="23"/>
+        <v>19569.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32">
+        <f t="shared" si="21"/>
+        <v>70.593999999999994</v>
+      </c>
+      <c r="B32" s="4">
+        <f t="shared" si="22"/>
+        <v>509.43700000000001</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" si="23"/>
+        <v>19678.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <f t="shared" si="21"/>
+        <v>123.828</v>
+      </c>
+      <c r="B33" s="4">
+        <f t="shared" si="22"/>
+        <v>964.10299999999995</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="23"/>
+        <v>25979</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <f t="shared" si="21"/>
+        <v>109.688</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="22"/>
+        <v>1014.08</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="23"/>
+        <v>23920.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <f t="shared" si="21"/>
+        <v>109.24</v>
+      </c>
+      <c r="B35" s="4">
+        <f t="shared" si="22"/>
+        <v>953.83900000000006</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="23"/>
+        <v>23722.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <f t="shared" si="21"/>
+        <v>105.652</v>
+      </c>
+      <c r="B36" s="4">
+        <f t="shared" si="22"/>
+        <v>739.82100000000003</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="23"/>
+        <v>23723.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="P37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -9145,10 +13362,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showRuler="0" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="M69" sqref="M68:M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9161,360 +13378,588 @@
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" ht="18">
+      <c r="A1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="18">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18">
+      <c r="A3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="18">
+      <c r="A5" s="5">
+        <v>93.042000000000002</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1329.52</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E16" si="0">B5/A5</f>
+        <v>14.289460673674254</v>
+      </c>
+      <c r="F5" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="18">
-      <c r="A2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="14"/>
+    <row r="6" spans="1:14" ht="18">
+      <c r="A6" s="5">
+        <v>46.486899999999999</v>
+      </c>
+      <c r="B6" s="5">
+        <v>731.25199999999995</v>
+      </c>
+      <c r="C6" s="5">
+        <v>722.11400000000003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>15.730281003895721</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F16" si="1">C6/A6</f>
+        <v>15.533709496653897</v>
+      </c>
+      <c r="H6">
+        <f>93.042/A6</f>
+        <v>2.0014670799730676</v>
+      </c>
+      <c r="I6">
+        <f>93.042/B6</f>
+        <v>0.1272365750794528</v>
+      </c>
+      <c r="J6">
+        <f>93.042/C6</f>
+        <v>0.12884669179658614</v>
+      </c>
+      <c r="L6">
+        <f>LOG10(H6)/LOG10(2)</f>
+        <v>1.0010578865472426</v>
+      </c>
+      <c r="M6">
+        <f>LOG10(I6)/LOG10(2)</f>
+        <v>-2.9744146514589938</v>
+      </c>
+      <c r="N6">
+        <f>LOG10(J6)/LOG10(2)</f>
+        <v>-2.9562725991328254</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>43</v>
+    <row r="7" spans="1:14" ht="18">
+      <c r="A7" s="5">
+        <v>31.541899999999998</v>
+      </c>
+      <c r="B7" s="5">
+        <v>576.30200000000002</v>
+      </c>
+      <c r="C7" s="5">
+        <v>605.98400000000004</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>18.270998259458057</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>19.212032249166985</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:J16" si="2">93.042/A7</f>
+        <v>2.9497905960008755</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.16144660264930541</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.15353870729260177</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:N16" si="3">LOG10(H7)/LOG10(2)</f>
+        <v>1.5606125419883778</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>-2.6308710125144019</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>-2.7033256882855863</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+    <row r="8" spans="1:14" ht="18">
+      <c r="A8" s="5">
+        <v>23.744</v>
+      </c>
+      <c r="B8" s="5">
+        <v>449.05399999999997</v>
+      </c>
+      <c r="C8" s="5">
+        <v>588.18100000000004</v>
+      </c>
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>18.912314690026953</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>24.771773921832885</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.9185478436657681</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>0.2071955711339839</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>0.1581860005678524</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>1.9703191117676135</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>-2.2709349295623475</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>-2.6603061676747597</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="6">
-        <v>93.042000000000002</v>
-      </c>
-      <c r="B5" s="7">
-        <v>1329.52</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="5">
-        <f>B5/A5</f>
-        <v>14.289460673674254</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5">
-        <f>LOG10(3000)/LOG10(2)</f>
-        <v>11.550746785383243</v>
+    <row r="9" spans="1:14" ht="18">
+      <c r="A9" s="5">
+        <v>19.869900000000001</v>
+      </c>
+      <c r="B9" s="5">
+        <v>593.745</v>
+      </c>
+      <c r="C9" s="5">
+        <v>447.09199999999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>29.881630003170624</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>22.500968802057383</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>4.6825600531457123</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>0.15670363539903495</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.20810481958970414</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="3"/>
+        <v>2.2272974969392112</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>-2.6738894453173181</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-2.2646177174275284</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="6">
-        <v>46.486899999999999</v>
-      </c>
-      <c r="B6" s="6">
-        <v>731.25199999999995</v>
-      </c>
-      <c r="C6" s="6">
-        <v>722.11400000000003</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f>B6/A6</f>
-        <v>15.730281003895721</v>
-      </c>
-      <c r="F6">
-        <f>C6/A6</f>
-        <v>15.533709496653897</v>
-      </c>
-      <c r="G6">
-        <f>E6/(LOG10(3000)/LOG10(2))</f>
-        <v>1.3618410390401268</v>
+    <row r="10" spans="1:14" ht="18">
+      <c r="A10" s="5">
+        <v>19.519200000000001</v>
+      </c>
+      <c r="B10" s="5">
+        <v>550.83799999999997</v>
+      </c>
+      <c r="C10" s="5">
+        <v>396.25200000000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>28.220316406410095</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>20.300627074880119</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>4.7666912578384357</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>0.16890991543793277</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>0.23480512401199236</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="3"/>
+        <v>2.2529881839957548</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>-2.5656740744256408</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>-2.0904642030235947</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18">
-      <c r="A7" s="6">
-        <v>31.541899999999998</v>
-      </c>
-      <c r="B7" s="6">
-        <v>576.30200000000002</v>
-      </c>
-      <c r="C7" s="6">
-        <v>605.98400000000004</v>
-      </c>
-      <c r="D7" s="6">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f>B7/A7</f>
-        <v>18.270998259458057</v>
-      </c>
-      <c r="F7">
-        <f>C7/A7</f>
-        <v>19.212032249166985</v>
-      </c>
-      <c r="G7">
-        <f>E7/(LOG10(3000)/LOG10(2))</f>
-        <v>1.5818023370210901</v>
+    <row r="11" spans="1:14" ht="18">
+      <c r="A11" s="5">
+        <v>19.569199999999999</v>
+      </c>
+      <c r="B11" s="5">
+        <v>510.23</v>
+      </c>
+      <c r="C11" s="5">
+        <v>235.53</v>
+      </c>
+      <c r="D11" s="5">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>26.073114894834742</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>12.035750056210782</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>4.7545121926292344</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.1823530564647316</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.39503247993886131</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="3"/>
+        <v>2.2492973298606413</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>-2.4551937136418758</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>-1.3399568169892926</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18">
-      <c r="A8" s="6">
-        <v>23.744</v>
-      </c>
-      <c r="B8" s="6">
-        <v>449.05399999999997</v>
-      </c>
-      <c r="C8" s="6">
-        <v>588.18100000000004</v>
-      </c>
-      <c r="D8" s="6">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <f>B8/A8</f>
-        <v>18.912314690026953</v>
-      </c>
-      <c r="F8">
-        <f>C8/A8</f>
-        <v>24.771773921832885</v>
-      </c>
-      <c r="G8">
-        <f>E8/(LOG10(3000)/LOG10(2))</f>
-        <v>1.6373239792564165</v>
+    <row r="12" spans="1:14" ht="18">
+      <c r="A12" s="5">
+        <v>19.6785</v>
+      </c>
+      <c r="B12" s="5">
+        <v>434.15300000000002</v>
+      </c>
+      <c r="C12" s="5">
+        <v>328.86700000000002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>22.062301496557158</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>16.711995324846914</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>4.7281042762405674</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>0.2143069378767393</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>0.2829168022331216</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="3"/>
+        <v>2.2412618538648967</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>-2.222249538954344</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>-1.8215502349486263</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="6">
-        <v>19.869900000000001</v>
-      </c>
-      <c r="B9" s="6">
-        <v>593.745</v>
-      </c>
-      <c r="C9" s="6">
-        <v>447.09199999999998</v>
-      </c>
-      <c r="D9" s="6">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <f>B9/A9</f>
-        <v>29.881630003170624</v>
-      </c>
-      <c r="F9">
-        <f>C9/A9</f>
-        <v>22.500968802057383</v>
-      </c>
-      <c r="G9">
-        <f>E9/(LOG10(3000)/LOG10(2))</f>
-        <v>2.586986846684578</v>
+    <row r="13" spans="1:14" ht="18">
+      <c r="A13" s="5">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="B13" s="5">
+        <v>424.99200000000002</v>
+      </c>
+      <c r="C13" s="5">
+        <v>195.29900000000001</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>16.35905924015551</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.5175718849840258</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>3.5814311559336387</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>0.21892647391009712</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>0.47640796931883933</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>1.8405362101088736</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>-2.1914816704306053</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>-1.0697305481828054</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18">
-      <c r="A10" s="6">
-        <v>19.519200000000001</v>
-      </c>
-      <c r="B10" s="6">
-        <v>550.83799999999997</v>
-      </c>
-      <c r="C10" s="6">
-        <v>396.25200000000001</v>
-      </c>
-      <c r="D10" s="6">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <f>B10/A10</f>
-        <v>28.220316406410095</v>
-      </c>
-      <c r="F10">
-        <f>C10/A10</f>
-        <v>20.300627074880119</v>
-      </c>
-      <c r="G10">
-        <f>E10/(LOG10(3000)/LOG10(2))</f>
-        <v>2.443159471050059</v>
+    <row r="14" spans="1:14" ht="18">
+      <c r="A14" s="5">
+        <v>23.9206</v>
+      </c>
+      <c r="B14" s="5">
+        <v>385.13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>198.376</v>
+      </c>
+      <c r="D14" s="5">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>16.100348653461868</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>8.2931030158106402</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>3.8896181533908014</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>0.24158595798821178</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>0.46901842964874785</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="3"/>
+        <v>1.9596285317541069</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>-2.0493914934094302</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>-1.0922834816553153</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18">
-      <c r="A11" s="6">
-        <v>19.569199999999999</v>
-      </c>
-      <c r="B11" s="6">
-        <v>510.23</v>
-      </c>
-      <c r="C11" s="6">
-        <v>235.53</v>
-      </c>
-      <c r="D11" s="6">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <f>B11/A11</f>
-        <v>26.073114894834742</v>
-      </c>
-      <c r="F11">
-        <f>C11/A11</f>
-        <v>12.035750056210782</v>
-      </c>
-      <c r="G11">
-        <f>E11/(LOG10(3000)/LOG10(2))</f>
-        <v>2.2572665975007484</v>
+    <row r="15" spans="1:14" ht="18">
+      <c r="A15" s="5">
+        <v>23.7227</v>
+      </c>
+      <c r="B15" s="5">
+        <v>373.77300000000002</v>
+      </c>
+      <c r="C15" s="5">
+        <v>190.93</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15.755921543500531</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>8.0484093294608119</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>3.9220662066290939</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>0.24892648746699197</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>0.48730948515162625</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="3"/>
+        <v>1.9716138892193229</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>-2.0062083438608052</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>-1.0370897909944501</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18">
-      <c r="A12" s="6">
-        <v>19.6785</v>
-      </c>
-      <c r="B12" s="6">
-        <v>434.15300000000002</v>
-      </c>
-      <c r="C12" s="6">
-        <v>328.86700000000002</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <f>B12/A12</f>
-        <v>22.062301496557158</v>
-      </c>
-      <c r="F12">
-        <f>C12/A12</f>
-        <v>16.711995324846914</v>
-      </c>
-      <c r="G12">
-        <f>E12/(LOG10(3000)/LOG10(2))</f>
-        <v>1.9100324772486259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18">
-      <c r="A13" s="6">
-        <v>25.978999999999999</v>
-      </c>
-      <c r="B13" s="6">
-        <v>424.99200000000002</v>
-      </c>
-      <c r="C13" s="6">
-        <v>195.29900000000001</v>
-      </c>
-      <c r="D13" s="6">
-        <v>9</v>
-      </c>
-      <c r="E13">
-        <f>B13/A13</f>
-        <v>16.35905924015551</v>
-      </c>
-      <c r="F13">
-        <f>C13/A13</f>
-        <v>7.5175718849840258</v>
-      </c>
-      <c r="G13">
-        <f>E13/(LOG10(3000)/LOG10(2))</f>
-        <v>1.4162771935107166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="6">
-        <v>23.9206</v>
-      </c>
-      <c r="B14" s="6">
-        <v>385.13</v>
-      </c>
-      <c r="C14" s="6">
-        <v>198.376</v>
-      </c>
-      <c r="D14" s="6">
-        <v>10</v>
-      </c>
-      <c r="E14">
-        <f>B14/A14</f>
-        <v>16.100348653461868</v>
-      </c>
-      <c r="F14">
-        <f>C14/A14</f>
-        <v>8.2931030158106402</v>
-      </c>
-      <c r="G14">
-        <f>E14/(LOG10(3000)/LOG10(2))</f>
-        <v>1.3938794566803132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18">
-      <c r="A15" s="6">
-        <v>23.7227</v>
-      </c>
-      <c r="B15" s="6">
-        <v>373.77300000000002</v>
-      </c>
-      <c r="C15" s="6">
-        <v>190.93</v>
-      </c>
-      <c r="D15" s="6">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <f>B15/A15</f>
-        <v>15.755921543500531</v>
-      </c>
-      <c r="F15">
-        <f>C15/A15</f>
-        <v>8.0484093294608119</v>
-      </c>
-      <c r="G15">
-        <f>E15/(LOG10(3000)/LOG10(2))</f>
-        <v>1.364060855652959</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18">
-      <c r="A16" s="6">
+    <row r="16" spans="1:14" ht="18">
+      <c r="A16" s="5">
         <v>23.723400000000002</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>151.33000000000001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>174.899</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <v>12</v>
       </c>
       <c r="E16">
-        <f>B16/A16</f>
+        <f t="shared" si="0"/>
         <v>6.378933879629396</v>
       </c>
       <c r="F16">
-        <f>C16/A16</f>
+        <f t="shared" si="1"/>
         <v>7.3724255376548049</v>
       </c>
-      <c r="G16">
-        <f>E16/(LOG10(3000)/LOG10(2))</f>
-        <v>0.55225294071042597</v>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>3.9219504792736282</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0.61482852045199232</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.5319755973447533</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="3"/>
+        <v>1.9715713193757025</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>-0.70174400506964418</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>-0.91056802659918257</v>
       </c>
     </row>
     <row r="17" spans="4:4">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="0" windowWidth="25600" windowHeight="15800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
   <si>
     <t>Threads</t>
   </si>
@@ -206,11 +206,23 @@
   <si>
     <t>Seedups</t>
   </si>
+  <si>
+    <t>fw-omp</t>
+  </si>
+  <si>
+    <t>FW-omp</t>
+  </si>
+  <si>
+    <t>Time (s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -337,7 +349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="555">
+  <cellStyleXfs count="585">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -893,8 +905,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -904,6 +946,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -936,17 +990,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="555">
+  <cellStyles count="585">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1224,6 +1269,21 @@
     <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1501,6 +1561,21 @@
     <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1832,6 +1907,107 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floyd Warshall (OMP)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$58:$P$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$58:$O$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>93.042</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.4869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.5419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.744</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.8699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.5192</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.6785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25.979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.9206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.7227</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.7234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1840,13 +2016,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="530334760"/>
-        <c:axId val="609449320"/>
+        <c:axId val="1885819976"/>
+        <c:axId val="1885825496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="530334760"/>
+        <c:axId val="1885819976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="13.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1873,14 +2051,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609449320"/>
+        <c:crossAx val="1885825496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="609449320"/>
+        <c:axId val="1885825496"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="10.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1908,7 +2089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="530334760"/>
+        <c:crossAx val="1885819976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2077,11 +2258,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635336872"/>
-        <c:axId val="635342264"/>
+        <c:axId val="1885806888"/>
+        <c:axId val="1885895784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635336872"/>
+        <c:axId val="1885806888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635342264"/>
+        <c:crossAx val="1885895784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635342264"/>
+        <c:axId val="1885895784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635336872"/>
+        <c:crossAx val="1885806888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2522,11 +2703,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635382600"/>
-        <c:axId val="635388328"/>
+        <c:axId val="1885921688"/>
+        <c:axId val="1886062296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635382600"/>
+        <c:axId val="1885921688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635388328"/>
+        <c:crossAx val="1886062296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635388328"/>
+        <c:axId val="1886062296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2603,7 +2784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635382600"/>
+        <c:crossAx val="1885921688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3035,11 +3216,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="644345128"/>
-        <c:axId val="644527640"/>
+        <c:axId val="1877058248"/>
+        <c:axId val="1877062248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="644345128"/>
+        <c:axId val="1877058248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,7 +3253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644527640"/>
+        <c:crossAx val="1877062248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3080,7 +3261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="644527640"/>
+        <c:axId val="1877062248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3118,7 +3299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="644345128"/>
+        <c:crossAx val="1877058248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3280,43 +3461,43 @@
             <c:numRef>
               <c:f>Sheet3!$M$10:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50.003</c:v>
+                  <c:v>0.050003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206.03</c:v>
+                  <c:v>0.20603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>522.9</c:v>
+                  <c:v>0.5229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1187.2</c:v>
+                  <c:v>1.1872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2544.54</c:v>
+                  <c:v>2.54454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4725.06</c:v>
+                  <c:v>4.72506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8252.549999999999</c:v>
+                  <c:v>8.25255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11353.8</c:v>
+                  <c:v>11.3538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15994.6</c:v>
+                  <c:v>15.9946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21513.2</c:v>
+                  <c:v>21.5132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28267.9</c:v>
+                  <c:v>28.2679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36457.8</c:v>
+                  <c:v>36.4578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3535,11 +3716,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="686947912"/>
-        <c:axId val="711576040"/>
+        <c:axId val="1835466712"/>
+        <c:axId val="1855987720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="686947912"/>
+        <c:axId val="1835466712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +3753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="711576040"/>
+        <c:crossAx val="1855987720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3580,7 +3761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="711576040"/>
+        <c:axId val="1855987720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,11 +3787,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="686947912"/>
+        <c:crossAx val="1835466712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,40 +3947,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.64394274888043</c:v>
+                  <c:v>-4.321841535781656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.686710613105617</c:v>
+                  <c:v>-2.279073671556469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.030391259959478</c:v>
+                  <c:v>-0.935393024702608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.21334728173344</c:v>
+                  <c:v>0.247562997071354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.31318915522579</c:v>
+                  <c:v>1.347404870563707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.20611693381651</c:v>
+                  <c:v>2.240332649154421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.01062425904095</c:v>
+                  <c:v>3.044839974378865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.47088761306812</c:v>
+                  <c:v>3.505103328406034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.9652972929013</c:v>
+                  <c:v>3.999513008239217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.39293451522451</c:v>
+                  <c:v>4.427150230562417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.78687709002244</c:v>
+                  <c:v>4.821092805360356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.1539398859388</c:v>
+                  <c:v>5.188155601276714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,11 +4199,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="687739064"/>
-        <c:axId val="743740824"/>
+        <c:axId val="1877616584"/>
+        <c:axId val="1877438168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="687739064"/>
+        <c:axId val="1877616584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4051,7 +4232,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="743740824"/>
+        <c:crossAx val="1877438168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4059,7 +4240,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="743740824"/>
+        <c:axId val="1877438168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4094,7 +4275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="687739064"/>
+        <c:crossAx val="1877616584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4512,11 +4693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="686465256"/>
-        <c:axId val="674974472"/>
+        <c:axId val="1880271016"/>
+        <c:axId val="1879518888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="686465256"/>
+        <c:axId val="1880271016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4545,7 +4726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="674974472"/>
+        <c:crossAx val="1879518888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4553,7 +4734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674974472"/>
+        <c:axId val="1879518888"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4584,7 +4765,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="686465256"/>
+        <c:crossAx val="1880271016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4670,12 +4851,21 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0805534040785763"/>
+          <c:y val="0.125089179548157"/>
+          <c:w val="0.900130102607902"/>
+          <c:h val="0.765168762347037"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4895,11 +5085,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="634413304"/>
-        <c:axId val="634407752"/>
+        <c:axId val="1877622696"/>
+        <c:axId val="1877628168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="634413304"/>
+        <c:axId val="1877622696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,14 +5111,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634407752"/>
+        <c:crossAx val="1877628168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4936,7 +5125,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="634407752"/>
+        <c:axId val="1877628168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,14 +5148,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="634413304"/>
+        <c:crossAx val="1877622696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5047,7 +5235,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5351,11 +5538,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="686114440"/>
-        <c:axId val="723726280"/>
+        <c:axId val="1880785368"/>
+        <c:axId val="1877697896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="686114440"/>
+        <c:axId val="1880785368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5377,14 +5564,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="723726280"/>
+        <c:crossAx val="1877697896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5392,7 +5578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="723726280"/>
+        <c:axId val="1877697896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,14 +5606,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="686114440"/>
+        <c:crossAx val="1880785368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5513,7 +5698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5817,11 +6001,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="642424088"/>
-        <c:axId val="694890360"/>
+        <c:axId val="1856614104"/>
+        <c:axId val="1856982568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="642424088"/>
+        <c:axId val="1856614104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5843,14 +6027,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="694890360"/>
+        <c:crossAx val="1856982568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5858,7 +6041,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="694890360"/>
+        <c:axId val="1856982568"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5882,14 +6065,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="642424088"/>
+        <c:crossAx val="1856614104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6293,6 +6475,107 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floyd Warshall (OMP)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$10:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.050003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.54454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.72506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.2679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.4578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6301,11 +6584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="677893208"/>
-        <c:axId val="677898696"/>
+        <c:axId val="110291416"/>
+        <c:axId val="111089224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="677893208"/>
+        <c:axId val="110291416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6334,14 +6617,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677898696"/>
+        <c:crossAx val="111089224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677898696"/>
+        <c:axId val="111089224"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:min val="0.01"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6374,7 +6659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="677893208"/>
+        <c:crossAx val="110291416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6735,11 +7020,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="609386408"/>
-        <c:axId val="609392120"/>
+        <c:axId val="1886139384"/>
+        <c:axId val="1885638072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="609386408"/>
+        <c:axId val="1886139384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6773,7 +7058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609392120"/>
+        <c:crossAx val="1885638072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6781,7 +7066,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="609392120"/>
+        <c:axId val="1885638072"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6817,7 +7102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="609386408"/>
+        <c:crossAx val="1886139384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6916,8 +7201,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Naive MPI</c:v>
+            <c:v>Square Sum (Naive MPI)</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7017,7 +7309,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Ideal </c:v>
+            <c:v>Ideal</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="12700">
@@ -7125,7 +7417,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>non-naive MPI</c:v>
+            <c:v>Square Sum (Non-Naive MPI)</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -7226,8 +7518,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>OMP</c:v>
+            <c:v>Square Sum (OMP)</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -7317,6 +7616,114 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>8.749818277935637</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Floyd Warshall (OMP)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$3:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$K$3:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.001467079973068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.949790596000875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.918547843665768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.682560053145712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.766691257838436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.754512192629234</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.728104276240567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.581431155933639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.889618153390801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.922066206629094</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.921950479273628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7331,11 +7738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="635101704"/>
-        <c:axId val="635107224"/>
+        <c:axId val="110250408"/>
+        <c:axId val="110256088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635101704"/>
+        <c:axId val="110250408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -7354,7 +7761,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Processor</a:t>
+                  <a:t>Processors</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7363,15 +7770,15 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635107224"/>
+        <c:crossAx val="110256088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635107224"/>
+        <c:axId val="110256088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -7382,7 +7789,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -7399,10 +7806,10 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635101704"/>
+        <c:crossAx val="110250408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7770,6 +8177,107 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Floyd Warshall (OMP)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$T$39:$T$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$P$39:$P$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.999760014399136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.144881813328157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.062344616561483</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.94676549865229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.108978440110983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.831684677019973</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.426510593695283</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.527999436312071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.321170895177122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.524199096368741</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.123125524004259</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.512614584533352</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7778,11 +8286,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="635146152"/>
-        <c:axId val="635151896"/>
+        <c:axId val="110162984"/>
+        <c:axId val="110168808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="635146152"/>
+        <c:axId val="110162984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7816,12 +8324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635151896"/>
+        <c:crossAx val="110168808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="635151896"/>
+        <c:axId val="110168808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7851,7 +8359,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635146152"/>
+        <c:crossAx val="110162984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7980,11 +8488,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635199256"/>
-        <c:axId val="635204952"/>
+        <c:axId val="110137304"/>
+        <c:axId val="110143032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635199256"/>
+        <c:axId val="110137304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8017,7 +8525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635204952"/>
+        <c:crossAx val="110143032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8025,7 +8533,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635204952"/>
+        <c:axId val="110143032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8060,7 +8568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635199256"/>
+        <c:crossAx val="110137304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8184,11 +8692,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635233384"/>
-        <c:axId val="635238824"/>
+        <c:axId val="110211336"/>
+        <c:axId val="110145336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635233384"/>
+        <c:axId val="110211336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8216,7 +8724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635238824"/>
+        <c:crossAx val="110145336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8224,7 +8732,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635238824"/>
+        <c:axId val="110145336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8259,7 +8767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635233384"/>
+        <c:crossAx val="110211336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8325,7 +8833,7 @@
             <c:numRef>
               <c:f>Sheet3!$H$10:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>9.3042E7</c:v>
@@ -8378,11 +8886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635266136"/>
-        <c:axId val="635271816"/>
+        <c:axId val="110193448"/>
+        <c:axId val="110292088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635266136"/>
+        <c:axId val="110193448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8415,7 +8923,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635271816"/>
+        <c:crossAx val="110292088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8423,7 +8931,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635271816"/>
+        <c:axId val="110292088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8454,11 +8962,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635266136"/>
+        <c:crossAx val="110193448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8622,11 +9130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="635300904"/>
-        <c:axId val="635306296"/>
+        <c:axId val="1885772952"/>
+        <c:axId val="1885778344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635300904"/>
+        <c:axId val="1885772952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8655,7 +9163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635306296"/>
+        <c:crossAx val="1885778344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8663,7 +9171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="635306296"/>
+        <c:axId val="1885778344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,7 +9201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="635300904"/>
+        <c:crossAx val="1885772952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8716,14 +9224,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8746,14 +9254,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8809,14 +9317,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -9596,8 +10104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="J71" workbookViewId="0">
-      <selection activeCell="O73" sqref="O73"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9619,6 +10127,11 @@
       <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="J8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="N8" s="2" t="s">
         <v>5</v>
       </c>
@@ -9642,6 +10155,15 @@
       <c r="F9" t="s">
         <v>0</v>
       </c>
+      <c r="J9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
       <c r="N9" t="s">
         <v>1</v>
       </c>
@@ -9674,6 +10196,16 @@
       <c r="F10">
         <v>1</v>
       </c>
+      <c r="J10" s="9">
+        <f t="shared" ref="J10:J21" si="0">K10/1000000</f>
+        <v>5.0002999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>50003</v>
+      </c>
+      <c r="L10">
+        <v>400</v>
+      </c>
       <c r="N10">
         <v>1.7882800000000001</v>
       </c>
@@ -9706,6 +10238,16 @@
       <c r="F11">
         <v>2</v>
       </c>
+      <c r="J11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20602999999999999</v>
+      </c>
+      <c r="K11">
+        <v>206030</v>
+      </c>
+      <c r="L11">
+        <v>700</v>
+      </c>
       <c r="N11">
         <v>2.8241100000000001</v>
       </c>
@@ -9738,6 +10280,16 @@
       <c r="F12">
         <v>3</v>
       </c>
+      <c r="J12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="K12">
+        <v>522900</v>
+      </c>
+      <c r="L12">
+        <v>1000</v>
+      </c>
       <c r="N12">
         <v>15.5481</v>
       </c>
@@ -9770,6 +10322,16 @@
       <c r="F13">
         <v>4</v>
       </c>
+      <c r="J13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.1872</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1187200</v>
+      </c>
+      <c r="L13">
+        <v>1300</v>
+      </c>
       <c r="N13">
         <v>22.900700000000001</v>
       </c>
@@ -9802,6 +10364,16 @@
       <c r="F14">
         <v>5</v>
       </c>
+      <c r="J14" s="9">
+        <f t="shared" si="0"/>
+        <v>2.54454</v>
+      </c>
+      <c r="K14" s="4">
+        <v>2544540</v>
+      </c>
+      <c r="L14">
+        <v>1600</v>
+      </c>
       <c r="N14">
         <v>46.275599999999997</v>
       </c>
@@ -9834,6 +10406,16 @@
       <c r="F15">
         <v>6</v>
       </c>
+      <c r="J15" s="9">
+        <f t="shared" si="0"/>
+        <v>4.72506</v>
+      </c>
+      <c r="K15" s="4">
+        <v>4725060</v>
+      </c>
+      <c r="L15">
+        <v>1900</v>
+      </c>
       <c r="N15">
         <v>72.423299999999998</v>
       </c>
@@ -9866,6 +10448,16 @@
       <c r="F16">
         <v>7</v>
       </c>
+      <c r="J16" s="9">
+        <f t="shared" si="0"/>
+        <v>8.2525499999999994</v>
+      </c>
+      <c r="K16" s="4">
+        <v>8252550</v>
+      </c>
+      <c r="L16">
+        <v>2200</v>
+      </c>
       <c r="N16">
         <v>120.127</v>
       </c>
@@ -9898,6 +10490,16 @@
       <c r="F17">
         <v>8</v>
       </c>
+      <c r="J17" s="9">
+        <f t="shared" si="0"/>
+        <v>11.3538</v>
+      </c>
+      <c r="K17" s="4">
+        <v>11353800</v>
+      </c>
+      <c r="L17">
+        <v>2500</v>
+      </c>
       <c r="N17">
         <v>95.634500000000003</v>
       </c>
@@ -9930,6 +10532,16 @@
       <c r="F18">
         <v>9</v>
       </c>
+      <c r="J18" s="9">
+        <f t="shared" si="0"/>
+        <v>15.9946</v>
+      </c>
+      <c r="K18" s="4">
+        <v>15994600</v>
+      </c>
+      <c r="L18">
+        <v>2800</v>
+      </c>
       <c r="N18">
         <v>150.37799999999999</v>
       </c>
@@ -9956,6 +10568,16 @@
       <c r="F19">
         <v>10</v>
       </c>
+      <c r="J19" s="9">
+        <f t="shared" si="0"/>
+        <v>21.513200000000001</v>
+      </c>
+      <c r="K19" s="4">
+        <v>21513200</v>
+      </c>
+      <c r="L19">
+        <v>3100</v>
+      </c>
       <c r="N19">
         <v>207.447</v>
       </c>
@@ -9982,6 +10604,16 @@
       <c r="F20">
         <v>12</v>
       </c>
+      <c r="J20" s="9">
+        <f t="shared" si="0"/>
+        <v>28.267900000000001</v>
+      </c>
+      <c r="K20" s="4">
+        <v>28267900</v>
+      </c>
+      <c r="L20">
+        <v>3400</v>
+      </c>
       <c r="N20">
         <v>293.65600000000001</v>
       </c>
@@ -10002,6 +10634,16 @@
       </c>
     </row>
     <row r="21" spans="2:21">
+      <c r="J21" s="9">
+        <f t="shared" si="0"/>
+        <v>36.457799999999999</v>
+      </c>
+      <c r="K21" s="4">
+        <v>36457800</v>
+      </c>
+      <c r="L21">
+        <v>3700</v>
+      </c>
       <c r="N21">
         <v>401.77100000000002</v>
       </c>
@@ -10020,6 +10662,57 @@
       <c r="U21">
         <v>3700</v>
       </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="Q27" s="10"/>
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="Q28" s="10"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="Q29" s="10"/>
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="Q30" s="10"/>
+      <c r="R30" s="4"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="Q31" s="10"/>
+      <c r="R31" s="4"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="Q32" s="10"/>
+      <c r="R32" s="4"/>
+    </row>
+    <row r="33" spans="3:26">
+      <c r="Q33" s="10"/>
+      <c r="R33" s="4"/>
+    </row>
+    <row r="34" spans="3:26">
+      <c r="Q34" s="10"/>
+      <c r="R34" s="4"/>
+    </row>
+    <row r="35" spans="3:26">
+      <c r="Q35" s="10"/>
+      <c r="R35" s="4"/>
+    </row>
+    <row r="36" spans="3:26">
+      <c r="Q36" s="10"/>
+      <c r="R36" s="4"/>
+    </row>
+    <row r="37" spans="3:26">
+      <c r="Q37" s="10"/>
+      <c r="R37" s="4"/>
     </row>
     <row r="39" spans="3:26">
       <c r="O39" t="s">
@@ -10155,7 +10848,7 @@
         <v>4</v>
       </c>
       <c r="N44">
-        <f t="shared" ref="N44:N53" si="0">LOG10(O44)/LOG10(2)</f>
+        <f t="shared" ref="N44:N53" si="1">LOG10(O44)/LOG10(2)</f>
         <v>9.1706812162407303</v>
       </c>
       <c r="O44">
@@ -10191,7 +10884,7 @@
         <v>5</v>
       </c>
       <c r="N45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8107451332886768</v>
       </c>
       <c r="O45">
@@ -10227,7 +10920,7 @@
         <v>6</v>
       </c>
       <c r="N46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2136996490436474</v>
       </c>
       <c r="O46">
@@ -10263,7 +10956,7 @@
         <v>7</v>
       </c>
       <c r="N47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1054842781519714</v>
       </c>
       <c r="O47">
@@ -10299,7 +10992,7 @@
         <v>8</v>
       </c>
       <c r="N48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.995003917368205</v>
       </c>
       <c r="O48">
@@ -10335,7 +11028,7 @@
         <v>9</v>
       </c>
       <c r="N49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7620597426806732</v>
       </c>
       <c r="O49">
@@ -10372,7 +11065,7 @@
         <v>10</v>
       </c>
       <c r="N50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7312918741569341</v>
       </c>
       <c r="O50">
@@ -10402,7 +11095,7 @@
         <v>11</v>
       </c>
       <c r="N51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5892016971357599</v>
       </c>
       <c r="O51">
@@ -10432,7 +11125,7 @@
         <v>12</v>
       </c>
       <c r="N52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.5460185475871349</v>
       </c>
       <c r="O52">
@@ -10457,7 +11150,7 @@
     </row>
     <row r="53" spans="3:30">
       <c r="N53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2415542087959741</v>
       </c>
       <c r="O53">
@@ -10557,7 +11250,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <f t="shared" ref="Q58:Q67" si="1">LOG10(R58)/LOG10(2)</f>
+        <f t="shared" ref="Q58:Q67" si="2">LOG10(R58)/LOG10(2)</f>
         <v>9.2431358920119173</v>
       </c>
       <c r="R58">
@@ -10586,7 +11279,7 @@
         <v>2</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.200116371401089</v>
       </c>
       <c r="R59">
@@ -10609,7 +11302,7 @@
         <v>5</v>
       </c>
       <c r="N60">
-        <f t="shared" ref="N60:N69" si="2">LOG10(O60)/LOG10(2)</f>
+        <f t="shared" ref="N60:N69" si="3">LOG10(O60)/LOG10(2)</f>
         <v>4.9791976617379516</v>
       </c>
       <c r="O60">
@@ -10619,7 +11312,7 @@
         <v>3</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8044279211538576</v>
       </c>
       <c r="R60">
@@ -10644,7 +11337,7 @@
         <v>6</v>
       </c>
       <c r="N61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5694910919587155</v>
       </c>
       <c r="O61">
@@ -10654,7 +11347,7 @@
         <v>4</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6302744067499244</v>
       </c>
       <c r="R61">
@@ -10678,7 +11371,7 @@
         <v>7</v>
       </c>
       <c r="N62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3125127067871185</v>
       </c>
       <c r="O62">
@@ -10688,7 +11381,7 @@
         <v>5</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8797670207156223</v>
       </c>
       <c r="R62">
@@ -10712,7 +11405,7 @@
         <v>8</v>
       </c>
       <c r="N63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2868220197305744</v>
       </c>
       <c r="O63">
@@ -10722,7 +11415,7 @@
         <v>6</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.3613604386749572</v>
       </c>
       <c r="R63">
@@ -10746,7 +11439,7 @@
         <v>9</v>
       </c>
       <c r="N64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2905128738656879</v>
       </c>
       <c r="O64">
@@ -10756,7 +11449,7 @@
         <v>7</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6095407519091349</v>
       </c>
       <c r="R64">
@@ -10780,7 +11473,7 @@
         <v>11</v>
       </c>
       <c r="N65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.2985483498614325</v>
       </c>
       <c r="O65">
@@ -10790,7 +11483,7 @@
         <v>8</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.632093685381645</v>
       </c>
       <c r="R65">
@@ -10814,7 +11507,7 @@
         <v>12</v>
       </c>
       <c r="N66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.6992739936174557</v>
       </c>
       <c r="O66">
@@ -10824,7 +11517,7 @@
         <v>9</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5768999947207796</v>
       </c>
       <c r="R66">
@@ -10842,7 +11535,7 @@
     </row>
     <row r="67" spans="3:26">
       <c r="N67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5801816719722224</v>
       </c>
       <c r="O67">
@@ -10852,7 +11545,7 @@
         <v>10</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4503782303255122</v>
       </c>
       <c r="R67">
@@ -10870,7 +11563,7 @@
     </row>
     <row r="68" spans="3:26">
       <c r="N68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5681963145070066</v>
       </c>
       <c r="O68">
@@ -10888,7 +11581,7 @@
     </row>
     <row r="69" spans="3:26">
       <c r="N69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.5682388843506265</v>
       </c>
       <c r="O69">
@@ -10936,8 +11629,11 @@
   <sortState ref="T9:U33">
     <sortCondition ref="U9:U33"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="Q24:R24"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10949,10 +11645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10960,7 +11656,7 @@
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -10976,8 +11672,11 @@
       <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11002,6 +11701,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
       <c r="M2" t="s">
         <v>1</v>
       </c>
@@ -11014,8 +11716,14 @@
       <c r="Q2" t="s">
         <v>0</v>
       </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="E3">
         <v>1218.22</v>
       </c>
@@ -11034,6 +11742,10 @@
         <f>C2/P3</f>
         <v>1</v>
       </c>
+      <c r="K3">
+        <f>S3/S3</f>
+        <v>1</v>
+      </c>
       <c r="M3">
         <v>1214.68</v>
       </c>
@@ -11046,8 +11758,14 @@
       <c r="Q3">
         <v>1</v>
       </c>
+      <c r="S3">
+        <v>93.042000000000002</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="E4">
         <v>848.76099999999997</v>
       </c>
@@ -11066,6 +11784,10 @@
         <f>C2/P4</f>
         <v>1.810743765487137</v>
       </c>
+      <c r="K4">
+        <f>S3/S4</f>
+        <v>2.0014670799730676</v>
+      </c>
       <c r="M4">
         <v>722.11400000000003</v>
       </c>
@@ -11078,8 +11800,14 @@
       <c r="Q4">
         <v>2</v>
       </c>
+      <c r="S4">
+        <v>46.486899999999999</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="E5">
         <v>600.11599999999999</v>
       </c>
@@ -11098,6 +11826,10 @@
         <f>C2/P5</f>
         <v>2.2975974402309896</v>
       </c>
+      <c r="K5">
+        <f>S3/S5</f>
+        <v>2.9497905960008755</v>
+      </c>
       <c r="M5">
         <v>605.98400000000004</v>
       </c>
@@ -11110,8 +11842,14 @@
       <c r="Q5">
         <v>3</v>
       </c>
+      <c r="S5">
+        <v>31.541899999999998</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="E6">
         <v>550.18200000000002</v>
       </c>
@@ -11130,6 +11868,10 @@
         <f>C2/P6</f>
         <v>2.9486654166314072</v>
       </c>
+      <c r="K6">
+        <f>S3/S6</f>
+        <v>3.9185478436657681</v>
+      </c>
       <c r="M6">
         <v>588.18100000000004</v>
       </c>
@@ -11142,8 +11884,14 @@
       <c r="Q6">
         <v>4</v>
       </c>
+      <c r="S6">
+        <v>23.744</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="E7">
         <v>814.97900000000004</v>
       </c>
@@ -11162,6 +11910,10 @@
         <f>C2/P7</f>
         <v>2.230098779779198</v>
       </c>
+      <c r="K7">
+        <f>S3/S7</f>
+        <v>4.6825600531457123</v>
+      </c>
       <c r="M7">
         <v>447.09199999999998</v>
       </c>
@@ -11174,8 +11926,14 @@
       <c r="Q7">
         <v>5</v>
       </c>
+      <c r="S7">
+        <v>19.869900000000001</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="E8">
         <v>798.77</v>
       </c>
@@ -11194,6 +11952,10 @@
         <f>C2/P8</f>
         <v>2.4038101946488806</v>
       </c>
+      <c r="K8">
+        <f>S3/S8</f>
+        <v>4.7666912578384357</v>
+      </c>
       <c r="M8">
         <v>396.25200000000001</v>
       </c>
@@ -11206,8 +11968,14 @@
       <c r="Q8">
         <v>6</v>
       </c>
+      <c r="S8">
+        <v>19.519200000000001</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:20">
       <c r="E9">
         <v>804.846</v>
       </c>
@@ -11226,6 +11994,10 @@
         <f>C2/P9</f>
         <v>2.5951237677125998</v>
       </c>
+      <c r="K9">
+        <f>S3/S9</f>
+        <v>4.7545121926292344</v>
+      </c>
       <c r="M9">
         <v>235.53</v>
       </c>
@@ -11238,8 +12010,14 @@
       <c r="Q9">
         <v>7</v>
       </c>
+      <c r="S9">
+        <v>19.569199999999999</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:20">
       <c r="E10">
         <v>743.67200000000003</v>
       </c>
@@ -11258,6 +12036,10 @@
         <f>C2/P10</f>
         <v>3.0498695160461859</v>
       </c>
+      <c r="K10">
+        <f>S3/S10</f>
+        <v>4.7281042762405674</v>
+      </c>
       <c r="M10">
         <v>328.86700000000002</v>
       </c>
@@ -11270,8 +12052,14 @@
       <c r="Q10">
         <v>8</v>
       </c>
+      <c r="S10">
+        <v>19.6785</v>
+      </c>
+      <c r="T10">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:20">
       <c r="E11">
         <v>591.63699999999994</v>
       </c>
@@ -11290,6 +12078,10 @@
         <f>C2/P11</f>
         <v>3.1156115879828321</v>
       </c>
+      <c r="K11">
+        <f>S3/S11</f>
+        <v>3.5814311559336387</v>
+      </c>
       <c r="M11">
         <v>195.29900000000001</v>
       </c>
@@ -11302,8 +12094,14 @@
       <c r="Q11">
         <v>9</v>
       </c>
+      <c r="S11">
+        <v>25.978999999999999</v>
+      </c>
+      <c r="T11">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:20">
       <c r="E12">
         <v>590.73199999999997</v>
       </c>
@@ -11322,6 +12120,10 @@
         <f>C2/P12</f>
         <v>3.4380858411445483</v>
       </c>
+      <c r="K12">
+        <f>S3/S12</f>
+        <v>3.8896181533908014</v>
+      </c>
       <c r="M12">
         <v>198.376</v>
       </c>
@@ -11334,8 +12136,14 @@
       <c r="Q12">
         <v>10</v>
       </c>
+      <c r="S12">
+        <v>23.9206</v>
+      </c>
+      <c r="T12">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:20">
       <c r="E13">
         <v>587.37</v>
       </c>
@@ -11354,6 +12162,10 @@
         <f>C2/P13</f>
         <v>3.5425512276167614</v>
       </c>
+      <c r="K13">
+        <f>S3/S13</f>
+        <v>3.9220662066290939</v>
+      </c>
       <c r="M13">
         <v>190.93</v>
       </c>
@@ -11366,8 +12178,14 @@
       <c r="Q13">
         <v>11</v>
       </c>
+      <c r="S13">
+        <v>23.7227</v>
+      </c>
+      <c r="T13">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:20">
       <c r="E14">
         <v>193.601</v>
       </c>
@@ -11386,6 +12204,10 @@
         <f>C2/P14</f>
         <v>8.7498182779356366</v>
       </c>
+      <c r="K14">
+        <f>S3/S14</f>
+        <v>3.9219504792736282</v>
+      </c>
       <c r="M14">
         <v>174.899</v>
       </c>
@@ -11396,6 +12218,12 @@
         <v>151.33000000000001</v>
       </c>
       <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <v>23.723400000000002</v>
+      </c>
+      <c r="T14">
         <v>12</v>
       </c>
     </row>
@@ -11404,7 +12232,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -11421,8 +12249,17 @@
       <c r="M37" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="R37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="V37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="W37" s="11"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -11453,8 +12290,26 @@
       <c r="O38" t="s">
         <v>31</v>
       </c>
+      <c r="P38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R38" t="s">
+        <v>63</v>
+      </c>
+      <c r="S38" t="s">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:23">
       <c r="A39">
         <v>0.30760900000000002</v>
       </c>
@@ -11491,8 +12346,29 @@
         <f t="shared" ref="O39:O50" si="2">A39/J39</f>
         <v>6.4424915544255228</v>
       </c>
+      <c r="P39">
+        <f t="shared" ref="P39:P50" si="3">V39/R39</f>
+        <v>3.9997600143991363</v>
+      </c>
+      <c r="R39" s="9">
+        <f t="shared" ref="R39:R50" si="4">S39/1000000</f>
+        <v>5.0002999999999999E-2</v>
+      </c>
+      <c r="S39">
+        <v>50003</v>
+      </c>
+      <c r="T39">
+        <v>400</v>
+      </c>
+      <c r="V39" s="10">
+        <f t="shared" ref="V39:V50" si="5">W39/1000000</f>
+        <v>0.2</v>
+      </c>
+      <c r="W39">
+        <v>200000</v>
+      </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>2.9791500000000002</v>
       </c>
@@ -11529,8 +12405,29 @@
         <f t="shared" si="2"/>
         <v>11.749614479024112</v>
       </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>5.1448818133281566</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="4"/>
+        <v>0.20602999999999999</v>
+      </c>
+      <c r="S40">
+        <v>206030</v>
+      </c>
+      <c r="T40">
+        <v>700</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="5"/>
+        <v>1.06</v>
+      </c>
+      <c r="W40" s="4">
+        <v>1060000</v>
+      </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>36.084400000000002</v>
       </c>
@@ -11567,8 +12464,29 @@
         <f t="shared" si="2"/>
         <v>0.8870326623221787</v>
       </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>6.0623446165614832</v>
+      </c>
+      <c r="R41" s="9">
+        <f t="shared" si="4"/>
+        <v>0.52290000000000003</v>
+      </c>
+      <c r="S41">
+        <v>522900</v>
+      </c>
+      <c r="T41">
+        <v>1000</v>
+      </c>
+      <c r="V41" s="10">
+        <f t="shared" si="5"/>
+        <v>3.17</v>
+      </c>
+      <c r="W41" s="4">
+        <v>3170000</v>
+      </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>81.837100000000007</v>
       </c>
@@ -11605,8 +12523,29 @@
         <f t="shared" si="2"/>
         <v>1.9125733249199561</v>
       </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>5.9467654986522902</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="4"/>
+        <v>1.1872</v>
+      </c>
+      <c r="S42" s="4">
+        <v>1187200</v>
+      </c>
+      <c r="T42">
+        <v>1300</v>
+      </c>
+      <c r="V42" s="10">
+        <f t="shared" si="5"/>
+        <v>7.06</v>
+      </c>
+      <c r="W42" s="4">
+        <v>7060000</v>
+      </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>154.524</v>
       </c>
@@ -11643,8 +12582,29 @@
         <f t="shared" si="2"/>
         <v>2.9710611674360745</v>
       </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>5.1089784401109828</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="4"/>
+        <v>2.54454</v>
+      </c>
+      <c r="S43" s="4">
+        <v>2544540</v>
+      </c>
+      <c r="T43">
+        <v>1600</v>
+      </c>
+      <c r="V43" s="10">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="W43" s="4">
+        <v>13000000</v>
+      </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>281.22899999999998</v>
       </c>
@@ -11681,8 +12641,29 @@
         <f t="shared" si="2"/>
         <v>2.2193995927837493</v>
       </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>4.8316846770199735</v>
+      </c>
+      <c r="R44" s="9">
+        <f t="shared" si="4"/>
+        <v>4.72506</v>
+      </c>
+      <c r="S44" s="4">
+        <v>4725060</v>
+      </c>
+      <c r="T44">
+        <v>1900</v>
+      </c>
+      <c r="V44" s="10">
+        <f t="shared" si="5"/>
+        <v>22.83</v>
+      </c>
+      <c r="W44" s="4">
+        <v>22830000</v>
+      </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>476.863</v>
       </c>
@@ -11719,8 +12700,29 @@
         <f t="shared" si="2"/>
         <v>2.8441755187489188</v>
       </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>4.4265105936952827</v>
+      </c>
+      <c r="R45" s="9">
+        <f t="shared" si="4"/>
+        <v>8.2525499999999994</v>
+      </c>
+      <c r="S45" s="4">
+        <v>8252550</v>
+      </c>
+      <c r="T45">
+        <v>2200</v>
+      </c>
+      <c r="V45" s="10">
+        <f t="shared" si="5"/>
+        <v>36.53</v>
+      </c>
+      <c r="W45" s="4">
+        <v>36530000</v>
+      </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>613.423</v>
       </c>
@@ -11757,8 +12759,29 @@
         <f t="shared" si="2"/>
         <v>2.7815600457076521</v>
       </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>4.5279994363120712</v>
+      </c>
+      <c r="R46" s="9">
+        <f t="shared" si="4"/>
+        <v>11.3538</v>
+      </c>
+      <c r="S46" s="4">
+        <v>11353800</v>
+      </c>
+      <c r="T46">
+        <v>2500</v>
+      </c>
+      <c r="V46" s="10">
+        <f t="shared" si="5"/>
+        <v>51.41</v>
+      </c>
+      <c r="W46" s="4">
+        <v>51410000</v>
+      </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>991.89099999999996</v>
       </c>
@@ -11795,8 +12818,29 @@
         <f t="shared" si="2"/>
         <v>4.3595580188202412</v>
       </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>5.3211708951771222</v>
+      </c>
+      <c r="R47" s="9">
+        <f t="shared" si="4"/>
+        <v>15.9946</v>
+      </c>
+      <c r="S47" s="4">
+        <v>15994600</v>
+      </c>
+      <c r="T47">
+        <v>2800</v>
+      </c>
+      <c r="V47" s="10">
+        <f t="shared" si="5"/>
+        <v>85.11</v>
+      </c>
+      <c r="W47" s="4">
+        <v>85110000</v>
+      </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:23">
       <c r="A48">
         <v>1286.3399999999999</v>
       </c>
@@ -11833,8 +12877,29 @@
         <f t="shared" si="2"/>
         <v>3.4990832975175583</v>
       </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>4.5241990963687408</v>
+      </c>
+      <c r="R48" s="9">
+        <f t="shared" si="4"/>
+        <v>21.513200000000001</v>
+      </c>
+      <c r="S48" s="4">
+        <v>21513200</v>
+      </c>
+      <c r="T48">
+        <v>3100</v>
+      </c>
+      <c r="V48" s="10">
+        <f t="shared" si="5"/>
+        <v>97.33</v>
+      </c>
+      <c r="W48" s="4">
+        <v>97330000</v>
+      </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:23">
       <c r="A49">
         <v>2146.7199999999998</v>
       </c>
@@ -11871,8 +12936,29 @@
         <f t="shared" si="2"/>
         <v>5.1440497842188622</v>
       </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>5.1231255240042586</v>
+      </c>
+      <c r="R49" s="9">
+        <f t="shared" si="4"/>
+        <v>28.267900000000001</v>
+      </c>
+      <c r="S49" s="4">
+        <v>28267900</v>
+      </c>
+      <c r="T49">
+        <v>3400</v>
+      </c>
+      <c r="V49" s="10">
+        <f t="shared" si="5"/>
+        <v>144.82</v>
+      </c>
+      <c r="W49" s="4">
+        <v>144820000</v>
+      </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:23">
       <c r="A50">
         <v>2525.9899999999998</v>
       </c>
@@ -11909,36 +12995,57 @@
         <f t="shared" si="2"/>
         <v>5.3275642431707348</v>
       </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>4.5126145845333516</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="4"/>
+        <v>36.457799999999999</v>
+      </c>
+      <c r="S50" s="4">
+        <v>36457800</v>
+      </c>
+      <c r="T50">
+        <v>3700</v>
+      </c>
+      <c r="V50" s="10">
+        <f t="shared" si="5"/>
+        <v>164.52</v>
+      </c>
+      <c r="W50" s="4">
+        <v>164520000</v>
+      </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:23">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:23">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:23">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:23">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:23">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:23">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:23">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:23">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
@@ -11957,8 +13064,11 @@
   <sortState ref="J56:K71">
     <sortCondition ref="K56:K71"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="R37:T37"/>
+    <mergeCell ref="V37:W37"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11972,11 +13082,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="V80" sqref="V80"/>
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="8" spans="1:26">
       <c r="B8" s="2" t="s">
@@ -11988,28 +13103,28 @@
       <c r="H8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17" t="s">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17" t="s">
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17" t="s">
+      <c r="T8" s="11"/>
+      <c r="U8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="V8" s="17"/>
+      <c r="V8" s="11"/>
       <c r="W8" s="3"/>
       <c r="X8" s="2" t="s">
         <v>54</v>
@@ -12056,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="N9" t="s">
         <v>1</v>
@@ -12088,11 +13203,11 @@
       <c r="W9" t="s">
         <v>17</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
     <row r="10" spans="1:26">
       <c r="A10">
@@ -12119,22 +13234,22 @@
         <f>LOG10(H10/1000)/LOG10(2)</f>
         <v>16.505594488388414</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="8">
         <v>93042000</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="K10">
-        <f>L10/1000</f>
-        <v>200</v>
+      <c r="K10" s="10">
+        <f t="shared" ref="K10:K21" si="0">L10/1000000</f>
+        <v>0.2</v>
       </c>
       <c r="L10">
         <v>200000</v>
       </c>
-      <c r="M10">
-        <f>N10/1000</f>
-        <v>50.003</v>
+      <c r="M10" s="9">
+        <f t="shared" ref="M10:M21" si="1">N10/1000000</f>
+        <v>5.0002999999999999E-2</v>
       </c>
       <c r="N10">
         <v>50003</v>
@@ -12171,7 +13286,7 @@
       </c>
       <c r="X10">
         <f>LOG10(M10)/LOG10(2)</f>
-        <v>5.6439427488804306</v>
+        <v>-4.3218415357816564</v>
       </c>
       <c r="Y10">
         <f>LOG10(S10)/LOG10(2)</f>
@@ -12184,7 +13299,7 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11">
-        <f t="shared" ref="A11:A21" si="0">LOG10(B11/1000)/LOG10(2)</f>
+        <f t="shared" ref="A11:A21" si="2">LOG10(B11/1000)/LOG10(2)</f>
         <v>7.7251617266764212</v>
       </c>
       <c r="B11">
@@ -12194,7 +13309,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D21" si="1">LOG10(E11/1000)/LOG10(2)</f>
+        <f t="shared" ref="D11:D21" si="3">LOG10(E11/1000)/LOG10(2)</f>
         <v>10.767083684626039</v>
       </c>
       <c r="E11" s="4">
@@ -12204,25 +13319,25 @@
         <v>2</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G21" si="2">LOG10(H11/1000)/LOG10(2)</f>
+        <f t="shared" ref="G11:G21" si="4">LOG10(H11/1000)/LOG10(2)</f>
         <v>15.504536601841174</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="8">
         <v>46486900</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
-      <c r="K11">
-        <f t="shared" ref="K11:K21" si="3">L11/1000</f>
-        <v>1060</v>
+      <c r="K11" s="10">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
       </c>
       <c r="L11" s="4">
         <v>1060000</v>
       </c>
-      <c r="M11">
-        <f t="shared" ref="M11:M21" si="4">N11/1000</f>
-        <v>206.03</v>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.20602999999999999</v>
       </c>
       <c r="N11">
         <v>206030</v>
@@ -12241,7 +13356,7 @@
         <v>700</v>
       </c>
       <c r="S11">
-        <f t="shared" ref="S11:U21" si="6">T11*1000</f>
+        <f t="shared" ref="S11:S21" si="6">T11*1000</f>
         <v>2824.11</v>
       </c>
       <c r="T11">
@@ -12259,7 +13374,7 @@
       </c>
       <c r="X11">
         <f t="shared" ref="X11:X21" si="8">LOG10(M11)/LOG10(2)</f>
-        <v>7.6867106131056175</v>
+        <v>-2.2790736715564694</v>
       </c>
       <c r="Y11">
         <f t="shared" ref="Y11:Y21" si="9">LOG10(S11)/LOG10(2)</f>
@@ -12272,7 +13387,7 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.1959872980285082</v>
       </c>
       <c r="B12">
@@ -12282,7 +13397,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.211827471381893</v>
       </c>
       <c r="E12" s="4">
@@ -12292,25 +13407,25 @@
         <v>3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.94498194640004</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="8">
         <v>31541900</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>3170</v>
+      <c r="K12" s="10">
+        <f t="shared" si="0"/>
+        <v>3.17</v>
       </c>
       <c r="L12" s="4">
         <v>3170000</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>522.9</v>
+      <c r="M12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.52290000000000003</v>
       </c>
       <c r="N12">
         <v>522900</v>
@@ -12347,7 +13462,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="8"/>
-        <v>9.0303912599594778</v>
+        <v>-0.93539302470260799</v>
       </c>
       <c r="Y12">
         <f t="shared" si="9"/>
@@ -12360,7 +13475,7 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7720703921766434</v>
       </c>
       <c r="B13">
@@ -12370,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.7095267226034832</v>
       </c>
       <c r="E13">
@@ -12380,25 +13495,25 @@
         <v>4</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.535275376620802</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="8">
         <v>23744000</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>7060</v>
+      <c r="K13" s="10">
+        <f t="shared" si="0"/>
+        <v>7.06</v>
       </c>
       <c r="L13" s="4">
         <v>7060000</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="4"/>
-        <v>1187.2</v>
+      <c r="M13" s="9">
+        <f t="shared" si="1"/>
+        <v>1.1872</v>
       </c>
       <c r="N13" s="4">
         <v>1187200</v>
@@ -12435,7 +13550,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="8"/>
-        <v>10.213347281733441</v>
+        <v>0.24756299707135393</v>
       </c>
       <c r="Y13">
         <f t="shared" si="9"/>
@@ -12448,7 +13563,7 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.5355242297732161</v>
       </c>
       <c r="B14">
@@ -12458,7 +13573,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.3845420217736173</v>
       </c>
       <c r="E14">
@@ -12468,25 +13583,25 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.278296991449205</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="8">
         <v>19869900</v>
       </c>
       <c r="I14">
         <v>5</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>13000</v>
+      <c r="K14" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="L14" s="4">
         <v>13000000</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="4"/>
-        <v>2544.54</v>
+      <c r="M14" s="9">
+        <f t="shared" si="1"/>
+        <v>2.54454</v>
       </c>
       <c r="N14" s="4">
         <v>2544540</v>
@@ -12523,7 +13638,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="8"/>
-        <v>11.313189155225794</v>
+        <v>1.3474048705637072</v>
       </c>
       <c r="Y14">
         <f t="shared" si="9"/>
@@ -12536,7 +13651,7 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.3569712909745801</v>
       </c>
       <c r="B15">
@@ -12546,7 +13661,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.180856480277841</v>
       </c>
       <c r="E15">
@@ -12556,25 +13671,25 @@
         <v>6</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.252606304392662</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="8">
         <v>19519200</v>
       </c>
       <c r="I15">
         <v>6</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>22830</v>
+      <c r="K15" s="10">
+        <f t="shared" si="0"/>
+        <v>22.83</v>
       </c>
       <c r="L15" s="4">
         <v>22830000</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="4"/>
-        <v>4725.0600000000004</v>
+      <c r="M15" s="9">
+        <f t="shared" si="1"/>
+        <v>4.72506</v>
       </c>
       <c r="N15" s="4">
         <v>4725060</v>
@@ -12611,7 +13726,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="8"/>
-        <v>12.206116933816508</v>
+        <v>2.2403326491544213</v>
       </c>
       <c r="Y15">
         <f t="shared" si="9"/>
@@ -12624,7 +13739,7 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.1994171517161503</v>
       </c>
       <c r="B16">
@@ -12634,7 +13749,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1232833746388415</v>
       </c>
       <c r="E16">
@@ -12644,25 +13759,25 @@
         <v>7</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.256297158527774</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="8">
         <v>19569200</v>
       </c>
       <c r="I16">
         <v>7</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>36530</v>
+      <c r="K16" s="10">
+        <f t="shared" si="0"/>
+        <v>36.53</v>
       </c>
       <c r="L16" s="4">
         <v>36530000</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="4"/>
-        <v>8252.5499999999993</v>
+      <c r="M16" s="9">
+        <f t="shared" si="1"/>
+        <v>8.2525499999999994</v>
       </c>
       <c r="N16" s="4">
         <v>8252550</v>
@@ -12699,7 +13814,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="8"/>
-        <v>13.010624259040952</v>
+        <v>3.0448399743788648</v>
       </c>
       <c r="Y16">
         <f t="shared" si="9"/>
@@ -12712,7 +13827,7 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.1414736645298218</v>
       </c>
       <c r="B17">
@@ -12722,7 +13837,7 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.9927599349738045</v>
       </c>
       <c r="E17">
@@ -12732,25 +13847,25 @@
         <v>8</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.264332634523518</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="8">
         <v>19678500</v>
       </c>
       <c r="I17">
         <v>8</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>51410</v>
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>51.41</v>
       </c>
       <c r="L17" s="4">
         <v>51410000</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="4"/>
-        <v>11353.8</v>
+      <c r="M17" s="9">
+        <f t="shared" si="1"/>
+        <v>11.3538</v>
       </c>
       <c r="N17" s="4">
         <v>11353800</v>
@@ -12787,7 +13902,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="8"/>
-        <v>13.47088761306812</v>
+        <v>3.505103328406034</v>
       </c>
       <c r="Y17">
         <f t="shared" si="9"/>
@@ -12800,7 +13915,7 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.9521937635650906</v>
       </c>
       <c r="B18">
@@ -12810,7 +13925,7 @@
         <v>9</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9130434748722998</v>
       </c>
       <c r="E18">
@@ -12820,25 +13935,25 @@
         <v>9</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.665058278279542</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="8">
         <v>25979000</v>
       </c>
       <c r="I18">
         <v>9</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>85110</v>
+      <c r="K18" s="10">
+        <f t="shared" si="0"/>
+        <v>85.11</v>
       </c>
       <c r="L18" s="4">
         <v>85110000</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="4"/>
-        <v>15994.6</v>
+      <c r="M18" s="9">
+        <f t="shared" si="1"/>
+        <v>15.9946</v>
       </c>
       <c r="N18" s="4">
         <v>15994600</v>
@@ -12875,7 +13990,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="8"/>
-        <v>13.965297292901303</v>
+        <v>3.9995130082392172</v>
       </c>
       <c r="Y18">
         <f t="shared" si="9"/>
@@ -12888,7 +14003,7 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7772618915645841</v>
       </c>
       <c r="B19">
@@ -12898,7 +14013,7 @@
         <v>10</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9859557546075077</v>
       </c>
       <c r="E19" s="4">
@@ -12908,25 +14023,25 @@
         <v>10</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.54596595663431</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="8">
         <v>23920600</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>97330</v>
+      <c r="K19" s="10">
+        <f t="shared" si="0"/>
+        <v>97.33</v>
       </c>
       <c r="L19" s="4">
         <v>97330000</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="4"/>
-        <v>21513.200000000001</v>
+      <c r="M19" s="9">
+        <f t="shared" si="1"/>
+        <v>21.513200000000001</v>
       </c>
       <c r="N19" s="4">
         <v>21513200</v>
@@ -12963,7 +14078,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="8"/>
-        <v>14.392934515224505</v>
+        <v>4.4271502305624173</v>
       </c>
       <c r="Y19">
         <f t="shared" si="9"/>
@@ -12976,7 +14091,7 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7713574089905615</v>
       </c>
       <c r="B20">
@@ -12986,7 +14101,7 @@
         <v>11</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.8976019617671263</v>
       </c>
       <c r="E20">
@@ -12996,25 +14111,25 @@
         <v>11</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.533980599169093</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="8">
         <v>23722700</v>
       </c>
       <c r="I20">
         <v>11</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>144820</v>
+      <c r="K20" s="10">
+        <f t="shared" si="0"/>
+        <v>144.82</v>
       </c>
       <c r="L20" s="4">
         <v>144820000</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="4"/>
-        <v>28267.9</v>
+      <c r="M20" s="9">
+        <f t="shared" si="1"/>
+        <v>28.267900000000001</v>
       </c>
       <c r="N20" s="4">
         <v>28267900</v>
@@ -13051,7 +14166,7 @@
       </c>
       <c r="X20">
         <f t="shared" si="8"/>
-        <v>14.786877090022443</v>
+        <v>4.8210928053603563</v>
       </c>
       <c r="Y20">
         <f t="shared" si="9"/>
@@ -13064,7 +14179,7 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.7231762676275233</v>
       </c>
       <c r="B21">
@@ -13074,7 +14189,7 @@
         <v>12</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.5310324420693817</v>
       </c>
       <c r="E21">
@@ -13084,25 +14199,25 @@
         <v>12</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.534023169012714</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="8">
         <v>23723400</v>
       </c>
       <c r="I21">
         <v>12</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>164520</v>
+      <c r="K21" s="10">
+        <f t="shared" si="0"/>
+        <v>164.52</v>
       </c>
       <c r="L21" s="4">
         <v>164520000</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="4"/>
-        <v>36457.800000000003</v>
+      <c r="M21" s="9">
+        <f t="shared" si="1"/>
+        <v>36.457799999999999</v>
       </c>
       <c r="N21" s="4">
         <v>36457800</v>
@@ -13139,7 +14254,7 @@
       </c>
       <c r="X21">
         <f t="shared" si="8"/>
-        <v>15.153939885938799</v>
+        <v>5.1881556012767138</v>
       </c>
       <c r="Y21">
         <f t="shared" si="9"/>
@@ -13151,20 +14266,20 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -13184,7 +14299,7 @@
     </row>
     <row r="26" spans="1:26">
       <c r="A26">
-        <f t="shared" ref="A26:A37" si="21">B11/1000</f>
+        <f t="shared" ref="A26:A36" si="21">B11/1000</f>
         <v>211.595</v>
       </c>
       <c r="B26" s="4">
@@ -13341,16 +14456,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="X9:Z9"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="M8:O8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="P8:R8"/>
     <mergeCell ref="U8:V8"/>
     <mergeCell ref="S8:T8"/>
-    <mergeCell ref="X9:Z9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13364,8 +14478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="M69" sqref="M68:M69"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13379,47 +14493,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="18">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="13"/>
       <c r="H2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="16" t="s">
         <v>42</v>
       </c>
       <c r="H3" t="s">
@@ -13433,28 +14547,28 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:14" ht="18">
       <c r="A5" s="5">
         <v>93.042000000000002</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <v>1329.52</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="17">
         <f t="shared" ref="E5:E16" si="0">B5/A5</f>
         <v>14.289460673674254</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:14" ht="18">
       <c r="A6" s="5">
@@ -13979,7 +15093,6 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="9860" yWindow="0" windowWidth="14800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
   <si>
     <t>Threads</t>
   </si>
@@ -215,6 +215,18 @@
   <si>
     <t>Time (s)</t>
   </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>FW-serial 3000 nodes</t>
+  </si>
+  <si>
+    <t>mflops</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
 </sst>
 </file>
 
@@ -349,8 +361,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="585">
+  <cellStyleXfs count="599">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -991,7 +1017,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="585">
+  <cellStyles count="599">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1284,6 +1310,13 @@
     <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1576,6 +1609,13 @@
     <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2016,11 +2056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1885819976"/>
-        <c:axId val="1885825496"/>
+        <c:axId val="2100144888"/>
+        <c:axId val="2099405672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1885819976"/>
+        <c:axId val="2100144888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -2051,13 +2091,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885825496"/>
+        <c:crossAx val="2099405672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1885825496"/>
+        <c:axId val="2099405672"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -2089,7 +2129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885819976"/>
+        <c:crossAx val="2100144888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2136,12 +2176,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 2 Threads</a:t>
+              <a:t>OMP 7 Threads</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2158,7 +2197,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$R$10:$R$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2203,45 +2242,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Q$10:$Q$21</c:f>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>109492.0</c:v>
+                  <c:v>50003.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600252.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.63254E6</c:v>
+                  <c:v>206030.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522900.0</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.71435E6</c:v>
+                  <c:v>1.1872E6</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>7.16933E6</c:v>
+                  <c:v>2.54454E6</c:v>
                 </c:pt>
                 <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.37744E7</c:v>
+                  <c:v>4.72506E6</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.41049E7</c:v>
+                  <c:v>8.25255E6</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.87276E7</c:v>
+                  <c:v>1.13538E7</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.14226E7</c:v>
+                  <c:v>1.59946E7</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.13324E7</c:v>
+                  <c:v>2.15132E7</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.91247E7</c:v>
+                  <c:v>2.82679E7</c:v>
                 </c:pt>
                 <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.28684E7</c:v>
+                  <c:v>3.64578E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2258,11 +2297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1885806888"/>
-        <c:axId val="1885895784"/>
+        <c:axId val="2100136584"/>
+        <c:axId val="2101903544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1885806888"/>
+        <c:axId val="2100136584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,14 +2323,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885895784"/>
+        <c:crossAx val="2101903544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2299,7 +2337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885895784"/>
+        <c:axId val="2101903544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,19 +2355,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in Micro Seconds (ms)</a:t>
+                  <a:t>Time in Micro Secdons (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885806888"/>
+        <c:crossAx val="2100136584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2371,17 +2408,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Floyd-Warshal</a:t>
+              <a:t>OMP 2 Threads</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs Serial</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2393,217 +2424,12 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Serial</c:v>
-          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>200000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.06E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.06E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.283E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.653E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.141E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.511E7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.733E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4482E8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6452E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>7 Threads</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$10:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50003.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206030.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>522900.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.1872E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.54454E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.72506E6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.25255E6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.13538E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.59946E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.15132E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.82679E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.64578E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2 Threads</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$R$10:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2703,11 +2529,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1885921688"/>
-        <c:axId val="1886062296"/>
+        <c:axId val="2100256840"/>
+        <c:axId val="2100262232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1885921688"/>
+        <c:axId val="2100256840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2720,28 +2546,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>#</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1886062296"/>
+        <c:crossAx val="2100262232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2749,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1886062296"/>
+        <c:axId val="2100262232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2763,66 +2583,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in Micro Seconds (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Spent on Computation (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885921688"/>
+        <c:crossAx val="2100256840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.202532320087896"/>
-          <c:y val="0.14370546147485"/>
-          <c:w val="0.132351400842337"/>
-          <c:h val="0.162086793945277"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2860,17 +2640,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FW</a:t>
+              <a:t>Floyd-Warshal</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP Time Performance</a:t>
+              <a:t> OMP vs Serial</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2883,105 +2662,97 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Serial</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$10:$A$21</c:f>
+              <c:f>Sheet3!$L$10:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8.710930383079816</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>200000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.725161726676421</c:v>
+                  <c:v>1.06E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.195987298028508</c:v>
+                  <c:v>3.17E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.772070392176643</c:v>
+                  <c:v>7.06E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.535524229773216</c:v>
+                  <c:v>1.3E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.35697129097458</c:v>
+                  <c:v>2.283E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.19941715171615</c:v>
+                  <c:v>3.653E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.141473664529821</c:v>
+                  <c:v>5.141E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.952193763565091</c:v>
+                  <c:v>8.511E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.777261891564584</c:v>
+                  <c:v>9.733E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.77135740899056</c:v>
+                  <c:v>1.4482E8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.723176267627523</c:v>
+                  <c:v>1.6452E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2992,105 +2763,97 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>7 Threads</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$10:$D$21</c:f>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11.89658595079915</c:v>
+                  <c:v>50003.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.76708368462604</c:v>
+                  <c:v>206030.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.21182747138189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.709526722603483</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.384542021773617</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.180856480277841</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.123283374638841</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.992759934973804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9130434748723</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.985955754607507</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.897601961767126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.531032442069381</c:v>
+                  <c:v>522900.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.1872E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.54454E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.72506E6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.25255E6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.13538E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.59946E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.15132E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.82679E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.64578E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,105 +2864,97 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2 Threads</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$10:$G$21</c:f>
+              <c:f>Sheet3!$Q$10:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.50559448838841</c:v>
+                  <c:v>109492.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.50453660184117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.94498194640004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.5352753766208</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.2782969914492</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.25260630439266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.25629715852777</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.26433263452352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66505827827954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.54596595663431</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.5339805991691</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.53402316901271</c:v>
+                  <c:v>600252.0</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1.63254E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3.71435E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7.16933E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>1.37744E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>2.41049E7</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>2.87276E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>4.14226E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>5.13324E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>7.91247E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>9.28684E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3216,11 +2971,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1877058248"/>
-        <c:axId val="1877062248"/>
+        <c:axId val="2099690056"/>
+        <c:axId val="2099695768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1877058248"/>
+        <c:axId val="2099690056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3241,19 +2996,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Threads</a:t>
+                  <a:t> of Nodes</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877062248"/>
+        <c:crossAx val="2099695768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3261,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1877062248"/>
+        <c:axId val="2099695768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,27 +3034,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> </a:t>
+                  <a:t> Spent on Computation (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2(ms)</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877058248"/>
+        <c:crossAx val="2099690056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3310,10 +3061,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.806410072028668"/>
-          <c:y val="0.0289878361478107"/>
-          <c:w val="0.171635685950215"/>
-          <c:h val="0.137963655164222"/>
+          <c:x val="0.202532320087896"/>
+          <c:y val="0.14370546147485"/>
+          <c:w val="0.132351400842337"/>
+          <c:h val="0.162086793945277"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3379,22 +3130,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs SS OMP vs SS MPI</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>(7 Threads/Processes)</a:t>
+              <a:t> OMP Time Performance</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3407,97 +3148,105 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>FW OMP</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$M$10:$M$21</c:f>
+              <c:f>Sheet3!$A$10:$A$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.050003</c:v>
+                  <c:v>8.710930383079816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20603</c:v>
+                  <c:v>7.725161726676421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5229</c:v>
+                  <c:v>7.195987298028508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1872</c:v>
+                  <c:v>6.772070392176643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.54454</c:v>
+                  <c:v>6.535524229773216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.72506</c:v>
+                  <c:v>6.35697129097458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.25255</c:v>
+                  <c:v>6.19941715171615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3538</c:v>
+                  <c:v>6.141473664529821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.9946</c:v>
+                  <c:v>6.952193763565091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.5132</c:v>
+                  <c:v>6.777261891564584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.2679</c:v>
+                  <c:v>6.77135740899056</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.4578</c:v>
+                  <c:v>6.723176267627523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3508,97 +3257,105 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>SS OMP</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$S$10:$S$21</c:f>
+              <c:f>Sheet3!$D$10:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1788.28</c:v>
+                  <c:v>11.89658595079915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2824.11</c:v>
+                  <c:v>10.76708368462604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15548.1</c:v>
+                  <c:v>10.21182747138189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22900.7</c:v>
+                  <c:v>9.709526722603483</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46275.6</c:v>
+                  <c:v>9.384542021773617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72423.3</c:v>
+                  <c:v>9.180856480277841</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120127.0</c:v>
+                  <c:v>9.123283374638841</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95634.5</c:v>
+                  <c:v>8.992759934973804</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150378.0</c:v>
+                  <c:v>9.9130434748723</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207447.0</c:v>
+                  <c:v>9.985955754607507</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>293656.0</c:v>
+                  <c:v>9.897601961767126</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401771.0</c:v>
+                  <c:v>9.531032442069381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,97 +3366,105 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>SS MPI</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$U$10:$U$21</c:f>
+              <c:f>Sheet3!$G$10:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>47.7469</c:v>
+                  <c:v>16.50559448838841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253.553</c:v>
+                  <c:v>15.50453660184117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40679.9</c:v>
+                  <c:v>14.94498194640004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42789.0</c:v>
+                  <c:v>14.5352753766208</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52009.7</c:v>
+                  <c:v>14.2782969914492</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126714.0</c:v>
+                  <c:v>14.25260630439266</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167663.0</c:v>
+                  <c:v>14.25629715852777</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220532.0</c:v>
+                  <c:v>14.26433263452352</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227521.0</c:v>
+                  <c:v>14.66505827827954</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>367622.0</c:v>
+                  <c:v>14.54596595663431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>417321.0</c:v>
+                  <c:v>14.5339805991691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>474136.0</c:v>
+                  <c:v>14.53402316901271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3716,11 +3481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1835466712"/>
-        <c:axId val="1855987720"/>
+        <c:axId val="2099733768"/>
+        <c:axId val="2099739368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1835466712"/>
+        <c:axId val="2099733768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,19 +3506,18 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
+                  <a:t> of Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1855987720"/>
+        <c:crossAx val="2099739368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3525,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1855987720"/>
+        <c:axId val="2099739368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,27 +3543,43 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation (ms)</a:t>
+                  <a:t>Time Spent on Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2(ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1835466712"/>
+        <c:crossAx val="2099733768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.806410072028668"/>
+          <c:y val="0.0289878361478107"/>
+          <c:w val="0.171635685950215"/>
+          <c:h val="0.137963655164222"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -3858,7 +3638,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FW OMP vs SS OMP vs SS MPI</a:t>
+              <a:t>FW</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OMP vs SS OMP vs SS MPI</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3866,18 +3650,13 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(7</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Threads/Processes)</a:t>
+              <a:t>(7 Threads/Processes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3897,7 +3676,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3942,45 +3721,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$X$10:$X$21</c:f>
+              <c:f>Sheet3!$M$10:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.321841535781656</c:v>
+                  <c:v>0.050003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.279073671556469</c:v>
+                  <c:v>0.20603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.935393024702608</c:v>
+                  <c:v>0.5229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.247562997071354</c:v>
+                  <c:v>1.1872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.347404870563707</c:v>
+                  <c:v>2.54454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.240332649154421</c:v>
+                  <c:v>4.72506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.044839974378865</c:v>
+                  <c:v>8.25255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.505103328406034</c:v>
+                  <c:v>11.3538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.999513008239217</c:v>
+                  <c:v>15.9946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.427150230562417</c:v>
+                  <c:v>21.5132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.821092805360356</c:v>
+                  <c:v>28.2679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.188155601276714</c:v>
+                  <c:v>36.4578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3998,7 +3777,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4043,45 +3822,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Y$10:$Y$21</c:f>
+              <c:f>Sheet3!$S$10:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.80435692889316</c:v>
+                  <c:v>1788.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.46358056780511</c:v>
+                  <c:v>2824.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.92445067128441</c:v>
+                  <c:v>15548.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.48310407704608</c:v>
+                  <c:v>22900.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.49796407545649</c:v>
+                  <c:v>46275.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.14416629490492</c:v>
+                  <c:v>72423.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.8742009251325</c:v>
+                  <c:v>120127.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.54524354168923</c:v>
+                  <c:v>95634.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.19823399349702</c:v>
+                  <c:v>150378.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.66238326822667</c:v>
+                  <c:v>207447.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.16376758981962</c:v>
+                  <c:v>293656.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.61601390793037</c:v>
+                  <c:v>401771.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,7 +3878,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4144,45 +3923,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Z$10:$Z$21</c:f>
+              <c:f>Sheet3!$U$10:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.577335163118284</c:v>
+                  <c:v>47.7469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.986143534025527</c:v>
+                  <c:v>253.553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.31202851229252</c:v>
+                  <c:v>40679.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.38495234241132</c:v>
+                  <c:v>42789.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.66649309581926</c:v>
+                  <c:v>52009.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.95121640392546</c:v>
+                  <c:v>126714.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.35520482341052</c:v>
+                  <c:v>167663.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.75062848573753</c:v>
+                  <c:v>220532.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.79564018545206</c:v>
+                  <c:v>227521.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.4878635804032</c:v>
+                  <c:v>367622.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.67079799468722</c:v>
+                  <c:v>417321.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.85494141200586</c:v>
+                  <c:v>474136.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4199,11 +3978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1877616584"/>
-        <c:axId val="1877438168"/>
+        <c:axId val="2102298696"/>
+        <c:axId val="2102319592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1877616584"/>
+        <c:axId val="2102298696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,23 +3995,26 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877438168"/>
+        <c:crossAx val="2102319592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4240,7 +4022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1877438168"/>
+        <c:axId val="2102319592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4254,35 +4036,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time Spent on Computation (ms)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Spent on Computation (LOG2(ms))</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877616584"/>
+        <c:crossAx val="2102298696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4342,12 +4117,491 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>FW OMP vs SS OMP vs SS MPI</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(7</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Threads/Processes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$X$10:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-4.321841535781656</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.279073671556469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.935393024702608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.247562997071354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.347404870563707</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.240332649154421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.044839974378865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.505103328406034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.999513008239217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.427150230562417</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.821092805360356</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.188155601276714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Y$10:$Y$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.80435692889316</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.46358056780511</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.92445067128441</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.48310407704608</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.49796407545649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.14416629490492</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.8742009251325</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.54524354168923</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.19823399349702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.66238326822667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.16376758981962</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.61601390793037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$Z$10:$Z$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.577335163118284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.986143534025527</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.31202851229252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.38495234241132</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.66649309581926</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.95121640392546</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.35520482341052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.75062848573753</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.79564018545206</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.4878635804032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.67079799468722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.85494141200586</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2102357512"/>
+        <c:axId val="2102362184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2102357512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102362184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102362184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on Computation (LOG2(ms))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102357512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Logarithmic FW OMP Time Performance</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4693,11 +4947,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1880271016"/>
-        <c:axId val="1879518888"/>
+        <c:axId val="2101841592"/>
+        <c:axId val="2101836072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1880271016"/>
+        <c:axId val="2101841592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4719,14 +4973,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1879518888"/>
+        <c:crossAx val="2101836072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4734,7 +4987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1879518888"/>
+        <c:axId val="2101836072"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4758,14 +5011,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880271016"/>
+        <c:crossAx val="2101841592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4816,7 +5068,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5085,11 +5337,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1877622696"/>
-        <c:axId val="1877628168"/>
+        <c:axId val="2101784936"/>
+        <c:axId val="2101779384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1877622696"/>
+        <c:axId val="2101784936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5117,7 +5369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877628168"/>
+        <c:crossAx val="2101779384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5125,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1877628168"/>
+        <c:axId val="2101779384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5154,7 +5406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877622696"/>
+        <c:crossAx val="2101784936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5169,464 +5421,6 @@
           <c:y val="0.166815617767129"/>
           <c:w val="0.22703220770873"/>
           <c:h val="0.112352528650942"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$L$6:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.001057886547243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.560612541988378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.970319111767614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.227297496939211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.252988183995755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.249297329860641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.241261853864897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.840536210108874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.959628531754107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.971613889219323</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.971571319375702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$M$6:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.974414651458994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.630871012514402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.270934929562347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.673889445317318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.565674074425641</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.455193713641876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.222249538954344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.191481670430605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.04939149340943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.006208343860805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.701744005069644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$N$6:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.956272599132825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.703325688285586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.66030616767476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.264617717427528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.090464203023595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.339956816989293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.821550234948626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.069730548182805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.092283481655315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.03708979099445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.910568026599183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1880785368"/>
-        <c:axId val="1877697896"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1880785368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1877697896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1877697896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (Speedup)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1880785368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.800511299723898"/>
-          <c:y val="0.771378371092043"/>
-          <c:w val="0.15310651103677"/>
-          <c:h val="0.176487649787578"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5688,6 +5482,464 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$6:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.001057886547243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.560612541988378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.970319111767614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.227297496939211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.252988183995755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.249297329860641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.241261853864897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.840536210108874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.959628531754107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.971613889219323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.971571319375702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$6:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.974414651458994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.630871012514402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.270934929562347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.673889445317318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.565674074425641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.455193713641876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.222249538954344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.191481670430605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.04939149340943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.006208343860805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.701744005069644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$6:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.956272599132825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.703325688285586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.66030616767476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.264617717427528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.090464203023595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.339956816989293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.821550234948626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.069730548182805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.092283481655315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.03708979099445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.910568026599183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2101740184"/>
+        <c:axId val="2101734632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2101740184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101734632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2101734632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (Speedup)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101740184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.800511299723898"/>
+          <c:y val="0.771378371092043"/>
+          <c:w val="0.15310651103677"/>
+          <c:h val="0.176487649787578"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Speedup</a:t>
             </a:r>
             <a:r>
@@ -6001,11 +6253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1856614104"/>
-        <c:axId val="1856982568"/>
+        <c:axId val="2101696936"/>
+        <c:axId val="2101691384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1856614104"/>
+        <c:axId val="2101696936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,7 +6285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856982568"/>
+        <c:crossAx val="2101691384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6041,7 +6293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1856982568"/>
+        <c:axId val="2101691384"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6071,7 +6323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1856614104"/>
+        <c:crossAx val="2101696936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6584,11 +6836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110291416"/>
-        <c:axId val="111089224"/>
+        <c:axId val="2099649096"/>
+        <c:axId val="2099654616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110291416"/>
+        <c:axId val="2099649096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6617,12 +6869,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111089224"/>
+        <c:crossAx val="2099654616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111089224"/>
+        <c:axId val="2099654616"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6659,7 +6911,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110291416"/>
+        <c:crossAx val="2099649096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7020,11 +7272,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1886139384"/>
-        <c:axId val="1885638072"/>
+        <c:axId val="2099583560"/>
+        <c:axId val="2099589272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1886139384"/>
+        <c:axId val="2099583560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7058,7 +7310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885638072"/>
+        <c:crossAx val="2099589272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7066,7 +7318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885638072"/>
+        <c:axId val="2099589272"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7102,7 +7354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1886139384"/>
+        <c:crossAx val="2099583560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7690,7 +7942,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>0.49891446873455</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.001467079973068</c:v>
@@ -7738,11 +7990,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110250408"/>
-        <c:axId val="110256088"/>
+        <c:axId val="2101876264"/>
+        <c:axId val="2101881944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110250408"/>
+        <c:axId val="2101876264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -7773,12 +8025,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110256088"/>
+        <c:crossAx val="2101881944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110256088"/>
+        <c:axId val="2101881944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -7809,7 +8061,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110250408"/>
+        <c:crossAx val="2101876264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8238,40 +8490,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.999760014399136</c:v>
+                  <c:v>2.199868007919525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.144881813328157</c:v>
+                  <c:v>2.718050769305441</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.062344616561483</c:v>
+                  <c:v>3.327596098680435</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.94676549865229</c:v>
+                  <c:v>3.352425876010781</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.108978440110983</c:v>
+                  <c:v>2.8806778435395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.831684677019973</c:v>
+                  <c:v>2.571395918781984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.426510593695283</c:v>
+                  <c:v>2.259907543728908</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.527999436312071</c:v>
+                  <c:v>2.39215064559883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.321170895177122</c:v>
+                  <c:v>2.367674090005376</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.524199096368741</c:v>
+                  <c:v>2.377610025472733</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.123125524004259</c:v>
+                  <c:v>2.376901007856969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.512614584533352</c:v>
+                  <c:v>2.365200313787448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8286,11 +8538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="110162984"/>
-        <c:axId val="110168808"/>
+        <c:axId val="2099425576"/>
+        <c:axId val="2099431416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110162984"/>
+        <c:axId val="2099425576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8324,12 +8576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110168808"/>
+        <c:crossAx val="2099431416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110168808"/>
+        <c:axId val="2099431416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8359,7 +8611,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110162984"/>
+        <c:crossAx val="2099425576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8396,86 +8648,93 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OMP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 500 Nodes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
+          <c:tx>
+            <c:v>Floyd Warshall</c:v>
+          </c:tx>
+          <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$B$10:$B$21</c:f>
+              <c:f>Sheet2!$D$74:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>419036.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211595.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146625.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109294.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92766.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81967.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73487.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70594.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123828.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109688.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109240.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>105652.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$74:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1276.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1161.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1124.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1137.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1143.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1002.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1159.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1170.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1142.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -8486,13 +8745,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="110137304"/>
-        <c:axId val="110143032"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="110137304"/>
+        <c:axId val="2114908584"/>
+        <c:axId val="2112023496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2114908584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8509,31 +8766,24 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
+                  <a:t>Nodes</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110143032"/>
+        <c:crossAx val="2112023496"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="110143032"/>
+        <c:axId val="2112023496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8551,13 +8801,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>MFLOPS</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Micro Seconds (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8568,11 +8813,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110137304"/>
+        <c:crossAx val="2114908584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -8614,13 +8864,12 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 1000 Nodes</a:t>
+              <a:t> 500 Nodes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8637,45 +8886,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$10:$E$21</c:f>
+              <c:f>Sheet3!$B$10:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.81267E6</c:v>
+                  <c:v>419036.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.74267E6</c:v>
+                  <c:v>211595.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18595E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>837257.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>668388.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>580381.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>557676.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>509437.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>964103.0</c:v>
+                  <c:v>146625.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109294.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92766.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81967.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73487.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70594.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123828.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.01408E6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>953839.0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>739821.0</c:v>
+                  <c:v>109688.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109240.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105652.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8692,11 +8941,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110211336"/>
-        <c:axId val="110145336"/>
+        <c:axId val="2099471112"/>
+        <c:axId val="2099476856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110211336"/>
+        <c:axId val="2099471112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8713,18 +8962,22 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Threads</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110145336"/>
+        <c:crossAx val="2099476856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8732,7 +8985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110145336"/>
+        <c:axId val="2099476856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8760,14 +9013,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110211336"/>
+        <c:crossAx val="2099471112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8809,12 +9061,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 3000 Nodes</a:t>
+              <a:t>OMP</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8831,45 +9087,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$10:$H$21</c:f>
+              <c:f>Sheet3!$E$10:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.3042E7</c:v>
+                  <c:v>3.81267E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.64869E7</c:v>
+                  <c:v>1.74267E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.15419E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3744E7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.98699E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.95192E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.95692E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.96785E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5979E7</c:v>
+                  <c:v>1.18595E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>837257.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>668388.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>580381.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>557676.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>509437.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>964103.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.39206E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.37227E7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.37234E7</c:v>
+                  <c:v>1.01408E6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>953839.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>739821.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8886,11 +9142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110193448"/>
-        <c:axId val="110292088"/>
+        <c:axId val="2099505176"/>
+        <c:axId val="2099510616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="110193448"/>
+        <c:axId val="2099505176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8907,23 +9163,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
+                  <a:t># of Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110292088"/>
+        <c:crossAx val="2099510616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8931,7 +9181,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110292088"/>
+        <c:axId val="2099510616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8959,14 +9209,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110193448"/>
+        <c:crossAx val="2099505176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9008,12 +9257,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 7 Threads</a:t>
+              <a:t>OMP 3000 Nodes</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9028,92 +9276,47 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$H$10:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>9.3042E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>4.64869E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.15419E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>2.3744E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1.98699E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1.95192E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>1.95692E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>1.96785E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2.5979E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>2.39206E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>2.37227E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$10:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50003.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206030.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>522900.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.1872E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.54454E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.72506E6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.25255E6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.13538E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.59946E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.15132E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.82679E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.64578E7</c:v>
+                  <c:v>2.37234E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9130,11 +9333,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1885772952"/>
-        <c:axId val="1885778344"/>
+        <c:axId val="2099537928"/>
+        <c:axId val="2099543688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1885772952"/>
+        <c:axId val="2099537928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9151,19 +9354,22 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885778344"/>
+        <c:crossAx val="2099543688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9171,7 +9377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1885778344"/>
+        <c:axId val="2099543688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9189,19 +9395,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in Micro Secdons (ms)</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Micro Seconds (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1885772952"/>
+        <c:crossAx val="2099537928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9370,6 +9580,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10104,7 +10344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -11645,18 +11885,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W67"/>
+  <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C54" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -11675,8 +11916,11 @@
       <c r="S1" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="V1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11722,8 +11966,11 @@
       <c r="T2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="E3">
         <v>1218.22</v>
       </c>
@@ -11743,8 +11990,8 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f>S3/S3</f>
-        <v>1</v>
+        <f>V3/S3</f>
+        <v>0.49891446873454998</v>
       </c>
       <c r="M3">
         <v>1214.68</v>
@@ -11764,8 +12011,11 @@
       <c r="T3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="V3">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="E4">
         <v>848.76099999999997</v>
       </c>
@@ -11806,8 +12056,11 @@
       <c r="T4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="V4">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="E5">
         <v>600.11599999999999</v>
       </c>
@@ -11848,8 +12101,11 @@
       <c r="T5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="V5">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="E6">
         <v>550.18200000000002</v>
       </c>
@@ -11890,8 +12146,11 @@
       <c r="T6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="V6">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="E7">
         <v>814.97900000000004</v>
       </c>
@@ -11932,8 +12191,11 @@
       <c r="T7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="E8">
         <v>798.77</v>
       </c>
@@ -11974,8 +12236,11 @@
       <c r="T8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V8">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="E9">
         <v>804.846</v>
       </c>
@@ -12016,8 +12281,11 @@
       <c r="T9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="E10">
         <v>743.67200000000003</v>
       </c>
@@ -12058,8 +12326,11 @@
       <c r="T10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="V10">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="E11">
         <v>591.63699999999994</v>
       </c>
@@ -12100,8 +12371,11 @@
       <c r="T11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="V11">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="E12">
         <v>590.73199999999997</v>
       </c>
@@ -12142,8 +12416,11 @@
       <c r="T12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="E13">
         <v>587.37</v>
       </c>
@@ -12184,8 +12461,11 @@
       <c r="T13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13">
+        <v>46.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="E14">
         <v>193.601</v>
       </c>
@@ -12225,6 +12505,9 @@
       </c>
       <c r="T14">
         <v>12</v>
+      </c>
+      <c r="V14">
+        <v>46.42</v>
       </c>
     </row>
     <row r="31" spans="4:4">
@@ -12302,9 +12585,6 @@
       <c r="T38" t="s">
         <v>6</v>
       </c>
-      <c r="V38" t="s">
-        <v>46</v>
-      </c>
       <c r="W38" t="s">
         <v>1</v>
       </c>
@@ -12347,11 +12627,11 @@
         <v>6.4424915544255228</v>
       </c>
       <c r="P39">
-        <f t="shared" ref="P39:P50" si="3">V39/R39</f>
-        <v>3.9997600143991363</v>
+        <f>W39/R39</f>
+        <v>2.199868007919525</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" ref="R39:R50" si="4">S39/1000000</f>
+        <f t="shared" ref="R39:R50" si="3">S39/1000000</f>
         <v>5.0002999999999999E-2</v>
       </c>
       <c r="S39">
@@ -12360,12 +12640,8 @@
       <c r="T39">
         <v>400</v>
       </c>
-      <c r="V39" s="10">
-        <f t="shared" ref="V39:V50" si="5">W39/1000000</f>
-        <v>0.2</v>
-      </c>
       <c r="W39">
-        <v>200000</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -12406,11 +12682,11 @@
         <v>11.749614479024112</v>
       </c>
       <c r="P40">
+        <f>W40/R40</f>
+        <v>2.7180507693054414</v>
+      </c>
+      <c r="R40" s="9">
         <f t="shared" si="3"/>
-        <v>5.1448818133281566</v>
-      </c>
-      <c r="R40" s="9">
-        <f t="shared" si="4"/>
         <v>0.20602999999999999</v>
       </c>
       <c r="S40">
@@ -12419,12 +12695,8 @@
       <c r="T40">
         <v>700</v>
       </c>
-      <c r="V40" s="10">
-        <f t="shared" si="5"/>
-        <v>1.06</v>
-      </c>
-      <c r="W40" s="4">
-        <v>1060000</v>
+      <c r="W40">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -12465,11 +12737,11 @@
         <v>0.8870326623221787</v>
       </c>
       <c r="P41">
+        <f>W41/R41</f>
+        <v>3.3275960986804356</v>
+      </c>
+      <c r="R41" s="9">
         <f t="shared" si="3"/>
-        <v>6.0623446165614832</v>
-      </c>
-      <c r="R41" s="9">
-        <f t="shared" si="4"/>
         <v>0.52290000000000003</v>
       </c>
       <c r="S41">
@@ -12478,12 +12750,8 @@
       <c r="T41">
         <v>1000</v>
       </c>
-      <c r="V41" s="10">
-        <f t="shared" si="5"/>
-        <v>3.17</v>
-      </c>
-      <c r="W41" s="4">
-        <v>3170000</v>
+      <c r="W41">
+        <v>1.74</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -12524,11 +12792,11 @@
         <v>1.9125733249199561</v>
       </c>
       <c r="P42">
+        <f>W42/R42</f>
+        <v>3.3524258760107815</v>
+      </c>
+      <c r="R42" s="9">
         <f t="shared" si="3"/>
-        <v>5.9467654986522902</v>
-      </c>
-      <c r="R42" s="9">
-        <f t="shared" si="4"/>
         <v>1.1872</v>
       </c>
       <c r="S42" s="4">
@@ -12537,12 +12805,8 @@
       <c r="T42">
         <v>1300</v>
       </c>
-      <c r="V42" s="10">
-        <f t="shared" si="5"/>
-        <v>7.06</v>
-      </c>
-      <c r="W42" s="4">
-        <v>7060000</v>
+      <c r="W42">
+        <v>3.98</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -12583,11 +12847,11 @@
         <v>2.9710611674360745</v>
       </c>
       <c r="P43">
+        <f>W43/R43</f>
+        <v>2.8806778435395004</v>
+      </c>
+      <c r="R43" s="9">
         <f t="shared" si="3"/>
-        <v>5.1089784401109828</v>
-      </c>
-      <c r="R43" s="9">
-        <f t="shared" si="4"/>
         <v>2.54454</v>
       </c>
       <c r="S43" s="4">
@@ -12596,12 +12860,8 @@
       <c r="T43">
         <v>1600</v>
       </c>
-      <c r="V43" s="10">
-        <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="W43" s="4">
-        <v>13000000</v>
+      <c r="W43">
+        <v>7.33</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -12642,11 +12902,11 @@
         <v>2.2193995927837493</v>
       </c>
       <c r="P44">
+        <f>W44/R44</f>
+        <v>2.5713959187819837</v>
+      </c>
+      <c r="R44" s="9">
         <f t="shared" si="3"/>
-        <v>4.8316846770199735</v>
-      </c>
-      <c r="R44" s="9">
-        <f t="shared" si="4"/>
         <v>4.72506</v>
       </c>
       <c r="S44" s="4">
@@ -12655,12 +12915,8 @@
       <c r="T44">
         <v>1900</v>
       </c>
-      <c r="V44" s="10">
-        <f t="shared" si="5"/>
-        <v>22.83</v>
-      </c>
-      <c r="W44" s="4">
-        <v>22830000</v>
+      <c r="W44">
+        <v>12.15</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -12701,11 +12957,11 @@
         <v>2.8441755187489188</v>
       </c>
       <c r="P45">
+        <f>W45/R45</f>
+        <v>2.2599075437289082</v>
+      </c>
+      <c r="R45" s="9">
         <f t="shared" si="3"/>
-        <v>4.4265105936952827</v>
-      </c>
-      <c r="R45" s="9">
-        <f t="shared" si="4"/>
         <v>8.2525499999999994</v>
       </c>
       <c r="S45" s="4">
@@ -12714,12 +12970,8 @@
       <c r="T45">
         <v>2200</v>
       </c>
-      <c r="V45" s="10">
-        <f t="shared" si="5"/>
-        <v>36.53</v>
-      </c>
-      <c r="W45" s="4">
-        <v>36530000</v>
+      <c r="W45">
+        <v>18.649999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -12760,11 +13012,11 @@
         <v>2.7815600457076521</v>
       </c>
       <c r="P46">
+        <f>W46/R46</f>
+        <v>2.3921506455988304</v>
+      </c>
+      <c r="R46" s="9">
         <f t="shared" si="3"/>
-        <v>4.5279994363120712</v>
-      </c>
-      <c r="R46" s="9">
-        <f t="shared" si="4"/>
         <v>11.3538</v>
       </c>
       <c r="S46" s="4">
@@ -12773,12 +13025,8 @@
       <c r="T46">
         <v>2500</v>
       </c>
-      <c r="V46" s="10">
-        <f t="shared" si="5"/>
-        <v>51.41</v>
-      </c>
-      <c r="W46" s="4">
-        <v>51410000</v>
+      <c r="W46">
+        <v>27.16</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -12819,11 +13067,11 @@
         <v>4.3595580188202412</v>
       </c>
       <c r="P47">
+        <f>W47/R47</f>
+        <v>2.3676740900053765</v>
+      </c>
+      <c r="R47" s="9">
         <f t="shared" si="3"/>
-        <v>5.3211708951771222</v>
-      </c>
-      <c r="R47" s="9">
-        <f t="shared" si="4"/>
         <v>15.9946</v>
       </c>
       <c r="S47" s="4">
@@ -12832,12 +13080,8 @@
       <c r="T47">
         <v>2800</v>
       </c>
-      <c r="V47" s="10">
-        <f t="shared" si="5"/>
-        <v>85.11</v>
-      </c>
-      <c r="W47" s="4">
-        <v>85110000</v>
+      <c r="W47">
+        <v>37.869999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -12878,11 +13122,11 @@
         <v>3.4990832975175583</v>
       </c>
       <c r="P48">
+        <f>W48/R48</f>
+        <v>2.377610025472733</v>
+      </c>
+      <c r="R48" s="9">
         <f t="shared" si="3"/>
-        <v>4.5241990963687408</v>
-      </c>
-      <c r="R48" s="9">
-        <f t="shared" si="4"/>
         <v>21.513200000000001</v>
       </c>
       <c r="S48" s="4">
@@ -12891,12 +13135,8 @@
       <c r="T48">
         <v>3100</v>
       </c>
-      <c r="V48" s="10">
-        <f t="shared" si="5"/>
-        <v>97.33</v>
-      </c>
-      <c r="W48" s="4">
-        <v>97330000</v>
+      <c r="W48">
+        <v>51.15</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -12937,11 +13177,11 @@
         <v>5.1440497842188622</v>
       </c>
       <c r="P49">
+        <f>W49/R49</f>
+        <v>2.3769010078569686</v>
+      </c>
+      <c r="R49" s="9">
         <f t="shared" si="3"/>
-        <v>5.1231255240042586</v>
-      </c>
-      <c r="R49" s="9">
-        <f t="shared" si="4"/>
         <v>28.267900000000001</v>
       </c>
       <c r="S49" s="4">
@@ -12950,12 +13190,8 @@
       <c r="T49">
         <v>3400</v>
       </c>
-      <c r="V49" s="10">
-        <f t="shared" si="5"/>
-        <v>144.82</v>
-      </c>
-      <c r="W49" s="4">
-        <v>144820000</v>
+      <c r="W49">
+        <v>67.19</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -12996,11 +13232,11 @@
         <v>5.3275642431707348</v>
       </c>
       <c r="P50">
+        <f>W50/R50</f>
+        <v>2.3652003137874478</v>
+      </c>
+      <c r="R50" s="9">
         <f t="shared" si="3"/>
-        <v>4.5126145845333516</v>
-      </c>
-      <c r="R50" s="9">
-        <f t="shared" si="4"/>
         <v>36.457799999999999</v>
       </c>
       <c r="S50" s="4">
@@ -13009,12 +13245,8 @@
       <c r="T50">
         <v>3700</v>
       </c>
-      <c r="V50" s="10">
-        <f t="shared" si="5"/>
-        <v>164.52</v>
-      </c>
-      <c r="W50" s="4">
-        <v>164520000</v>
+      <c r="W50">
+        <v>86.23</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -13049,16 +13281,96 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="6:7">
+    <row r="65" spans="3:7">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="6:7">
+    <row r="66" spans="3:7">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="6:7">
+    <row r="67" spans="3:7">
       <c r="G67" s="1"/>
+    </row>
+    <row r="73" spans="3:7">
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7">
+      <c r="C74">
+        <v>1276.28</v>
+      </c>
+      <c r="D74">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7">
+      <c r="C75">
+        <v>1161.0999999999999</v>
+      </c>
+      <c r="D75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76">
+        <v>1124.5</v>
+      </c>
+      <c r="D76">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77">
+        <v>1137.3800000000001</v>
+      </c>
+      <c r="D77">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7">
+      <c r="C78">
+        <v>1143.6400000000001</v>
+      </c>
+      <c r="D78">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="79" spans="3:7">
+      <c r="C79">
+        <v>1002.75</v>
+      </c>
+      <c r="D79">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80">
+        <v>1159.02</v>
+      </c>
+      <c r="D80">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81">
+        <v>1170.6199999999999</v>
+      </c>
+      <c r="D81">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82">
+        <v>1142.46</v>
+      </c>
+      <c r="D82">
+        <v>3100</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="J56:K71">
@@ -13069,6 +13381,7 @@
     <mergeCell ref="V37:W37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="0" windowWidth="14800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9860" yWindow="0" windowWidth="14800" windowHeight="17480" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1947,107 +1947,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Floyd Warshall (OMP)</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$P$58:$P$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$O$58:$O$69</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>93.042</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>46.4869</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31.5419</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.8699</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19.5192</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19.5692</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.6785</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25.979</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.9206</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23.7227</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23.7234</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2056,11 +1955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2100144888"/>
-        <c:axId val="2099405672"/>
+        <c:axId val="2116786472"/>
+        <c:axId val="2114685480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2100144888"/>
+        <c:axId val="2116786472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -2091,15 +1990,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099405672"/>
+        <c:crossAx val="2114685480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099405672"/>
+        <c:axId val="2114685480"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
         </c:scaling>
@@ -2129,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100144888"/>
+        <c:crossAx val="2116786472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2176,11 +2074,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 7 Threads</a:t>
+              <a:t>OMP 3000 Nodes</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2195,92 +2094,47 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$H$10:$H$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>9.3042E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>4.64869E7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.15419E7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>2.3744E7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1.98699E7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1.95192E7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>1.95692E7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>1.96785E7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2.5979E7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>2.39206E7</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>2.37227E7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$10:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50003.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206030.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>522900.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.1872E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.54454E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.72506E6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.25255E6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.13538E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.59946E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.15132E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.82679E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.64578E7</c:v>
+                  <c:v>2.37234E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2297,11 +2151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100136584"/>
-        <c:axId val="2101903544"/>
+        <c:axId val="2114254696"/>
+        <c:axId val="2110251832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100136584"/>
+        <c:axId val="2114254696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,18 +2172,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101903544"/>
+        <c:crossAx val="2110251832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2337,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101903544"/>
+        <c:axId val="2110251832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,20 +2214,29 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time in Micro Secdons (ms)</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100136584"/>
+        <c:crossAx val="2114254696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2408,11 +2276,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 2 Threads</a:t>
+              <a:t>Floyd-Warshal</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OMP vs Serial</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2424,12 +2298,217 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Serial</c:v>
+          </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$R$10:$R$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$L$10:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>200000.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.06E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.06E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.283E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.653E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.141E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.511E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.733E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4482E8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6452E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>7 Threads</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>50003.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>206030.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>522900.0</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1.1872E6</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2.54454E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4.72506E6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8.25255E6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.13538E7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.59946E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>2.15132E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>2.82679E7</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>3.64578E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>2 Threads</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2529,11 +2608,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100256840"/>
-        <c:axId val="2100262232"/>
+        <c:axId val="2108105688"/>
+        <c:axId val="2108111352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100256840"/>
+        <c:axId val="2108105688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2546,22 +2625,28 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> of Nodes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100262232"/>
+        <c:crossAx val="2108111352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100262232"/>
+        <c:axId val="2108111352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,26 +2668,72 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time in Micro Seconds (ms)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> Spent on Computation (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100256840"/>
+        <c:crossAx val="2108105688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="hundreds"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.202532320087896"/>
+          <c:y val="0.14370546147485"/>
+          <c:w val="0.132351400842337"/>
+          <c:h val="0.162086793945277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2640,16 +2771,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Floyd-Warshal</a:t>
+              <a:t>FW</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs Serial</a:t>
+              <a:t> OMP Time Performance</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2662,97 +2794,105 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Serial</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$L$10:$L$21</c:f>
+              <c:f>Sheet3!$A$10:$A$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>200000.0</c:v>
+                <c:pt idx="0">
+                  <c:v>8.710930383079816</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.06E6</c:v>
+                  <c:v>7.725161726676421</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.17E6</c:v>
+                  <c:v>7.195987298028508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.06E6</c:v>
+                  <c:v>6.772070392176643</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3E7</c:v>
+                  <c:v>6.535524229773216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.283E7</c:v>
+                  <c:v>6.35697129097458</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.653E7</c:v>
+                  <c:v>6.19941715171615</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.141E7</c:v>
+                  <c:v>6.141473664529821</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.511E7</c:v>
+                  <c:v>6.952193763565091</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.733E7</c:v>
+                  <c:v>6.777261891564584</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4482E8</c:v>
+                  <c:v>6.77135740899056</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6452E8</c:v>
+                  <c:v>6.723176267627523</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2763,97 +2903,105 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>7 Threads</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$N$10:$N$21</c:f>
+              <c:f>Sheet3!$D$10:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>50003.0</c:v>
+                  <c:v>11.89658595079915</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>206030.0</c:v>
+                  <c:v>10.76708368462604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>522900.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.1872E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.54454E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.72506E6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.25255E6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.13538E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.59946E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.15132E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.82679E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.64578E7</c:v>
+                  <c:v>10.21182747138189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.709526722603483</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.384542021773617</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.180856480277841</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.123283374638841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.992759934973804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9130434748723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.985955754607507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.897601961767126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.531032442069381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,97 +3012,105 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2 Threads</c:v>
+            <c:strRef>
+              <c:f>Sheet3!$H$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3000 Nodes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$Q$10:$Q$21</c:f>
+              <c:f>Sheet3!$G$10:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>109492.0</c:v>
+                  <c:v>16.50559448838841</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600252.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.63254E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.71435E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>7.16933E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.37744E7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.41049E7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.87276E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.14226E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.13324E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.91247E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.28684E7</c:v>
+                  <c:v>15.50453660184117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.94498194640004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.5352753766208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.2782969914492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.25260630439266</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.25629715852777</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.26433263452352</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.66505827827954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.54596595663431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.5339805991691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.53402316901271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2971,11 +3127,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099690056"/>
-        <c:axId val="2099695768"/>
+        <c:axId val="2109984376"/>
+        <c:axId val="2110183736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099690056"/>
+        <c:axId val="2109984376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,19 +3152,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
+                  <a:t> of Threads</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099695768"/>
+        <c:crossAx val="2110183736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3016,7 +3172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099695768"/>
+        <c:axId val="2110183736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3034,23 +3190,27 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time Spent on Computation</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Spent on Computation (ms)</a:t>
+                  <a:t> </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2(ms)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099690056"/>
+        <c:crossAx val="2109984376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3061,10 +3221,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.202532320087896"/>
-          <c:y val="0.14370546147485"/>
-          <c:w val="0.132351400842337"/>
-          <c:h val="0.162086793945277"/>
+          <c:x val="0.806410072028668"/>
+          <c:y val="0.0289878361478107"/>
+          <c:w val="0.171635685950215"/>
+          <c:h val="0.137963655164222"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3130,12 +3290,22 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP Time Performance</a:t>
+              <a:t> OMP vs SS OMP vs SS MPI</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>(7 Threads/Processes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3148,105 +3318,97 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>FW OMP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$10:$A$21</c:f>
+              <c:f>Sheet3!$M$10:$M$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>8.710930383079816</c:v>
+                  <c:v>0.050003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.725161726676421</c:v>
+                  <c:v>0.20603</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.195987298028508</c:v>
+                  <c:v>0.5229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.772070392176643</c:v>
+                  <c:v>1.1872</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.535524229773216</c:v>
+                  <c:v>2.54454</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.35697129097458</c:v>
+                  <c:v>4.72506</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.19941715171615</c:v>
+                  <c:v>8.25255</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.141473664529821</c:v>
+                  <c:v>11.3538</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.952193763565091</c:v>
+                  <c:v>15.9946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.777261891564584</c:v>
+                  <c:v>21.5132</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.77135740899056</c:v>
+                  <c:v>28.2679</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.723176267627523</c:v>
+                  <c:v>36.4578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,105 +3419,97 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>SS OMP</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$D$10:$D$21</c:f>
+              <c:f>Sheet3!$S$10:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>11.89658595079915</c:v>
+                  <c:v>1788.28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.76708368462604</c:v>
+                  <c:v>2824.11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.21182747138189</c:v>
+                  <c:v>15548.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.709526722603483</c:v>
+                  <c:v>22900.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.384542021773617</c:v>
+                  <c:v>46275.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.180856480277841</c:v>
+                  <c:v>72423.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.123283374638841</c:v>
+                  <c:v>120127.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.992759934973804</c:v>
+                  <c:v>95634.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.9130434748723</c:v>
+                  <c:v>150378.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.985955754607507</c:v>
+                  <c:v>207447.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.897601961767126</c:v>
+                  <c:v>293656.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.531032442069381</c:v>
+                  <c:v>401771.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3366,105 +3520,97 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>SS MPI</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$G$10:$G$21</c:f>
+              <c:f>Sheet3!$U$10:$U$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>16.50559448838841</c:v>
+                  <c:v>47.7469</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.50453660184117</c:v>
+                  <c:v>253.553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.94498194640004</c:v>
+                  <c:v>40679.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5352753766208</c:v>
+                  <c:v>42789.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.2782969914492</c:v>
+                  <c:v>52009.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.25260630439266</c:v>
+                  <c:v>126714.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.25629715852777</c:v>
+                  <c:v>167663.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.26433263452352</c:v>
+                  <c:v>220532.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.66505827827954</c:v>
+                  <c:v>227521.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.54596595663431</c:v>
+                  <c:v>367622.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.5339805991691</c:v>
+                  <c:v>417321.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14.53402316901271</c:v>
+                  <c:v>474136.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,11 +3627,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099733768"/>
-        <c:axId val="2099739368"/>
+        <c:axId val="2109953192"/>
+        <c:axId val="2100918360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099733768"/>
+        <c:axId val="2109953192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3506,18 +3652,19 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Threads</a:t>
+                  <a:t> of Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099739368"/>
+        <c:crossAx val="2100918360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3525,7 +3672,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099739368"/>
+        <c:axId val="2100918360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3543,43 +3690,27 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2(ms)</a:t>
+                  <a:t>Time Spent on Computation (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099733768"/>
+        <c:crossAx val="2109953192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.806410072028668"/>
-          <c:y val="0.0289878361478107"/>
-          <c:w val="0.171635685950215"/>
-          <c:h val="0.137963655164222"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
           <a:schemeClr val="bg1"/>
@@ -3638,11 +3769,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FW</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs SS OMP vs SS MPI</a:t>
+              <a:t>FW OMP vs SS OMP vs SS MPI</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -3650,13 +3777,18 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(7</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t>(7 Threads/Processes)</a:t>
+              <a:t> Threads/Processes)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3676,7 +3808,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3721,45 +3853,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$M$10:$M$21</c:f>
+              <c:f>Sheet3!$X$10:$X$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.050003</c:v>
+                  <c:v>-4.321841535781656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20603</c:v>
+                  <c:v>-2.279073671556469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5229</c:v>
+                  <c:v>-0.935393024702608</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1872</c:v>
+                  <c:v>0.247562997071354</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.54454</c:v>
+                  <c:v>1.347404870563707</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.72506</c:v>
+                  <c:v>2.240332649154421</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.25255</c:v>
+                  <c:v>3.044839974378865</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.3538</c:v>
+                  <c:v>3.505103328406034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.9946</c:v>
+                  <c:v>3.999513008239217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.5132</c:v>
+                  <c:v>4.427150230562417</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.2679</c:v>
+                  <c:v>4.821092805360356</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.4578</c:v>
+                  <c:v>5.188155601276714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3777,7 +3909,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3822,45 +3954,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$S$10:$S$21</c:f>
+              <c:f>Sheet3!$Y$10:$Y$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1788.28</c:v>
+                  <c:v>10.80435692889316</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2824.11</c:v>
+                  <c:v>11.46358056780511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15548.1</c:v>
+                  <c:v>13.92445067128441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22900.7</c:v>
+                  <c:v>14.48310407704608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46275.6</c:v>
+                  <c:v>15.49796407545649</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72423.3</c:v>
+                  <c:v>16.14416629490492</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120127.0</c:v>
+                  <c:v>16.8742009251325</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95634.5</c:v>
+                  <c:v>16.54524354168923</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150378.0</c:v>
+                  <c:v>17.19823399349702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>207447.0</c:v>
+                  <c:v>17.66238326822667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>293656.0</c:v>
+                  <c:v>18.16376758981962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401771.0</c:v>
+                  <c:v>18.61601390793037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,7 +4010,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
+              <c:f>Sheet3!$W$10:$W$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3923,45 +4055,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$U$10:$U$21</c:f>
+              <c:f>Sheet3!$Z$10:$Z$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>47.7469</c:v>
+                  <c:v>5.577335163118284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253.553</c:v>
+                  <c:v>7.986143534025527</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40679.9</c:v>
+                  <c:v>15.31202851229252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42789.0</c:v>
+                  <c:v>15.38495234241132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52009.7</c:v>
+                  <c:v>15.66649309581926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>126714.0</c:v>
+                  <c:v>16.95121640392546</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167663.0</c:v>
+                  <c:v>17.35520482341052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220532.0</c:v>
+                  <c:v>17.75062848573753</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227521.0</c:v>
+                  <c:v>17.79564018545206</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>367622.0</c:v>
+                  <c:v>18.4878635804032</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>417321.0</c:v>
+                  <c:v>18.67079799468722</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>474136.0</c:v>
+                  <c:v>18.85494141200586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3978,11 +4110,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102298696"/>
-        <c:axId val="2102319592"/>
+        <c:axId val="2114953944"/>
+        <c:axId val="2104827832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2102298696"/>
+        <c:axId val="2114953944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3995,26 +4127,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Nodes</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102319592"/>
+        <c:crossAx val="2104827832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4022,7 +4151,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102319592"/>
+        <c:axId val="2104827832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4036,28 +4165,35 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation (ms)</a:t>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Spent on Computation (LOG2(ms))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102298696"/>
+        <c:crossAx val="2114953944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -4117,491 +4253,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>FW OMP vs SS OMP vs SS MPI</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>(7</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Threads/Processes)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$X$10:$X$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-4.321841535781656</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.279073671556469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.935393024702608</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.247562997071354</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.347404870563707</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.240332649154421</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.044839974378865</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.505103328406034</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.999513008239217</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.427150230562417</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.821092805360356</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.188155601276714</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$Y$10:$Y$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>10.80435692889316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.46358056780511</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.92445067128441</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.48310407704608</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.49796407545649</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.14416629490492</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.8742009251325</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.54524354168923</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.19823399349702</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17.66238326822667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.16376758981962</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.61601390793037</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$W$10:$W$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$Z$10:$Z$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.577335163118284</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.986143534025527</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.31202851229252</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.38495234241132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.66649309581926</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>16.95121640392546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17.35520482341052</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17.75062848573753</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17.79564018545206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18.4878635804032</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.67079799468722</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.85494141200586</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2102357512"/>
-        <c:axId val="2102362184"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2102357512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102362184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2102362184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Spent on Computation (LOG2(ms))</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102357512"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Logarithmic FW OMP Time Performance</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4947,11 +4604,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101841592"/>
-        <c:axId val="2101836072"/>
+        <c:axId val="2108148200"/>
+        <c:axId val="2108153720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101841592"/>
+        <c:axId val="2108148200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4973,13 +4630,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101836072"/>
+        <c:crossAx val="2108153720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4987,9 +4645,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101836072"/>
+        <c:axId val="2108153720"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5011,13 +4668,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101841592"/>
+        <c:crossAx val="2108148200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5068,7 +4726,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5337,11 +4995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101784936"/>
-        <c:axId val="2101779384"/>
+        <c:axId val="2106879784"/>
+        <c:axId val="2106885272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101784936"/>
+        <c:axId val="2106879784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5369,7 +5027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101779384"/>
+        <c:crossAx val="2106885272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5377,7 +5035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101779384"/>
+        <c:axId val="2106885272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,7 +5064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101784936"/>
+        <c:crossAx val="2106879784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5421,6 +5079,464 @@
           <c:y val="0.166815617767129"/>
           <c:w val="0.22703220770873"/>
           <c:h val="0.112352528650942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$6:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.001057886547243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.560612541988378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.970319111767614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.227297496939211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.252988183995755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.249297329860641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.241261853864897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.840536210108874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.959628531754107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.971613889219323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.971571319375702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$6:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.974414651458994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.630871012514402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.270934929562347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.673889445317318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.565674074425641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.455193713641876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.222249538954344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.191481670430605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.04939149340943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.006208343860805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.701744005069644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$6:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.956272599132825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.703325688285586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.66030616767476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.264617717427528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.090464203023595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.339956816989293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.821550234948626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.069730548182805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.092283481655315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.03708979099445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.910568026599183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2117017784"/>
+        <c:axId val="2116622504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2117017784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116622504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2116622504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (Speedup)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2117017784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.800511299723898"/>
+          <c:y val="0.771378371092043"/>
+          <c:w val="0.15310651103677"/>
+          <c:h val="0.176487649787578"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5482,464 +5598,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$L$6:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.001057886547243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.560612541988378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.970319111767614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.227297496939211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.252988183995755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.249297329860641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.241261853864897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.840536210108874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.959628531754107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.971613889219323</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.971571319375702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$M$6:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.974414651458994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.630871012514402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.270934929562347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.673889445317318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.565674074425641</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.455193713641876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.222249538954344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.191481670430605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.04939149340943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.006208343860805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.701744005069644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$N$6:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.956272599132825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.703325688285586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.66030616767476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.264617717427528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.090464203023595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.339956816989293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.821550234948626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.069730548182805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.092283481655315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.03708979099445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.910568026599183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2101740184"/>
-        <c:axId val="2101734632"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2101740184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101734632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2101734632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (Speedup)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101740184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.800511299723898"/>
-          <c:y val="0.771378371092043"/>
-          <c:w val="0.15310651103677"/>
-          <c:h val="0.176487649787578"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Speedup</a:t>
             </a:r>
             <a:r>
@@ -6253,11 +5911,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2101696936"/>
-        <c:axId val="2101691384"/>
+        <c:axId val="2116766728"/>
+        <c:axId val="2100393752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2101696936"/>
+        <c:axId val="2116766728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6285,7 +5943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101691384"/>
+        <c:crossAx val="2100393752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6293,7 +5951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101691384"/>
+        <c:axId val="2100393752"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -6323,7 +5981,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101696936"/>
+        <c:crossAx val="2116766728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6727,107 +6385,6 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Floyd Warshall (OMP)</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$10:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.050003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.54454</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.72506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.25255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.3538</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.9946</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.5132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.2679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.4578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -6836,11 +6393,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099649096"/>
-        <c:axId val="2099654616"/>
+        <c:axId val="2116743416"/>
+        <c:axId val="2116759432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099649096"/>
+        <c:axId val="2116743416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6869,16 +6426,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099654616"/>
+        <c:crossAx val="2116759432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099654616"/>
+        <c:axId val="2116759432"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
-          <c:min val="0.01"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6911,7 +6466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099649096"/>
+        <c:crossAx val="2116743416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7272,11 +6827,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099583560"/>
-        <c:axId val="2099589272"/>
+        <c:axId val="2117027192"/>
+        <c:axId val="2116838936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099583560"/>
+        <c:axId val="2117027192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7310,7 +6865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099589272"/>
+        <c:crossAx val="2116838936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7318,9 +6873,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099589272"/>
+        <c:axId val="2116838936"/>
         <c:scaling>
-          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -7354,7 +6908,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099583560"/>
+        <c:crossAx val="2117027192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7365,8 +6919,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.730660677327228"/>
-          <c:y val="0.674243034042802"/>
+          <c:x val="0.726255390983616"/>
+          <c:y val="0.199163500638772"/>
           <c:w val="0.23735775318834"/>
           <c:h val="0.173890331577058"/>
         </c:manualLayout>
@@ -7406,6 +6960,241 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Floyd Warshall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>7 Threads</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$10:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1300.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2200.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3400.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.050003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20603</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.54454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.72506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.25255</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.3538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.9946</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.2679</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.4578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122182584"/>
+        <c:axId val="2101909768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122182584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2101909768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2101909768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122182584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7990,11 +7779,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101876264"/>
-        <c:axId val="2101881944"/>
+        <c:axId val="2114991016"/>
+        <c:axId val="2114994168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101876264"/>
+        <c:axId val="2114991016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -8025,12 +7814,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101881944"/>
+        <c:crossAx val="2114994168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101881944"/>
+        <c:axId val="2114994168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -8061,7 +7850,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101876264"/>
+        <c:crossAx val="2114991016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8083,7 +7872,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8538,11 +8327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099425576"/>
-        <c:axId val="2099431416"/>
+        <c:axId val="2106993160"/>
+        <c:axId val="2097418120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099425576"/>
+        <c:axId val="2106993160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8576,12 +8365,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099431416"/>
+        <c:crossAx val="2097418120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099431416"/>
+        <c:axId val="2097418120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8611,7 +8400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099425576"/>
+        <c:crossAx val="2106993160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8633,7 +8422,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8745,11 +8534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114908584"/>
-        <c:axId val="2112023496"/>
+        <c:axId val="2115548952"/>
+        <c:axId val="2116817672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114908584"/>
+        <c:axId val="2115548952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8778,12 +8567,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2112023496"/>
+        <c:crossAx val="2116817672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2112023496"/>
+        <c:axId val="2116817672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8813,7 +8602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114908584"/>
+        <c:crossAx val="2115548952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8823,207 +8612,6 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OMP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 500 Nodes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$B$10:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>419036.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>211595.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>146625.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>109294.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>92766.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>81967.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73487.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70594.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>123828.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109688.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>109240.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>105652.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2099471112"/>
-        <c:axId val="2099476856"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2099471112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099476856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2099476856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Micro Seconds (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099471112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -9065,12 +8653,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 1000 Nodes</a:t>
+              <a:t> 500 Nodes</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9087,45 +8676,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$E$10:$E$21</c:f>
+              <c:f>Sheet3!$B$10:$B$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3.81267E6</c:v>
+                  <c:v>419036.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.74267E6</c:v>
+                  <c:v>211595.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.18595E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>837257.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>668388.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>580381.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>557676.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>509437.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>964103.0</c:v>
+                  <c:v>146625.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109294.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92766.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81967.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73487.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70594.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123828.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.01408E6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>953839.0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>739821.0</c:v>
+                  <c:v>109688.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>109240.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>105652.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9142,11 +8731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099505176"/>
-        <c:axId val="2099510616"/>
+        <c:axId val="2100910424"/>
+        <c:axId val="2097532168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099505176"/>
+        <c:axId val="2100910424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9163,17 +8752,23 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t># of Threads</a:t>
+                  <a:t>#</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099510616"/>
+        <c:crossAx val="2097532168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9181,7 +8776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099510616"/>
+        <c:axId val="2097532168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9209,13 +8804,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099505176"/>
+        <c:crossAx val="2100910424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9257,11 +8853,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>OMP 3000 Nodes</a:t>
+              <a:t>OMP</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -9278,45 +8880,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$H$10:$H$21</c:f>
+              <c:f>Sheet3!$E$10:$E$21</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.3042E7</c:v>
+                  <c:v>3.81267E6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.64869E7</c:v>
+                  <c:v>1.74267E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.15419E7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3744E7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.98699E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.95192E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.95692E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.96785E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.5979E7</c:v>
+                  <c:v>1.18595E6</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>837257.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>668388.0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>580381.0</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>557676.0</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>509437.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>964103.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.39206E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.37227E7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.37234E7</c:v>
+                  <c:v>1.01408E6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>953839.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>739821.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9333,11 +8935,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099537928"/>
-        <c:axId val="2099543688"/>
+        <c:axId val="2108504136"/>
+        <c:axId val="2108509560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099537928"/>
+        <c:axId val="2108504136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9354,22 +8956,18 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
+                  <a:t># of Threads</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099543688"/>
+        <c:crossAx val="2108509560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9377,7 +8975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099543688"/>
+        <c:axId val="2108509560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9405,13 +9003,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099537928"/>
+        <c:crossAx val="2108504136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9520,6 +9119,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9623,15 +9252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9713,66 +9342,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -9794,7 +9363,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9826,7 +9395,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9856,7 +9425,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9886,7 +9455,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9916,7 +9485,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10344,8 +9913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showRuler="0" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11887,8 +11456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C54" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView showRuler="0" topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12627,11 +12196,11 @@
         <v>6.4424915544255228</v>
       </c>
       <c r="P39">
-        <f>W39/R39</f>
+        <f t="shared" ref="P39:P50" si="3">W39/R39</f>
         <v>2.199868007919525</v>
       </c>
       <c r="R39" s="9">
-        <f t="shared" ref="R39:R50" si="3">S39/1000000</f>
+        <f t="shared" ref="R39:R50" si="4">S39/1000000</f>
         <v>5.0002999999999999E-2</v>
       </c>
       <c r="S39">
@@ -12682,11 +12251,11 @@
         <v>11.749614479024112</v>
       </c>
       <c r="P40">
-        <f>W40/R40</f>
+        <f t="shared" si="3"/>
         <v>2.7180507693054414</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.20602999999999999</v>
       </c>
       <c r="S40">
@@ -12737,11 +12306,11 @@
         <v>0.8870326623221787</v>
       </c>
       <c r="P41">
-        <f>W41/R41</f>
+        <f t="shared" si="3"/>
         <v>3.3275960986804356</v>
       </c>
       <c r="R41" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.52290000000000003</v>
       </c>
       <c r="S41">
@@ -12792,11 +12361,11 @@
         <v>1.9125733249199561</v>
       </c>
       <c r="P42">
-        <f>W42/R42</f>
+        <f t="shared" si="3"/>
         <v>3.3524258760107815</v>
       </c>
       <c r="R42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1872</v>
       </c>
       <c r="S42" s="4">
@@ -12847,11 +12416,11 @@
         <v>2.9710611674360745</v>
       </c>
       <c r="P43">
-        <f>W43/R43</f>
+        <f t="shared" si="3"/>
         <v>2.8806778435395004</v>
       </c>
       <c r="R43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.54454</v>
       </c>
       <c r="S43" s="4">
@@ -12902,11 +12471,11 @@
         <v>2.2193995927837493</v>
       </c>
       <c r="P44">
-        <f>W44/R44</f>
+        <f t="shared" si="3"/>
         <v>2.5713959187819837</v>
       </c>
       <c r="R44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.72506</v>
       </c>
       <c r="S44" s="4">
@@ -12957,11 +12526,11 @@
         <v>2.8441755187489188</v>
       </c>
       <c r="P45">
-        <f>W45/R45</f>
+        <f t="shared" si="3"/>
         <v>2.2599075437289082</v>
       </c>
       <c r="R45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.2525499999999994</v>
       </c>
       <c r="S45" s="4">
@@ -13012,11 +12581,11 @@
         <v>2.7815600457076521</v>
       </c>
       <c r="P46">
-        <f>W46/R46</f>
+        <f t="shared" si="3"/>
         <v>2.3921506455988304</v>
       </c>
       <c r="R46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.3538</v>
       </c>
       <c r="S46" s="4">
@@ -13067,11 +12636,11 @@
         <v>4.3595580188202412</v>
       </c>
       <c r="P47">
-        <f>W47/R47</f>
+        <f t="shared" si="3"/>
         <v>2.3676740900053765</v>
       </c>
       <c r="R47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15.9946</v>
       </c>
       <c r="S47" s="4">
@@ -13122,11 +12691,11 @@
         <v>3.4990832975175583</v>
       </c>
       <c r="P48">
-        <f>W48/R48</f>
+        <f t="shared" si="3"/>
         <v>2.377610025472733</v>
       </c>
       <c r="R48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21.513200000000001</v>
       </c>
       <c r="S48" s="4">
@@ -13177,11 +12746,11 @@
         <v>5.1440497842188622</v>
       </c>
       <c r="P49">
-        <f>W49/R49</f>
+        <f t="shared" si="3"/>
         <v>2.3769010078569686</v>
       </c>
       <c r="R49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28.267900000000001</v>
       </c>
       <c r="S49" s="4">
@@ -13232,11 +12801,11 @@
         <v>5.3275642431707348</v>
       </c>
       <c r="P50">
-        <f>W50/R50</f>
+        <f t="shared" si="3"/>
         <v>2.3652003137874478</v>
       </c>
       <c r="R50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.457799999999999</v>
       </c>
       <c r="S50" s="4">
@@ -13381,7 +12950,6 @@
     <mergeCell ref="V37:W37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -13395,7 +12963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:Z37"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A99" workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="0" windowWidth="14800" windowHeight="17480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
   <si>
     <t>Threads</t>
   </si>
@@ -227,6 +227,12 @@
   <si>
     <t>node</t>
   </si>
+  <si>
+    <t>FW Serial</t>
+  </si>
+  <si>
+    <t>Square sum serial</t>
+  </si>
 </sst>
 </file>
 
@@ -361,8 +367,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="599">
+  <cellStyleXfs count="603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1017,7 +1027,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="599">
+  <cellStyles count="603">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1317,6 +1327,8 @@
     <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1616,6 +1628,8 @@
     <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1955,11 +1969,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116786472"/>
-        <c:axId val="2114685480"/>
+        <c:axId val="2119110072"/>
+        <c:axId val="2119100920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116786472"/>
+        <c:axId val="2119110072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="13.0"/>
@@ -1990,13 +2004,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114685480"/>
+        <c:crossAx val="2119100920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114685480"/>
+        <c:axId val="2119100920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="10.0"/>
@@ -2027,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116786472"/>
+        <c:crossAx val="2119110072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2151,11 +2165,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114254696"/>
-        <c:axId val="2110251832"/>
+        <c:axId val="2128315832"/>
+        <c:axId val="2128321576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114254696"/>
+        <c:axId val="2128315832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2202,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110251832"/>
+        <c:crossAx val="2128321576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2210,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110251832"/>
+        <c:axId val="2128321576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,7 +2245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114254696"/>
+        <c:crossAx val="2128315832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2608,11 +2622,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108105688"/>
-        <c:axId val="2108111352"/>
+        <c:axId val="2128223176"/>
+        <c:axId val="2127756504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108105688"/>
+        <c:axId val="2128223176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108111352"/>
+        <c:crossAx val="2127756504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2654,7 +2668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108111352"/>
+        <c:axId val="2127756504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2689,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108105688"/>
+        <c:crossAx val="2128223176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2775,521 +2789,6 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP Time Performance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$A$10:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>8.710930383079816</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.725161726676421</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.195987298028508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.772070392176643</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.535524229773216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.35697129097458</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.19941715171615</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.141473664529821</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.952193763565091</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.777261891564584</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.77135740899056</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.723176267627523</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$10:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>11.89658595079915</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.76708368462604</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.21182747138189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.709526722603483</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.384542021773617</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.180856480277841</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.123283374638841</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.992759934973804</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9130434748723</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.985955754607507</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.897601961767126</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.531032442069381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$H$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$G$10:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>16.50559448838841</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.50453660184117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.94498194640004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14.5352753766208</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.2782969914492</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.25260630439266</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14.25629715852777</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14.26433263452352</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14.66505827827954</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14.54596595663431</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14.5339805991691</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14.53402316901271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2109984376"/>
-        <c:axId val="2110183736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2109984376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110183736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2110183736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2(ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109984376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.806410072028668"/>
-          <c:y val="0.0289878361478107"/>
-          <c:w val="0.171635685950215"/>
-          <c:h val="0.137963655164222"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FW</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
               <a:t> OMP vs SS OMP vs SS MPI</a:t>
             </a:r>
           </a:p>
@@ -3627,11 +3126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2109953192"/>
-        <c:axId val="2100918360"/>
+        <c:axId val="2127841576"/>
+        <c:axId val="2127847192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2109953192"/>
+        <c:axId val="2127841576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3664,7 +3163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100918360"/>
+        <c:crossAx val="2127847192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3672,7 +3171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100918360"/>
+        <c:axId val="2127847192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3702,7 +3201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109953192"/>
+        <c:crossAx val="2127841576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3744,7 +3243,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4110,11 +3609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114953944"/>
-        <c:axId val="2104827832"/>
+        <c:axId val="2127885096"/>
+        <c:axId val="2128074552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114953944"/>
+        <c:axId val="2127885096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +3642,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104827832"/>
+        <c:crossAx val="2128074552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4151,7 +3650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104827832"/>
+        <c:axId val="2128074552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4186,7 +3685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114953944"/>
+        <c:crossAx val="2127885096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4228,7 +3727,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4604,11 +4103,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108148200"/>
-        <c:axId val="2108153720"/>
+        <c:axId val="2128237512"/>
+        <c:axId val="2127953352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108148200"/>
+        <c:axId val="2128237512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108153720"/>
+        <c:crossAx val="2127953352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4645,7 +4144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108153720"/>
+        <c:axId val="2127953352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4675,7 +4174,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108148200"/>
+        <c:crossAx val="2128237512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4726,7 +4225,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4995,11 +4494,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106879784"/>
-        <c:axId val="2106885272"/>
+        <c:axId val="2111937192"/>
+        <c:axId val="2111990424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106879784"/>
+        <c:axId val="2111937192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5027,7 +4526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106885272"/>
+        <c:crossAx val="2111990424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5035,7 +4534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2106885272"/>
+        <c:axId val="2111990424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5064,7 +4563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106879784"/>
+        <c:crossAx val="2111937192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5079,6 +4578,464 @@
           <c:y val="0.166815617767129"/>
           <c:w val="0.22703220770873"/>
           <c:h val="0.112352528650942"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>FW OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$L$6:$L$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.001057886547243</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.560612541988378</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.970319111767614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.227297496939211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.252988183995755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.249297329860641</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.241261853864897</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.840536210108874</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.959628531754107</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.971613889219323</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.971571319375702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SS OMP</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$M$6:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.974414651458994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.630871012514402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.270934929562347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.673889445317318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.565674074425641</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.455193713641876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.222249538954344</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.191481670430605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.04939149340943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.006208343860805</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.701744005069644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SS MPI</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet4!$D$6:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$N$6:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-2.956272599132825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.703325688285586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.66030616767476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.264617717427528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.090464203023595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.339956816989293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.821550234948626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.069730548182805</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.092283481655315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.03708979099445</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.910568026599183</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2121466632"/>
+        <c:axId val="2121455944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2121466632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t># of Threads/Processes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121455944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2121455944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>LOG2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (Speedup)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121466632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.800511299723898"/>
+          <c:y val="0.771378371092043"/>
+          <c:w val="0.15310651103677"/>
+          <c:h val="0.176487649787578"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -5140,464 +5097,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$L$6:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.001057886547243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.560612541988378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.970319111767614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.227297496939211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.252988183995755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.249297329860641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.241261853864897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.840536210108874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.959628531754107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.971613889219323</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.971571319375702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$M$6:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.974414651458994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.630871012514402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.270934929562347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.673889445317318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.565674074425641</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.455193713641876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.222249538954344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.191481670430605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.04939149340943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.006208343860805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.701744005069644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$N$6:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.956272599132825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.703325688285586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.66030616767476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.264617717427528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.090464203023595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.339956816989293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.821550234948626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.069730548182805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.092283481655315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.03708979099445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.910568026599183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2117017784"/>
-        <c:axId val="2116622504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2117017784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116622504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2116622504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (Speedup)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117017784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.800511299723898"/>
-          <c:y val="0.771378371092043"/>
-          <c:w val="0.15310651103677"/>
-          <c:h val="0.176487649787578"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Speedup</a:t>
             </a:r>
             <a:r>
@@ -5911,11 +5410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116766728"/>
-        <c:axId val="2100393752"/>
+        <c:axId val="2101791432"/>
+        <c:axId val="2122236984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116766728"/>
+        <c:axId val="2101791432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5943,7 +5442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100393752"/>
+        <c:crossAx val="2122236984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5951,7 +5450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2100393752"/>
+        <c:axId val="2122236984"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -5981,7 +5480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116766728"/>
+        <c:crossAx val="2101791432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6393,11 +5892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116743416"/>
-        <c:axId val="2116759432"/>
+        <c:axId val="2118979000"/>
+        <c:axId val="2118984456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116743416"/>
+        <c:axId val="2118979000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6426,12 +5925,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116759432"/>
+        <c:crossAx val="2118984456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116759432"/>
+        <c:axId val="2118984456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6466,7 +5965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116743416"/>
+        <c:crossAx val="2118979000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6827,11 +6326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2117027192"/>
-        <c:axId val="2116838936"/>
+        <c:axId val="2118951224"/>
+        <c:axId val="2118910888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2117027192"/>
+        <c:axId val="2118951224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6865,7 +6364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116838936"/>
+        <c:crossAx val="2118910888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6873,7 +6372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116838936"/>
+        <c:axId val="2118910888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6908,7 +6407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117027192"/>
+        <c:crossAx val="2118951224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7104,11 +6603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122182584"/>
-        <c:axId val="2101909768"/>
+        <c:axId val="2118875544"/>
+        <c:axId val="2118881016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122182584"/>
+        <c:axId val="2118875544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7137,12 +6636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101909768"/>
+        <c:crossAx val="2118881016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101909768"/>
+        <c:axId val="2118881016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7172,7 +6671,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122182584"/>
+        <c:crossAx val="2118875544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7779,11 +7278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2114991016"/>
-        <c:axId val="2114994168"/>
+        <c:axId val="2127747736"/>
+        <c:axId val="2115522728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2114991016"/>
+        <c:axId val="2127747736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="14.0"/>
@@ -7814,12 +7313,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114994168"/>
+        <c:crossAx val="2115522728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2114994168"/>
+        <c:axId val="2115522728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1.0"/>
@@ -7850,7 +7349,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2114991016"/>
+        <c:crossAx val="2127747736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8327,11 +7826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106993160"/>
-        <c:axId val="2097418120"/>
+        <c:axId val="2127685896"/>
+        <c:axId val="2127615352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106993160"/>
+        <c:axId val="2127685896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8365,12 +7864,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097418120"/>
+        <c:crossAx val="2127615352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097418120"/>
+        <c:axId val="2127615352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8400,7 +7899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106993160"/>
+        <c:crossAx val="2127685896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8436,10 +7935,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -8450,39 +7945,42 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Floyd Warshall</c:v>
+            <c:v>Floyd Warshall </c:v>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet2!$D$74:$D$82</c:f>
+              <c:f>Sheet2!$D$74:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>700.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1000.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1300.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1600.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1900.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>2200.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2500.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2800.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>3100.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8490,36 +7988,125 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$C$74:$C$82</c:f>
+              <c:f>Sheet2!$C$74:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1280.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1276.28</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>1161.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1124.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1137.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1143.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1002.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1159.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1170.62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1142.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Square Sum</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$O$75:$O$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>400.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>1161.1</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1124.5</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1137.38</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1143.64</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1002.75</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1159.02</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1170.62</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1142.46</c:v>
+                  <c:v>2800.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$75:$N$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1280.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>724.011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166.147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>158.952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>408.335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128.889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.391</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8534,11 +8121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2115548952"/>
-        <c:axId val="2116817672"/>
+        <c:axId val="2127640936"/>
+        <c:axId val="2127646344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2115548952"/>
+        <c:axId val="2127640936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8567,12 +8154,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116817672"/>
+        <c:crossAx val="2127646344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116817672"/>
+        <c:axId val="2127646344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8602,7 +8189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115548952"/>
+        <c:crossAx val="2127640936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8731,11 +8318,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100910424"/>
-        <c:axId val="2097532168"/>
+        <c:axId val="2127695608"/>
+        <c:axId val="2127701320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100910424"/>
+        <c:axId val="2127695608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8768,7 +8355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097532168"/>
+        <c:crossAx val="2127701320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8776,7 +8363,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097532168"/>
+        <c:axId val="2127701320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8811,7 +8398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100910424"/>
+        <c:crossAx val="2127695608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8935,11 +8522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2108504136"/>
-        <c:axId val="2108509560"/>
+        <c:axId val="2127944984"/>
+        <c:axId val="2128287736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2108504136"/>
+        <c:axId val="2127944984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8967,7 +8554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108509560"/>
+        <c:crossAx val="2128287736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8975,7 +8562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2108509560"/>
+        <c:axId val="2128287736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9010,7 +8597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108504136"/>
+        <c:crossAx val="2127944984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9217,13 +8804,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:colOff>558800</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -9371,38 +8958,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -9425,7 +8980,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9455,7 +9010,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9463,16 +9018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9485,7 +9040,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9913,7 +9468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="E16" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="B10" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
@@ -11454,10 +11009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W82"/>
+  <dimension ref="A1:W84"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7:S10"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12850,94 +12405,178 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="3:7">
+    <row r="65" spans="3:15">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="3:7">
+    <row r="66" spans="3:15">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="3:7">
+    <row r="67" spans="3:15">
       <c r="G67" s="1"/>
     </row>
-    <row r="73" spans="3:7">
+    <row r="72" spans="3:15">
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15">
       <c r="C73" t="s">
         <v>66</v>
       </c>
       <c r="D73" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="74" spans="3:7">
+      <c r="N73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15">
       <c r="C74">
+        <v>1280</v>
+      </c>
+      <c r="D74">
+        <v>400</v>
+      </c>
+      <c r="N74" t="s">
+        <v>66</v>
+      </c>
+      <c r="O74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15">
+      <c r="C75">
         <v>1276.28</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>700</v>
       </c>
-    </row>
-    <row r="75" spans="3:7">
-      <c r="C75">
+      <c r="N75">
+        <v>1280</v>
+      </c>
+      <c r="O75">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="3:15">
+      <c r="C76">
         <v>1161.0999999999999</v>
       </c>
-      <c r="D75">
+      <c r="D76">
         <v>1000</v>
       </c>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76">
+      <c r="N76">
+        <v>724.01099999999997</v>
+      </c>
+      <c r="O76">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="3:15">
+      <c r="C77">
         <v>1124.5</v>
       </c>
-      <c r="D76">
+      <c r="D77">
         <v>1300</v>
       </c>
-    </row>
-    <row r="77" spans="3:7">
-      <c r="C77">
+      <c r="N77">
+        <v>166.14699999999999</v>
+      </c>
+      <c r="O77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="3:15">
+      <c r="C78">
         <v>1137.3800000000001</v>
       </c>
-      <c r="D77">
+      <c r="D78">
         <v>1600</v>
       </c>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78">
+      <c r="N78">
+        <v>137.31200000000001</v>
+      </c>
+      <c r="O78">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="79" spans="3:15">
+      <c r="C79">
         <v>1143.6400000000001</v>
       </c>
-      <c r="D78">
+      <c r="D79">
         <v>1900</v>
       </c>
-    </row>
-    <row r="79" spans="3:7">
-      <c r="C79">
+      <c r="N79">
+        <v>158.952</v>
+      </c>
+      <c r="O79">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="80" spans="3:15">
+      <c r="C80">
         <v>1002.75</v>
       </c>
-      <c r="D79">
+      <c r="D80">
         <v>2200</v>
       </c>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80">
+      <c r="N80">
+        <v>159.721</v>
+      </c>
+      <c r="O80">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15">
+      <c r="C81">
         <v>1159.02</v>
       </c>
-      <c r="D80">
+      <c r="D81">
         <v>2500</v>
       </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81">
+      <c r="N81">
+        <v>408.33499999999998</v>
+      </c>
+      <c r="O81">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15">
+      <c r="C82">
         <v>1170.6199999999999</v>
       </c>
-      <c r="D81">
+      <c r="D82">
         <v>2800</v>
       </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82">
+      <c r="N82">
+        <v>128.88900000000001</v>
+      </c>
+      <c r="O82">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="83" spans="3:15">
+      <c r="C83">
         <v>1142.46</v>
       </c>
-      <c r="D82">
+      <c r="D83">
+        <v>3100</v>
+      </c>
+      <c r="N83">
+        <v>146.39099999999999</v>
+      </c>
+      <c r="O83">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15">
+      <c r="N84">
+        <v>141.88</v>
+      </c>
+      <c r="O84">
         <v>3100</v>
       </c>
     </row>
@@ -12950,6 +12589,7 @@
     <mergeCell ref="V37:W37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -12963,7 +12603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A99" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A79" workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>

--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="210" yWindow="285" windowWidth="24735" windowHeight="12405" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="74">
   <si>
     <t>Threads</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>Square sum serial</t>
+  </si>
+  <si>
+    <t>floyd serial cache miss</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>nodes</t>
+  </si>
+  <si>
+    <t>square sum cache miss</t>
   </si>
 </sst>
 </file>
@@ -1634,6 +1646,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1692,37 +1709,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1734,37 +1751,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>731.252</c:v>
+                  <c:v>731.25199999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576.302</c:v>
+                  <c:v>576.30200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>449.054</c:v>
+                  <c:v>449.05399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>593.745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>550.838</c:v>
+                  <c:v>550.83799999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>510.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.153</c:v>
+                  <c:v>434.15300000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>424.992</c:v>
+                  <c:v>424.99200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>385.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>373.773</c:v>
+                  <c:v>373.77300000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.33</c:v>
+                  <c:v>151.33000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,37 +1804,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1829,16 +1846,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>848.761</c:v>
+                  <c:v>848.76099999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600.116</c:v>
+                  <c:v>600.11599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>550.182</c:v>
+                  <c:v>550.18200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>814.979</c:v>
+                  <c:v>814.97900000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>798.77</c:v>
@@ -1847,13 +1864,13 @@
                   <c:v>804.846</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>743.672</c:v>
+                  <c:v>743.67200000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>591.6369999999999</c:v>
+                  <c:v>591.63699999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590.732</c:v>
+                  <c:v>590.73199999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>587.37</c:v>
@@ -1882,37 +1899,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,28 +1941,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>722.114</c:v>
+                  <c:v>722.11400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.984</c:v>
+                  <c:v>605.98400000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.181</c:v>
+                  <c:v>588.18100000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>447.092</c:v>
+                  <c:v>447.09199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>396.252</c:v>
+                  <c:v>396.25200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>235.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>328.867</c:v>
+                  <c:v>328.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.299</c:v>
+                  <c:v>195.29900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>198.376</c:v>
@@ -1969,15 +1986,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2119110072"/>
-        <c:axId val="2119100920"/>
+        <c:axId val="59241984"/>
+        <c:axId val="59243904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2119110072"/>
+        <c:axId val="59241984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="13.0"/>
-          <c:min val="0.0"/>
+          <c:max val="13"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2004,16 +2021,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119100920"/>
+        <c:crossAx val="59243904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2.0"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2119100920"/>
+        <c:axId val="59243904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10.0"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2041,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119110072"/>
+        <c:crossAx val="59241984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2057,13 +2074,218 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OMP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 1000 Nodes</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$10:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3812670</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1742670</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1185950</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>837257</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>668388</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>580381</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>557676</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>509437</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>964103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1014080</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>953839</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>739821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="96248576"/>
+        <c:axId val="96657792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="96248576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96657792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96657792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in Micro Seconds (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96248576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:layout/>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2115,40 +2337,40 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.3042E7</c:v>
+                  <c:v>93042000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.64869E7</c:v>
+                  <c:v>46486900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.15419E7</c:v>
+                  <c:v>31541900</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3744E7</c:v>
+                  <c:v>23744000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.98699E7</c:v>
+                  <c:v>19869900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.95192E7</c:v>
+                  <c:v>19519200</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.95692E7</c:v>
+                  <c:v>19569200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.96785E7</c:v>
+                  <c:v>19678500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5979E7</c:v>
+                  <c:v>25979000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.39206E7</c:v>
+                  <c:v>23920600</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.37227E7</c:v>
+                  <c:v>23722700</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.37234E7</c:v>
+                  <c:v>23723400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,11 +2387,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128315832"/>
-        <c:axId val="2128321576"/>
+        <c:axId val="97079296"/>
+        <c:axId val="97081216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128315832"/>
+        <c:axId val="97079296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,12 +2407,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2202,7 +2420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128321576"/>
+        <c:crossAx val="97081216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2210,7 +2428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128321576"/>
+        <c:axId val="97081216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128315832"/>
+        <c:crossAx val="97079296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -2259,991 +2477,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Floyd-Warshal</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs Serial</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Serial</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>200000.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.06E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.17E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.06E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3E7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.283E7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.653E7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.141E7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.511E7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.733E7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4482E8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6452E8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>7 Threads</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$N$10:$N$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>50003.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>206030.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>522900.0</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>1.1872E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>2.54454E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>4.72506E6</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>8.25255E6</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>1.13538E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>1.59946E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>2.15132E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>2.82679E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>3.64578E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>2 Threads</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$Q$10:$Q$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>109492.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600252.0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00E+00">
-                  <c:v>1.63254E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.00E+00">
-                  <c:v>3.71435E6</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.00E+00">
-                  <c:v>7.16933E6</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.00E+00">
-                  <c:v>1.37744E7</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.00E+00">
-                  <c:v>2.41049E7</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.00E+00">
-                  <c:v>2.87276E7</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.00E+00">
-                  <c:v>4.14226E7</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.00E+00">
-                  <c:v>5.13324E7</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.00E+00">
-                  <c:v>7.91247E7</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.00E+00">
-                  <c:v>9.28684E7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2128223176"/>
-        <c:axId val="2127756504"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2128223176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127756504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2127756504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> Spent on Computation (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128223176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:dispUnits>
-          <c:builtInUnit val="hundreds"/>
-          <c:dispUnitsLbl>
-            <c:layout/>
-          </c:dispUnitsLbl>
-        </c:dispUnits>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.202532320087896"/>
-          <c:y val="0.14370546147485"/>
-          <c:w val="0.132351400842337"/>
-          <c:h val="0.162086793945277"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>FW</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> OMP vs SS OMP vs SS MPI</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>(7 Threads/Processes)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$M$10:$M$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.050003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.54454</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.72506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.25255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.3538</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.9946</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.5132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.2679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.4578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$S$10:$S$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1788.28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2824.11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15548.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22900.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46275.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72423.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>120127.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95634.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>150378.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>207447.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>293656.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>401771.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet3!$O$10:$O$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$U$10:$U$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>47.7469</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>253.553</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>40679.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>42789.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>52009.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126714.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>167663.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>220532.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>227521.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>367622.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>417321.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>474136.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2127841576"/>
-        <c:axId val="2127847192"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2127841576"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> of Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127847192"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2127847192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127841576"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3312,40 +2552,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3357,40 +2597,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.321841535781656</c:v>
+                  <c:v>-4.3218415357816564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.279073671556469</c:v>
+                  <c:v>-2.2790736715564694</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.935393024702608</c:v>
+                  <c:v>-0.93539302470260799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.247562997071354</c:v>
+                  <c:v>0.24756299707135393</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.347404870563707</c:v>
+                  <c:v>1.3474048705637072</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.240332649154421</c:v>
+                  <c:v>2.2403326491544213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.044839974378865</c:v>
+                  <c:v>3.0448399743788648</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.505103328406034</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.999513008239217</c:v>
+                  <c:v>3.9995130082392172</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.427150230562417</c:v>
+                  <c:v>4.4271502305624173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.821092805360356</c:v>
+                  <c:v>4.8210928053603563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.188155601276714</c:v>
+                  <c:v>5.1881556012767138</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,40 +2653,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,40 +2698,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>10.80435692889316</c:v>
+                  <c:v>10.804356928893158</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.46358056780511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.92445067128441</c:v>
+                  <c:v>13.924450671284408</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.48310407704608</c:v>
+                  <c:v>14.483104077046077</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.49796407545649</c:v>
+                  <c:v>15.497964075456487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.14416629490492</c:v>
+                  <c:v>16.144166294904924</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.8742009251325</c:v>
+                  <c:v>16.874200925132502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.54524354168923</c:v>
+                  <c:v>16.545243541689235</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>17.19823399349702</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.66238326822667</c:v>
+                  <c:v>17.662383268226669</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.16376758981962</c:v>
+                  <c:v>18.163767589819617</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.61601390793037</c:v>
+                  <c:v>18.616013907930373</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3514,40 +2754,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,40 +2799,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>5.577335163118284</c:v>
+                  <c:v>5.5773351631182839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.986143534025527</c:v>
+                  <c:v>7.986143534025528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.31202851229252</c:v>
+                  <c:v>15.312028512292517</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.38495234241132</c:v>
+                  <c:v>15.384952342411319</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.66649309581926</c:v>
+                  <c:v>15.666493095819257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.95121640392546</c:v>
+                  <c:v>16.951216403925464</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17.35520482341052</c:v>
+                  <c:v>17.355204823410517</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.75062848573753</c:v>
+                  <c:v>17.750628485737526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.79564018545206</c:v>
+                  <c:v>17.795640185452058</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18.4878635804032</c:v>
+                  <c:v>18.487863580403197</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18.67079799468722</c:v>
+                  <c:v>18.670797994687216</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.85494141200586</c:v>
+                  <c:v>18.854941412005857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3609,11 +2849,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127885096"/>
-        <c:axId val="2128074552"/>
+        <c:axId val="97792384"/>
+        <c:axId val="97794304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127885096"/>
+        <c:axId val="97792384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +2882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128074552"/>
+        <c:crossAx val="97794304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3650,7 +2890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2128074552"/>
+        <c:axId val="97794304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3685,7 +2925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127885096"/>
+        <c:crossAx val="97792384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3721,13 +2961,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3752,8 +2992,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Logarithmic FW OMP Time Performance</a:t>
+              <a:t>Floyd Warshall Thread </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Scalability</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3770,105 +3017,97 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>500 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Serial</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$25:$A$36</c:f>
+              <c:f>Sheet3!$L$10:$L$21</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>419.036</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211.595</c:v>
+                  <c:v>1060000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146.625</c:v>
+                  <c:v>3170000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.294</c:v>
+                  <c:v>7060000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92.766</c:v>
+                  <c:v>13000000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.967</c:v>
+                  <c:v>22830000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.487</c:v>
+                  <c:v>36530000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.594</c:v>
+                  <c:v>51410000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123.828</c:v>
+                  <c:v>85110000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.688</c:v>
+                  <c:v>97330000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109.24</c:v>
+                  <c:v>144820000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.652</c:v>
+                  <c:v>164520000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3879,105 +3118,97 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>7 Threads</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$25:$B$36</c:f>
+              <c:f>Sheet3!$N$10:$N$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>3812.67</c:v>
+                  <c:v>50003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1742.67</c:v>
+                  <c:v>206030</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1185.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>837.2569999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>668.388</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>580.381</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>557.676</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>509.437</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>964.103</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1014.08</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>953.8390000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>739.821</c:v>
+                  <c:v>522900</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>1187200</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>2544540</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>4725060</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>8252550</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>11353800</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>15994600</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>21513200</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>28267900</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>36457800</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3988,105 +3219,97 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$C$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3000 Nodes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>2 Threads</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet3!$C$10:$C$21</c:f>
+              <c:f>Sheet3!$O$10:$O$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$25:$C$36</c:f>
+              <c:f>Sheet3!$Q$10:$Q$21</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>93042.0</c:v>
+                  <c:v>109492</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46486.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31541.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23744.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19869.9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19519.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19569.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19678.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25979.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23920.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>23722.7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>23723.4</c:v>
+                  <c:v>600252</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>1632540</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="0.00E+00">
+                  <c:v>3714350</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00E+00">
+                  <c:v>7169330</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>13774400</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>24104900</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>28727600</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>41422600</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.00E+00">
+                  <c:v>51332400</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>79124700</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>92868400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4103,11 +3326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2128237512"/>
-        <c:axId val="2127953352"/>
+        <c:axId val="8761728"/>
+        <c:axId val="9377664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2128237512"/>
+        <c:axId val="8761728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4123,9 +3346,10 @@
                   <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads</a:t>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t>Number of Nodes</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4136,7 +3360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127953352"/>
+        <c:crossAx val="9377664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4144,7 +3368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127953352"/>
+        <c:axId val="9377664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4162,7 +3386,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Time Spent on Computation (ms)</a:t>
+                  <a:t>Time (s)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4174,9 +3398,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128237512"/>
+        <c:crossAx val="8761728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4185,10 +3412,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.787440180414341"/>
-          <c:y val="0.662285610998769"/>
-          <c:w val="0.164937910812936"/>
-          <c:h val="0.143597540221017"/>
+          <c:x val="0.23031014873140856"/>
+          <c:y val="0.14684279759147753"/>
+          <c:w val="0.19901808107319918"/>
+          <c:h val="0.19345944109927435"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -4219,1313 +3446,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speed</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>up Plot (3000 Nodes)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.0805534040785763"/>
-          <c:y val="0.125089179548157"/>
-          <c:w val="0.900130102607902"/>
-          <c:h val="0.765168762347037"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SS OMP) / (FW OMP)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$E$6:$E$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15.73028100389572</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.27099825945806</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.91231469002695</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.88163000317062</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>28.2203164064101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26.07311489483474</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22.06230149655716</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.35905924015551</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.10034865346187</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.75592154350053</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.378933879629396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$F$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>(SS MPI) / (FW OMP)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$F$6:$F$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>15.5337094966539</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.21203224916698</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.77177392183289</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22.50096880205738</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.30062707488012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.03575005621078</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16.71199532484691</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.517571884984025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.29310301581064</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.048409329460811</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.372425537654805</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2111937192"/>
-        <c:axId val="2111990424"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2111937192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111990424"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2111990424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111937192"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.690151468496605"/>
-          <c:y val="0.166815617767129"/>
-          <c:w val="0.22703220770873"/>
-          <c:h val="0.112352528650942"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Logarithmic Speedup Plot (3000 Nodes)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$L$6:$L$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.001057886547243</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.560612541988378</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.970319111767614</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.227297496939211</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.252988183995755</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.249297329860641</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.241261853864897</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.840536210108874</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.959628531754107</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.971613889219323</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.971571319375702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$M$6:$M$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.974414651458994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.630871012514402</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.270934929562347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.673889445317318</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.565674074425641</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-2.455193713641876</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.222249538954344</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.191481670430605</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.04939149340943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.006208343860805</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.701744005069644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$N$6:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>-2.956272599132825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.703325688285586</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.66030616767476</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.264617717427528</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.090464203023595</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.339956816989293</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.821550234948626</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.069730548182805</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.092283481655315</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.03708979099445</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.910568026599183</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2121466632"/>
-        <c:axId val="2121455944"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2121466632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121455944"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2121455944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>LOG2</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (Speedup)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121466632"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.800511299723898"/>
-          <c:y val="0.771378371092043"/>
-          <c:w val="0.15310651103677"/>
-          <c:h val="0.176487649787578"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speedup</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Plot (3000 Nodes)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>FW OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$H$6:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.001467079973068</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.949790596000875</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.918547843665768</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.682560053145712</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.766691257838436</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.754512192629234</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.728104276240567</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.581431155933639</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.889618153390801</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.922066206629094</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.921950479273628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>SS OMP</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$I$6:$I$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.127236575079453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.161446602649305</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.207195571133984</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.156703635399035</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.168909915437933</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.182353056464732</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.214306937876739</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.218926473910097</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.241585957988212</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.248926487466992</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.614828520451992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>SS MPI</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet4!$D$6:$D$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$J$6:$J$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.128846691796586</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.153538707292602</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.158186000567852</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.208104819589704</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.234805124011992</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.395032479938861</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.282916802233122</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.476407969318839</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.469018429648748</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.487309485151626</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.531975597344753</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2101791432"/>
-        <c:axId val="2122236984"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2101791432"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t># of Threads/Processes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122236984"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2122236984"/>
-        <c:scaling>
-          <c:logBase val="10.0"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>Speedup</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101791432"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.805898920169225"/>
-          <c:y val="0.0347396160919723"/>
-          <c:w val="0.163659679526361"/>
-          <c:h val="0.151147663670454"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5556,7 +3477,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Scalability</a:t>
+              <a:t>Node Scalability</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5591,40 +3512,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5636,40 +3557,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.78828</c:v>
+                  <c:v>1.7882800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.82411</c:v>
+                  <c:v>2.8241100000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15.5481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.9007</c:v>
+                  <c:v>22.900700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.2756</c:v>
+                  <c:v>46.275599999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72.4233</c:v>
+                  <c:v>72.423299999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>120.127</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.6345</c:v>
+                  <c:v>95.634500000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150.378</c:v>
+                  <c:v>150.37799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>207.447</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>293.656</c:v>
+                  <c:v>293.65600000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>401.771</c:v>
+                  <c:v>401.77100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5692,43 +3613,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>600.0</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>800.0</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1200.0</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1400.0</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1800.0</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2000.0</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2400.0</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2600.0</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3000.0</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,37 +3661,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>21.1458</c:v>
+                  <c:v>21.145800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26.701</c:v>
+                  <c:v>26.701000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29.7008</c:v>
+                  <c:v>29.700800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.8549</c:v>
+                  <c:v>26.854900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0222</c:v>
+                  <c:v>55.022199999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.198</c:v>
+                  <c:v>117.19799999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>134.89</c:v>
+                  <c:v>134.88999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>137.006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>319.874</c:v>
+                  <c:v>319.87400000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>314.387</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>438.597</c:v>
+                  <c:v>438.59699999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>438.483</c:v>
@@ -5799,40 +3720,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5844,40 +3765,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0477469</c:v>
+                  <c:v>4.7746900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.253553</c:v>
+                  <c:v>0.25355299999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.6799</c:v>
+                  <c:v>40.679900000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.789</c:v>
+                  <c:v>42.789000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.0097</c:v>
+                  <c:v>52.009700000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>126.714</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>167.663</c:v>
+                  <c:v>167.66300000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>220.532</c:v>
+                  <c:v>220.53200000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>227.521</c:v>
+                  <c:v>227.52099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>367.622</c:v>
+                  <c:v>367.62200000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>417.321</c:v>
+                  <c:v>417.32100000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>474.136</c:v>
+                  <c:v>474.13600000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5892,11 +3813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118979000"/>
-        <c:axId val="2118984456"/>
+        <c:axId val="88512000"/>
+        <c:axId val="88513920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118979000"/>
+        <c:axId val="88512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5925,12 +3846,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118984456"/>
+        <c:crossAx val="88513920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118984456"/>
+        <c:axId val="88513920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5965,7 +3886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118979000"/>
+        <c:crossAx val="88512000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5981,7 +3902,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6047,37 +3968,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6089,37 +4010,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>731.252</c:v>
+                  <c:v>731.25199999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>576.302</c:v>
+                  <c:v>576.30200000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>449.054</c:v>
+                  <c:v>449.05399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>593.745</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>550.838</c:v>
+                  <c:v>550.83799999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>510.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>434.153</c:v>
+                  <c:v>434.15300000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>424.992</c:v>
+                  <c:v>424.99200000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>385.13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>373.773</c:v>
+                  <c:v>373.77300000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>151.33</c:v>
+                  <c:v>151.33000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6142,37 +4063,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6184,28 +4105,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>46.4869</c:v>
+                  <c:v>46.486899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5419</c:v>
+                  <c:v>31.541899999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>23.744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.8699</c:v>
+                  <c:v>19.869900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.5192</c:v>
+                  <c:v>19.519200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.5692</c:v>
+                  <c:v>19.569199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>19.6785</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.979</c:v>
+                  <c:v>25.978999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>23.9206</c:v>
@@ -6214,7 +4135,7 @@
                   <c:v>23.7227</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.7234</c:v>
+                  <c:v>23.723400000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6237,37 +4158,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6279,28 +4200,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>722.114</c:v>
+                  <c:v>722.11400000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.984</c:v>
+                  <c:v>605.98400000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>588.181</c:v>
+                  <c:v>588.18100000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>447.092</c:v>
+                  <c:v>447.09199999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>396.252</c:v>
+                  <c:v>396.25200000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>235.53</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>328.867</c:v>
+                  <c:v>328.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>195.299</c:v>
+                  <c:v>195.29900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>198.376</c:v>
@@ -6326,11 +4247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2118951224"/>
-        <c:axId val="2118910888"/>
+        <c:axId val="88802816"/>
+        <c:axId val="88804736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2118951224"/>
+        <c:axId val="88802816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6364,7 +4285,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118910888"/>
+        <c:crossAx val="88804736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6372,7 +4293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118910888"/>
+        <c:axId val="88804736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6407,7 +4328,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118951224"/>
+        <c:crossAx val="88802816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6418,10 +4339,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.726255390983616"/>
+          <c:x val="0.72625539098361602"/>
           <c:y val="0.199163500638772"/>
-          <c:w val="0.23735775318834"/>
-          <c:h val="0.173890331577058"/>
+          <c:w val="0.23735775318833999"/>
+          <c:h val="0.17389033157705799"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -6452,248 +4373,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Floyd Warshall</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>7 Threads</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$L$10:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>700.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1300.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1600.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2200.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2500.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2800.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3400.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3700.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$10:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.050003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20603</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.5229</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1872</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.54454</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.72506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.25255</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.3538</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15.9946</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.5132</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>28.2679</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.4578</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2118875544"/>
-        <c:axId val="2118881016"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2118875544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Nodes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118881016"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2118881016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time (s)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118875544"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6760,40 +4446,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6805,40 +4491,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.086921902447834</c:v>
+                  <c:v>1.0869219024478336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.560050473572655</c:v>
+                  <c:v>1.5600504735726546</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.206423424804538</c:v>
+                  <c:v>2.2064234248045378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.406676336194204</c:v>
+                  <c:v>2.4066763361942045</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.624716710491927</c:v>
+                  <c:v>1.6247167104919267</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.657686192521001</c:v>
+                  <c:v>1.6576861925210009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.645171871389061</c:v>
+                  <c:v>1.6451718713890606</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.780502694736389</c:v>
+                  <c:v>1.7805026947363889</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.23804461181434</c:v>
+                  <c:v>2.2380446118143391</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.241473290764678</c:v>
+                  <c:v>2.2414732907646782</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.25430307983043</c:v>
+                  <c:v>2.2543030798304304</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.839375829670301</c:v>
+                  <c:v>6.8393758296703009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6868,40 +4554,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,40 +4599,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6969,40 +4655,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7014,37 +4700,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.090089570915797</c:v>
+                  <c:v>1.0900895709157967</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.833657843498395</c:v>
+                  <c:v>1.8336578434983948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.18505769129218</c:v>
+                  <c:v>2.1850576912921791</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.251194785278681</c:v>
+                  <c:v>2.2511947852786811</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.961605217718053</c:v>
+                  <c:v>2.9616052177180534</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.341585657611823</c:v>
+                  <c:v>3.3415856576118226</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.621831613807158</c:v>
+                  <c:v>5.6218316138071582</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>4.026278100265456</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.779911827505517</c:v>
+                  <c:v>6.7799118275055168</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.674748961567931</c:v>
+                  <c:v>6.6747489615679312</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.93505473210077</c:v>
+                  <c:v>6.9350547321007694</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>7.570712239635446</c:v>
@@ -7077,40 +4763,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7122,40 +4808,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.810743765487137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.29759744023099</c:v>
+                  <c:v>2.2975974402309896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.948665416631407</c:v>
+                  <c:v>2.9486654166314072</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.230098779779198</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.403810194648881</c:v>
+                  <c:v>2.4038101946488806</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5951237677126</c:v>
+                  <c:v>2.5951237677125998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.049869516046186</c:v>
+                  <c:v>3.0498695160461859</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.115611587982832</c:v>
+                  <c:v>3.1156115879828321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.438085841144548</c:v>
+                  <c:v>3.4380858411445483</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.542551227616761</c:v>
+                  <c:v>3.5425512276167614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.749818277935637</c:v>
+                  <c:v>8.7498182779356366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7185,40 +4871,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7230,40 +4916,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.49891446873455</c:v>
+                  <c:v>0.49891446873454998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.001467079973068</c:v>
+                  <c:v>2.0014670799730676</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.949790596000875</c:v>
+                  <c:v>2.9497905960008755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.918547843665768</c:v>
+                  <c:v>3.9185478436657681</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.682560053145712</c:v>
+                  <c:v>4.6825600531457123</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.766691257838436</c:v>
+                  <c:v>4.7666912578384357</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.754512192629234</c:v>
+                  <c:v>4.7545121926292344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.728104276240567</c:v>
+                  <c:v>4.7281042762405674</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.581431155933639</c:v>
+                  <c:v>3.5814311559336387</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.889618153390801</c:v>
+                  <c:v>3.8896181533908014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.922066206629094</c:v>
+                  <c:v>3.9220662066290939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.921950479273628</c:v>
+                  <c:v>3.9219504792736282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7278,15 +4964,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127747736"/>
-        <c:axId val="2115522728"/>
+        <c:axId val="96225152"/>
+        <c:axId val="96227328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127747736"/>
+        <c:axId val="96225152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="14.0"/>
-          <c:min val="1.0"/>
+          <c:max val="14"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -7313,15 +4999,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115522728"/>
+        <c:crossAx val="96227328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115522728"/>
+        <c:axId val="96227328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1.0"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7349,7 +5035,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127747736"/>
+        <c:crossAx val="96225152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7365,13 +5051,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7430,40 +5116,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7475,40 +5161,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.172013890442213</c:v>
+                  <c:v>0.17201389044221263</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.054898711452457</c:v>
+                  <c:v>1.0548987114524575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.320823766247966</c:v>
+                  <c:v>2.3208237662479663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.573563253525001</c:v>
+                  <c:v>3.5735632535250015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.339211160957395</c:v>
+                  <c:v>3.3392111609573947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.883128772094063</c:v>
+                  <c:v>3.8831287720940635</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.969657112888859</c:v>
+                  <c:v>3.9696571128888594</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.414243813686483</c:v>
+                  <c:v>6.4142438136864834</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.595984785008445</c:v>
+                  <c:v>6.5959847850084454</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.200812737711319</c:v>
+                  <c:v>6.2008127377113187</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.310322281853596</c:v>
+                  <c:v>7.3103222818535967</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.287138693434816</c:v>
+                  <c:v>6.2871386934348168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,40 +5217,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7576,40 +5262,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.0203746953158118</c:v>
+                  <c:v>2.0374695315811785E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.162703505677133</c:v>
+                  <c:v>0.16270350567713254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.838327916307532</c:v>
+                  <c:v>0.83832791630753223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.608778217031557</c:v>
+                  <c:v>1.6087782170315574</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.991911877984902</c:v>
+                  <c:v>0.99191187798490221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.866250364982879</c:v>
+                  <c:v>1.8662503649828788</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.705160569324763</c:v>
+                  <c:v>2.7051605693247636</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.180351937193931</c:v>
+                  <c:v>1.1803519371939311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.701225462871648</c:v>
+                  <c:v>1.7012254628716481</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.009491792317834</c:v>
+                  <c:v>2.0094917923178346</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.089494779411235</c:v>
+                  <c:v>3.0894947794112353</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.007186312691853</c:v>
+                  <c:v>4.0071863126918528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7632,40 +5318,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7677,40 +5363,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.442491554425523</c:v>
+                  <c:v>6.4424915544255228</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.74961447902411</c:v>
+                  <c:v>11.749614479024112</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.887032662322179</c:v>
+                  <c:v>0.8870326623221787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.912573324919956</c:v>
+                  <c:v>1.9125733249199561</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.971061167436074</c:v>
+                  <c:v>2.9710611674360745</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.219399592783749</c:v>
+                  <c:v>2.2193995927837493</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.844175518748919</c:v>
+                  <c:v>2.8441755187489188</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.781560045707652</c:v>
+                  <c:v>2.7815600457076521</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.359558018820241</c:v>
+                  <c:v>4.3595580188202412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.499083297517558</c:v>
+                  <c:v>3.4990832975175583</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.144049784218862</c:v>
+                  <c:v>5.1440497842188622</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.327564243170735</c:v>
+                  <c:v>5.3275642431707348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7733,40 +5419,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3400.0</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3700.0</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7781,37 +5467,37 @@
                   <c:v>2.199868007919525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.718050769305441</c:v>
+                  <c:v>2.7180507693054414</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.327596098680435</c:v>
+                  <c:v>3.3275960986804356</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.352425876010781</c:v>
+                  <c:v>3.3524258760107815</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8806778435395</c:v>
+                  <c:v>2.8806778435395004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.571395918781984</c:v>
+                  <c:v>2.5713959187819837</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.259907543728908</c:v>
+                  <c:v>2.2599075437289082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.39215064559883</c:v>
+                  <c:v>2.3921506455988304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.367674090005376</c:v>
+                  <c:v>2.3676740900053765</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.377610025472733</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.376901007856969</c:v>
+                  <c:v>2.3769010078569686</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.365200313787448</c:v>
+                  <c:v>2.3652003137874478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7826,11 +5512,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127685896"/>
-        <c:axId val="2127615352"/>
+        <c:axId val="96142080"/>
+        <c:axId val="96144000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127685896"/>
+        <c:axId val="96142080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7864,12 +5550,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127615352"/>
+        <c:crossAx val="96144000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127615352"/>
+        <c:axId val="96144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7899,7 +5585,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127685896"/>
+        <c:crossAx val="96142080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7915,13 +5601,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7954,34 +5640,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7993,22 +5679,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1280.0</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1276.28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1161.1</c:v>
+                  <c:v>1161.0999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1124.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1137.38</c:v>
+                  <c:v>1137.3800000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1143.64</c:v>
+                  <c:v>1143.6400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1002.75</c:v>
@@ -8017,7 +5703,7 @@
                   <c:v>1159.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1170.62</c:v>
+                  <c:v>1170.6199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1142.46</c:v>
@@ -8040,34 +5726,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>700.0</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1300.0</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1600.0</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1900.0</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2200.0</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2500.0</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2800.0</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3100.0</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8079,16 +5765,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1280.0</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>724.011</c:v>
+                  <c:v>724.01099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.147</c:v>
+                  <c:v>166.14699999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.312</c:v>
+                  <c:v>137.31200000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>158.952</c:v>
@@ -8097,13 +5783,13 @@
                   <c:v>159.721</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>408.335</c:v>
+                  <c:v>408.33499999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>128.889</c:v>
+                  <c:v>128.88900000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>146.391</c:v>
+                  <c:v>146.39099999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>141.88</c:v>
@@ -8121,11 +5807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127640936"/>
-        <c:axId val="2127646344"/>
+        <c:axId val="96174080"/>
+        <c:axId val="96176000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127640936"/>
+        <c:axId val="96174080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8154,12 +5840,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127646344"/>
+        <c:crossAx val="96176000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127646344"/>
+        <c:axId val="96176000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8189,7 +5875,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127640936"/>
+        <c:crossAx val="96174080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8205,13 +5891,443 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Floyd Warshall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$101:$B$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$101:$C$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="99278208"/>
+        <c:axId val="99208576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99278208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99208576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99208576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Miss Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99278208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Square Sum </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$101:$M$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$N$101:$N$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="102380288"/>
+        <c:axId val="102378496"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="102380288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Nodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102378496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="102378496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Cache Miss Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="102380288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8268,40 +6384,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>419036.0</c:v>
+                  <c:v>419036</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>211595.0</c:v>
+                  <c:v>211595</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>146625.0</c:v>
+                  <c:v>146625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109294.0</c:v>
+                  <c:v>109294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>92766.0</c:v>
+                  <c:v>92766</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81967.0</c:v>
+                  <c:v>81967</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73487.0</c:v>
+                  <c:v>73487</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70594.0</c:v>
+                  <c:v>70594</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>123828.0</c:v>
+                  <c:v>123828</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109688.0</c:v>
+                  <c:v>109688</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>109240.0</c:v>
+                  <c:v>109240</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105652.0</c:v>
+                  <c:v>105652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8318,11 +6434,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127695608"/>
-        <c:axId val="2127701320"/>
+        <c:axId val="96606080"/>
+        <c:axId val="96612352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127695608"/>
+        <c:axId val="96606080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8338,12 +6454,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Threads</a:t>
+                  <a:t>Number of Threads</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -8355,7 +6467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127701320"/>
+        <c:crossAx val="96612352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8363,7 +6475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127701320"/>
+        <c:axId val="96612352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,13 +6493,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time (s)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Micro Seconds (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -8398,9 +6505,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127695608"/>
+        <c:crossAx val="96606080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+        </c:dispUnits>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -8409,206 +6519,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>OMP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 1000 Nodes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$E$10:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3.81267E6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.74267E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.18595E6</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="General">
-                  <c:v>837257.0</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="General">
-                  <c:v>668388.0</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="General">
-                  <c:v>580381.0</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="General">
-                  <c:v>557676.0</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="General">
-                  <c:v>509437.0</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>964103.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.01408E6</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>953839.0</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="General">
-                  <c:v>739821.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2127944984"/>
-        <c:axId val="2128287736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="2127944984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t># of Threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128287736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2128287736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in Micro Seconds (ms)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127944984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8701,36 +6612,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8831,6 +6712,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8905,7 +6846,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -8921,66 +6862,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="Chart 18"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9010,7 +6891,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9018,21 +6899,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="Chart 20"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9040,102 +6923,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9468,23 +7256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:AD101"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B10" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
@@ -9506,7 +7294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>1</v>
       </c>
@@ -9547,7 +7335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1.34656</v>
       </c>
@@ -9589,7 +7377,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>0.59281399999999995</v>
       </c>
@@ -9631,7 +7419,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>0.84379400000000004</v>
       </c>
@@ -9673,7 +7461,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1.4212800000000001</v>
       </c>
@@ -9715,7 +7503,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1.0478400000000001</v>
       </c>
@@ -9757,7 +7545,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.59148</v>
       </c>
@@ -9799,7 +7587,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>0.83272199999999996</v>
       </c>
@@ -9841,7 +7629,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>0.623946</v>
       </c>
@@ -9883,7 +7671,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0.74522200000000005</v>
       </c>
@@ -9925,7 +7713,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>23.510899999999999</v>
       </c>
@@ -9961,7 +7749,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>13.783300000000001</v>
       </c>
@@ -9997,7 +7785,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>36.457799999999999</v>
@@ -10027,63 +7815,63 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q27" s="10"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q28" s="10"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q29" s="10"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q30" s="10"/>
       <c r="R30" s="4"/>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q31" s="10"/>
       <c r="R31" s="4"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
       <c r="Q32" s="10"/>
       <c r="R32" s="4"/>
     </row>
-    <row r="33" spans="3:26">
+    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q33" s="10"/>
       <c r="R33" s="4"/>
     </row>
-    <row r="34" spans="3:26">
+    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q34" s="10"/>
       <c r="R34" s="4"/>
     </row>
-    <row r="35" spans="3:26">
+    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q35" s="10"/>
       <c r="R35" s="4"/>
     </row>
-    <row r="36" spans="3:26">
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q36" s="10"/>
       <c r="R36" s="4"/>
     </row>
-    <row r="37" spans="3:26">
+    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q37" s="10"/>
       <c r="R37" s="4"/>
     </row>
-    <row r="39" spans="3:26">
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
       <c r="O39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="3:26">
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
@@ -10101,7 +7889,7 @@
       </c>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="3:26">
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>1</v>
       </c>
@@ -10136,7 +7924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:26">
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>6.76518</v>
       </c>
@@ -10162,7 +7950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="3:26">
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>4.4328200000000004</v>
       </c>
@@ -10198,7 +7986,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="44" spans="3:26">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>4.8223799999999999</v>
       </c>
@@ -10234,7 +8022,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="45" spans="3:26">
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>16.501300000000001</v>
       </c>
@@ -10270,7 +8058,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="3:26">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>19.438400000000001</v>
       </c>
@@ -10306,7 +8094,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="47" spans="3:26">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>18.097000000000001</v>
       </c>
@@ -10342,7 +8130,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="48" spans="3:26">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C48">
         <v>19.97</v>
       </c>
@@ -10378,7 +8166,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="3:30">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>4.3926800000000004</v>
       </c>
@@ -10415,7 +8203,7 @@
       </c>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="3:30">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>3.9093599999999999</v>
       </c>
@@ -10451,7 +8239,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="3:30">
+    <row r="51" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I51">
         <v>79.649799999999999</v>
       </c>
@@ -10481,7 +8269,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="52" spans="3:30">
+    <row r="52" spans="3:30" x14ac:dyDescent="0.25">
       <c r="I52">
         <v>71.117599999999996</v>
       </c>
@@ -10512,7 +8300,7 @@
       </c>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="3:30">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.25">
       <c r="N53">
         <f t="shared" si="1"/>
         <v>7.2415542087959741</v>
@@ -10530,7 +8318,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="54" spans="3:30">
+    <row r="54" spans="3:30" x14ac:dyDescent="0.25">
       <c r="Y54">
         <v>804.846</v>
       </c>
@@ -10539,7 +8327,7 @@
       </c>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="3:30">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>12</v>
       </c>
@@ -10551,7 +8339,7 @@
       </c>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="3:30">
+    <row r="56" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>1</v>
       </c>
@@ -10572,7 +8360,7 @@
       </c>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="3:30">
+    <row r="57" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C57">
         <v>1.0845199999999999</v>
       </c>
@@ -10600,7 +8388,7 @@
       </c>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="3:30">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>0.83837499999999998</v>
       </c>
@@ -10625,7 +8413,7 @@
       </c>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="3:30">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>0.54436399999999996</v>
       </c>
@@ -10658,7 +8446,7 @@
       <c r="AB59" s="2"/>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="3:30">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C60">
         <v>17.684100000000001</v>
       </c>
@@ -10693,7 +8481,7 @@
       </c>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="3:30">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C61">
         <v>22.1372</v>
       </c>
@@ -10727,7 +8515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="3:30">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C62">
         <v>20.566199999999998</v>
       </c>
@@ -10761,7 +8549,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="63" spans="3:30">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C63">
         <v>17.445699999999999</v>
       </c>
@@ -10795,7 +8583,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="64" spans="3:30">
+    <row r="64" spans="3:30" x14ac:dyDescent="0.25">
       <c r="C64">
         <v>1.3791100000000001</v>
       </c>
@@ -10829,7 +8617,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="65" spans="3:26">
+    <row r="65" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C65">
         <v>1.4029199999999999</v>
       </c>
@@ -10863,7 +8651,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="66" spans="3:26">
+    <row r="66" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C66">
         <v>1.33938</v>
       </c>
@@ -10897,7 +8685,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="67" spans="3:26">
+    <row r="67" spans="3:26" x14ac:dyDescent="0.25">
       <c r="N67">
         <f t="shared" si="3"/>
         <v>4.5801816719722224</v>
@@ -10925,7 +8713,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="68" spans="3:26">
+    <row r="68" spans="3:26" x14ac:dyDescent="0.25">
       <c r="N68">
         <f t="shared" si="3"/>
         <v>4.5681963145070066</v>
@@ -10943,7 +8731,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="69" spans="3:26">
+    <row r="69" spans="3:26" x14ac:dyDescent="0.25">
       <c r="N69">
         <f t="shared" si="3"/>
         <v>4.5682388843506265</v>
@@ -10961,7 +8749,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="70" spans="3:26">
+    <row r="70" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Y70">
         <v>367.62200000000001</v>
       </c>
@@ -10969,7 +8757,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="71" spans="3:26">
+    <row r="71" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Y71">
         <v>417.32100000000003</v>
       </c>
@@ -10977,7 +8765,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="72" spans="3:26">
+    <row r="72" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Y72">
         <v>474.13600000000002</v>
       </c>
@@ -10985,7 +8773,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="101" spans="10:13">
+    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J101" s="2"/>
       <c r="M101" s="2"/>
     </row>
@@ -11009,19 +8797,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W84"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="N84" sqref="N84"/>
+    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>18</v>
       </c>
@@ -11044,7 +8832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -11094,7 +8882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>1218.22</v>
       </c>
@@ -11139,7 +8927,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>848.76099999999997</v>
       </c>
@@ -11184,7 +8972,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>600.11599999999999</v>
       </c>
@@ -11229,7 +9017,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>550.18200000000002</v>
       </c>
@@ -11274,7 +9062,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>814.97900000000004</v>
       </c>
@@ -11319,7 +9107,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>798.77</v>
       </c>
@@ -11364,7 +9152,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>804.846</v>
       </c>
@@ -11409,7 +9197,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>743.67200000000003</v>
       </c>
@@ -11454,7 +9242,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>591.63699999999994</v>
       </c>
@@ -11499,7 +9287,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>590.73199999999997</v>
       </c>
@@ -11544,7 +9332,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>587.37</v>
       </c>
@@ -11589,7 +9377,7 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>193.601</v>
       </c>
@@ -11634,12 +9422,12 @@
         <v>46.42</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -11666,7 +9454,7 @@
       </c>
       <c r="W37" s="11"/>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -11713,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.30760900000000002</v>
       </c>
@@ -11768,7 +9556,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2.9791500000000002</v>
       </c>
@@ -11823,7 +9611,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>36.084400000000002</v>
       </c>
@@ -11878,7 +9666,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>81.837100000000007</v>
       </c>
@@ -11933,7 +9721,7 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>154.524</v>
       </c>
@@ -11988,7 +9776,7 @@
         <v>7.33</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>281.22899999999998</v>
       </c>
@@ -12043,7 +9831,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>476.863</v>
       </c>
@@ -12098,7 +9886,7 @@
         <v>18.649999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>613.423</v>
       </c>
@@ -12153,7 +9941,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>991.89099999999996</v>
       </c>
@@ -12208,7 +9996,7 @@
         <v>37.869999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1286.3399999999999</v>
       </c>
@@ -12263,7 +10051,7 @@
         <v>51.15</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2146.7199999999998</v>
       </c>
@@ -12318,7 +10106,7 @@
         <v>67.19</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2525.9899999999998</v>
       </c>
@@ -12373,55 +10161,55 @@
         <v>86.23</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="3:15">
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="3:15">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="3:15">
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
       <c r="G67" s="1"/>
     </row>
-    <row r="72" spans="3:15">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" spans="3:15">
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>66</v>
       </c>
@@ -12432,7 +10220,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="3:15">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C74">
         <v>1280</v>
       </c>
@@ -12446,7 +10234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="3:15">
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C75">
         <v>1276.28</v>
       </c>
@@ -12460,7 +10248,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="3:15">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C76">
         <v>1161.0999999999999</v>
       </c>
@@ -12474,7 +10262,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="3:15">
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C77">
         <v>1124.5</v>
       </c>
@@ -12488,7 +10276,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="3:15">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C78">
         <v>1137.3800000000001</v>
       </c>
@@ -12502,7 +10290,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="79" spans="3:15">
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C79">
         <v>1143.6400000000001</v>
       </c>
@@ -12516,7 +10304,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="80" spans="3:15">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C80">
         <v>1002.75</v>
       </c>
@@ -12530,7 +10318,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="81" spans="3:15">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C81">
         <v>1159.02</v>
       </c>
@@ -12544,7 +10332,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="82" spans="3:15">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C82">
         <v>1170.6199999999999</v>
       </c>
@@ -12558,7 +10346,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="83" spans="3:15">
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C83">
         <v>1142.46</v>
       </c>
@@ -12572,12 +10360,244 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="84" spans="3:15">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
       <c r="N84">
         <v>141.88</v>
       </c>
       <c r="O84">
         <v>3100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M100" t="s">
+        <v>72</v>
+      </c>
+      <c r="N100" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>0.4</v>
+      </c>
+      <c r="M101">
+        <v>50</v>
+      </c>
+      <c r="N101">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>1.3</v>
+      </c>
+      <c r="M102">
+        <v>100</v>
+      </c>
+      <c r="N102">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>150</v>
+      </c>
+      <c r="C103">
+        <v>1.4</v>
+      </c>
+      <c r="M103">
+        <v>150</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>1.5</v>
+      </c>
+      <c r="M104">
+        <v>200</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>300</v>
+      </c>
+      <c r="C105">
+        <v>1.5</v>
+      </c>
+      <c r="M105">
+        <v>300</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>400</v>
+      </c>
+      <c r="C106">
+        <v>1.5</v>
+      </c>
+      <c r="M106">
+        <v>400</v>
+      </c>
+      <c r="N106">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>500</v>
+      </c>
+      <c r="C107">
+        <v>1.5</v>
+      </c>
+      <c r="M107">
+        <v>500</v>
+      </c>
+      <c r="N107">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>700</v>
+      </c>
+      <c r="C108">
+        <v>1.5</v>
+      </c>
+      <c r="M108">
+        <v>700</v>
+      </c>
+      <c r="N108">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>900</v>
+      </c>
+      <c r="C109">
+        <v>1.5</v>
+      </c>
+      <c r="M109">
+        <v>900</v>
+      </c>
+      <c r="N109">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>1300</v>
+      </c>
+      <c r="C110">
+        <v>1.5</v>
+      </c>
+      <c r="M110">
+        <v>1300</v>
+      </c>
+      <c r="N110">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>1600</v>
+      </c>
+      <c r="C111">
+        <v>1.5</v>
+      </c>
+      <c r="M111">
+        <v>1600</v>
+      </c>
+      <c r="N111">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>1900</v>
+      </c>
+      <c r="C112">
+        <v>1.5</v>
+      </c>
+      <c r="M112">
+        <v>1900</v>
+      </c>
+      <c r="N112">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>2300</v>
+      </c>
+      <c r="C113">
+        <v>1.5</v>
+      </c>
+      <c r="M113">
+        <v>2300</v>
+      </c>
+      <c r="N113">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>2700</v>
+      </c>
+      <c r="C114">
+        <v>1.5</v>
+      </c>
+      <c r="M114">
+        <v>2700</v>
+      </c>
+      <c r="N114">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>3100</v>
+      </c>
+      <c r="C115">
+        <v>1.5</v>
+      </c>
+      <c r="M115">
+        <v>3100</v>
+      </c>
+      <c r="N115">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -12589,8 +10609,8 @@
     <mergeCell ref="V37:W37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12603,18 +10623,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:Z37"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E145" sqref="E145"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -12657,7 +10677,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -12730,7 +10750,7 @@
       <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>LOG10(B10/1000)/LOG10(2)</f>
         <v>8.7109303830798162</v>
@@ -12818,7 +10838,7 @@
         <v>5.5773351631182839</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A21" si="2">LOG10(B11/1000)/LOG10(2)</f>
         <v>7.7251617266764212</v>
@@ -12906,7 +10926,7 @@
         <v>7.986143534025528</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="2"/>
         <v>7.1959872980285082</v>
@@ -12994,7 +11014,7 @@
         <v>15.312028512292517</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
         <v>6.7720703921766434</v>
@@ -13082,7 +11102,7 @@
         <v>15.384952342411319</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>6.5355242297732161</v>
@@ -13170,7 +11190,7 @@
         <v>15.666493095819257</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>6.3569712909745801</v>
@@ -13258,7 +11278,7 @@
         <v>16.951216403925464</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>6.1994171517161503</v>
@@ -13346,7 +11366,7 @@
         <v>17.355204823410517</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
         <v>6.1414736645298218</v>
@@ -13434,7 +11454,7 @@
         <v>17.750628485737526</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
         <v>6.9521937635650906</v>
@@ -13522,7 +11542,7 @@
         <v>17.795640185452058</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
         <v>6.7772618915645841</v>
@@ -13610,7 +11630,7 @@
         <v>18.487863580403197</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
         <v>6.7713574089905615</v>
@@ -13698,7 +11718,7 @@
         <v>18.670797994687216</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
         <v>6.7231762676275233</v>
@@ -13786,14 +11806,14 @@
         <v>18.854941412005857</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>44</v>
       </c>
@@ -13804,7 +11824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>B10/1000</f>
         <v>419.036</v>
@@ -13818,7 +11838,7 @@
         <v>93042</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26:A36" si="21">B11/1000</f>
         <v>211.595</v>
@@ -13832,7 +11852,7 @@
         <v>46486.9</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="21"/>
         <v>146.625</v>
@@ -13846,7 +11866,7 @@
         <v>31541.9</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="21"/>
         <v>109.294</v>
@@ -13860,7 +11880,7 @@
         <v>23744</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="21"/>
         <v>92.766000000000005</v>
@@ -13874,7 +11894,7 @@
         <v>19869.900000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="21"/>
         <v>81.966999999999999</v>
@@ -13888,7 +11908,7 @@
         <v>19519.2</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="21"/>
         <v>73.486999999999995</v>
@@ -13902,7 +11922,7 @@
         <v>19569.2</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="21"/>
         <v>70.593999999999994</v>
@@ -13916,7 +11936,7 @@
         <v>19678.5</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="21"/>
         <v>123.828</v>
@@ -13930,7 +11950,7 @@
         <v>25979</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="21"/>
         <v>109.688</v>
@@ -13944,7 +11964,7 @@
         <v>23920.6</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="21"/>
         <v>109.24</v>
@@ -13958,7 +11978,7 @@
         <v>23722.7</v>
       </c>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="21"/>
         <v>105.652</v>
@@ -13972,7 +11992,7 @@
         <v>23723.4</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P37" s="1"/>
     </row>
   </sheetData>
@@ -14000,20 +12020,20 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
@@ -14023,7 +12043,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="18">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
@@ -14040,7 +12060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18">
+    <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>38</v>
       </c>
@@ -14067,14 +12087,14 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:14" ht="18">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>93.042000000000002</v>
       </c>
@@ -14091,7 +12111,7 @@
       </c>
       <c r="F5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="18">
+    <row r="6" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>46.486899999999999</v>
       </c>
@@ -14137,7 +12157,7 @@
         <v>-2.9562725991328254</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18">
+    <row r="7" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>31.541899999999998</v>
       </c>
@@ -14183,7 +12203,7 @@
         <v>-2.7033256882855863</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>23.744</v>
       </c>
@@ -14229,7 +12249,7 @@
         <v>-2.6603061676747597</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>19.869900000000001</v>
       </c>
@@ -14275,7 +12295,7 @@
         <v>-2.2646177174275284</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>19.519200000000001</v>
       </c>
@@ -14321,7 +12341,7 @@
         <v>-2.0904642030235947</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>19.569199999999999</v>
       </c>
@@ -14367,7 +12387,7 @@
         <v>-1.3399568169892926</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>19.6785</v>
       </c>
@@ -14413,7 +12433,7 @@
         <v>-1.8215502349486263</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>25.978999999999999</v>
       </c>
@@ -14459,7 +12479,7 @@
         <v>-1.0697305481828054</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>23.9206</v>
       </c>
@@ -14505,7 +12525,7 @@
         <v>-1.0922834816553153</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>23.7227</v>
       </c>
@@ -14551,7 +12571,7 @@
         <v>-1.0370897909944501</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>23.723400000000002</v>
       </c>
@@ -14597,7 +12617,7 @@
         <v>-0.91056802659918257</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
     </row>
   </sheetData>
@@ -14614,7 +12634,6 @@
     <mergeCell ref="C3:C4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
